--- a/Salesforce/Salesforce.xlsx
+++ b/Salesforce/Salesforce.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1" userName="SONY" reservationPassword="CA71"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="15315" windowHeight="8085" tabRatio="840" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="15315" windowHeight="8085" tabRatio="840" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="10" r:id="rId1"/>
@@ -26,20 +26,22 @@
     <sheet name="15 - TimeProjeto" sheetId="18" r:id="rId16"/>
     <sheet name="16 - PGC" sheetId="19" r:id="rId17"/>
     <sheet name="17 - PGR" sheetId="20" r:id="rId18"/>
-    <sheet name="18 - RiscosPN" sheetId="21" r:id="rId19"/>
-    <sheet name="19 - EAR" sheetId="22" r:id="rId20"/>
+    <sheet name="18 - EAR" sheetId="22" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'12 - MQ'!$B$2:$G$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'8 - Orçamento'!$A$2:$G$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1 - Considerações Gerais'!$B$1:$R$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'10 - Contingência'!$B$1:$F$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'11 - MS-Project'!$B$1:$E$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'12 - MQ'!$B$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'12 - MQ'!$B$1:$G$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'13 - CQ'!$B$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'15 - TimeProjeto'!$B$1:$G$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'16 - PGC'!$B$1:$G$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'17 - PGR'!$B$1:$M$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2 - Project Charter'!$B$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3 - Stakeholders List'!$B$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4 - Stakeholders Graphic'!$B$1:$N$25</definedName>
@@ -1073,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="G11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1169,8 +1171,326 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>SONY</author>
+  </authors>
+  <commentList>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gerenciamento do Projeto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="641">
   <si>
     <t>SALES FORCE</t>
   </si>
@@ -2534,105 +2854,19 @@
     <t>Plano de Gerenciamento das Comunicações</t>
   </si>
   <si>
-    <t>Riscos Positivos e Negativos</t>
-  </si>
-  <si>
     <t>Estrutura Analítica dos Riscos</t>
   </si>
   <si>
-    <t>Tipo de Comunicação</t>
-  </si>
-  <si>
-    <t>Objetivo da Comunicação</t>
-  </si>
-  <si>
     <t>Meio de Comunicação</t>
   </si>
   <si>
     <t>Frequencia</t>
   </si>
   <si>
-    <t>Audiência</t>
-  </si>
-  <si>
-    <t>Responsável</t>
-  </si>
-  <si>
-    <t>Entregável</t>
-  </si>
-  <si>
     <t>Reunião de Kickoff</t>
   </si>
   <si>
-    <t>Informar ao time do projeto quais os objetivos e as estratégias de gerenciamento do projeto</t>
-  </si>
-  <si>
     <t>Presencial</t>
-  </si>
-  <si>
-    <t>Uma vez</t>
-  </si>
-  <si>
-    <t>Relatórios de status do projeto</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Envio do status aos stakeholders externos</t>
-  </si>
-  <si>
-    <t>Envio do status aos stakeholders internos</t>
-  </si>
-  <si>
-    <t>Reunião semanal com o time do projeto</t>
-  </si>
-  <si>
-    <t>Reunião mensal com os stakeholders internos</t>
-  </si>
-  <si>
-    <t>Reunião mensal de status do projeto</t>
-  </si>
-  <si>
-    <t>Envolvidos internos</t>
-  </si>
-  <si>
-    <t>Time do projeto</t>
-  </si>
-  <si>
-    <t>Patrocinador
-Time do projeto
-Envolvidos internos
-Envolvidos externos</t>
-  </si>
-  <si>
-    <t>Time do projeto
-Envolvidos internos</t>
-  </si>
-  <si>
-    <t>semanal</t>
-  </si>
-  <si>
-    <t>mensal</t>
-  </si>
-  <si>
-    <t>Patrocinador
-Envolvidos externos</t>
-  </si>
-  <si>
-    <t>Reuniões técnicas</t>
-  </si>
-  <si>
-    <t>quando necessário</t>
-  </si>
-  <si>
-    <t>Revisões mensais de status do projeto</t>
-  </si>
-  <si>
-    <t>Discuções de desenvolvimento técnico e soluções para o projeto</t>
-  </si>
-  <si>
-    <t>Revisões semanais de status do projeto</t>
   </si>
   <si>
     <t>Envolvidos</t>
@@ -3202,9 +3436,6 @@
     <t>Externo</t>
   </si>
   <si>
-    <t>Subcontratadas e  Fornecedores</t>
-  </si>
-  <si>
     <t>Necessidade de contratação de planos de telefonia e banda larga móvel de operadoras distintas em decorrência de restrições de cobertura.</t>
   </si>
   <si>
@@ -3223,9 +3454,6 @@
     <t>Incompatibilidade entre o sistema operacional do dispositivo móvel e o aplicativo para criação de pedidos. (Salesforce)</t>
   </si>
   <si>
-    <t>Complexidade e Interfaces</t>
-  </si>
-  <si>
     <t>Custo do sistema superior ao estimado.</t>
   </si>
   <si>
@@ -3280,9 +3508,6 @@
     <t>Pontuação</t>
   </si>
   <si>
-    <t>Desempenho e confiabilidade</t>
-  </si>
-  <si>
     <t>Cargo</t>
   </si>
   <si>
@@ -3473,6 +3698,155 @@
   </si>
   <si>
     <t>Escopo</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Subcontratadas
+e  Fornecedores</t>
+  </si>
+  <si>
+    <t>Complexidade
+e Interfaces</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Reponsável</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Iniciar a execução do projeto
+Informar à equipe do projeto os objetivos e estratégias do projeto</t>
+  </si>
+  <si>
+    <t>Início do Projeto</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto
+Patrocinador
+Partes Interessadas
+Equipe do Projeto</t>
+  </si>
+  <si>
+    <t>Reunião de Acompanhamento</t>
+  </si>
+  <si>
+    <t>Monitorar e avaliar o desenvolvimento dos trabalhos projeto</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto
+Equipe do Projeto</t>
+  </si>
+  <si>
+    <t>Reunião de Status</t>
+  </si>
+  <si>
+    <t>Apresentar status e progresso do projeto, ou atingimento de marco</t>
+  </si>
+  <si>
+    <t>Mensal ou quando ocorrer atigimento de marco</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto
+Patrocinador
+Partes Interessadas</t>
+  </si>
+  <si>
+    <t>Reunião de Análise de Risco</t>
+  </si>
+  <si>
+    <t>Análisar e planejar resposta aos riscos</t>
+  </si>
+  <si>
+    <t>Fase de planejamento do projeto ou quando necessário</t>
+  </si>
+  <si>
+    <t>Reunião Técnica</t>
+  </si>
+  <si>
+    <t>Análisar e revisar requsitos, problemas ou outras questões técnicas identificadas durante o projeto; identificar alternativas e soluções</t>
+  </si>
+  <si>
+    <t>Quando necessário</t>
+  </si>
+  <si>
+    <t>Reunião de Encerramento</t>
+  </si>
+  <si>
+    <t>Formalizar o encerramento do projeto, apresentar resultados, indicadores, desvios, problemas, soluções e liçoes aprendidas</t>
+  </si>
+  <si>
+    <t>Encerramento do Projeto</t>
+  </si>
+  <si>
+    <t>Plano de Gerenciamento do Projeto</t>
+  </si>
+  <si>
+    <t>Divulgar o Plano de Gerenciamento do Projeto</t>
+  </si>
+  <si>
+    <t>Documento enviado via email</t>
+  </si>
+  <si>
+    <t>Início do projeto ou quando ocorrer atualização do Plano de Gerenciamento do Projeto</t>
+  </si>
+  <si>
+    <t>Relatório de Status</t>
+  </si>
+  <si>
+    <t>Documentar o status do desenolvimento dos trabalhos do projeto</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto
+Partes Interessadas
+Equipe do Projeto</t>
+  </si>
+  <si>
+    <t>Relatório de Evento</t>
+  </si>
+  <si>
+    <t>Distribuir informações referentes a eventos diversos relacionados ao projeto</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Relatório de Acompanhamento Mensal</t>
+  </si>
+  <si>
+    <t>Apresentar status e progresso mensado do projeto</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>Solicitação de Mudança</t>
+  </si>
+  <si>
+    <t>Solicitar autorizar mudanças no projeto</t>
+  </si>
+  <si>
+    <t>Documentar as lições aprendidas durante a execução do projeto</t>
+  </si>
+  <si>
+    <t>Relatório Final</t>
+  </si>
+  <si>
+    <t>Formalizar o encerramento do projeto, apresentar resultados obtidos, desvios, problemas, soluções e lições aprendidas</t>
+  </si>
+  <si>
+    <t>Lições Aprendidas</t>
   </si>
 </sst>
 </file>
@@ -3487,6 +3861,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3645,12 +4026,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Webdings"/>
       <family val="1"/>
@@ -4530,8 +4905,91 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -4545,126 +5003,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -4692,382 +5030,403 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="16" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="18" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="17" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="18" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="18" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="19" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5076,53 +5435,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5145,125 +5501,37 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5274,9 +5542,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5297,53 +5562,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="73" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5352,53 +5586,214 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6389,6 +6784,132 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="28575" y="28575"/>
+          <a:ext cx="542926" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58314"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta para a direita listrada 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="1 - Capa"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="542926" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58314"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>32807</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>318557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Seta para a direita listrada 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="1 - Capa"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="32807" y="32807"/>
           <a:ext cx="542926" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="stripedRightArrow">
@@ -8668,7 +9189,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8702,13 +9223,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="10" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="261"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="212"/>
     </row>
     <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="129" t="s">
@@ -8898,12 +9419,12 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B13" s="262" t="s">
+      <c r="B13" s="213" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="263"/>
-      <c r="D13" s="263"/>
-      <c r="E13" s="263"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
       <c r="F13" s="131">
         <f>SUM(F3:F12)</f>
         <v>39770</v>
@@ -8937,16 +9458,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="15">
-      <c r="C2" s="251" t="s">
+      <c r="C2" s="202" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="251"/>
+      <c r="D2" s="202"/>
     </row>
     <row r="3" spans="3:4" ht="15">
-      <c r="C3" s="251" t="s">
+      <c r="C3" s="202" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="251"/>
+      <c r="D3" s="202"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8970,13 +9491,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F36"/>
+  <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8984,56 +9505,64 @@
     <col min="1" max="1" width="9.140625" style="135"/>
     <col min="2" max="2" width="3" style="135" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" style="135" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="135" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="136" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="135" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="135"/>
+    <col min="6" max="6" width="8.42578125" style="230" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" style="135" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1">
-      <c r="B1" s="264" t="s">
+    <row r="1" spans="2:7" ht="15" customHeight="1">
+      <c r="B1" s="232" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-    </row>
-    <row r="2" spans="2:6" s="18" customFormat="1" ht="15">
-      <c r="B2" s="186" t="s">
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="234"/>
+    </row>
+    <row r="2" spans="2:7" s="18" customFormat="1" ht="15">
+      <c r="B2" s="181" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="181" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="186" t="s">
+      <c r="E2" s="181" t="s">
         <v>382</v>
       </c>
-      <c r="F2" s="186" t="s">
+      <c r="F2" s="181" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2" s="181" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="181">
+    <row r="3" spans="2:7">
+      <c r="B3" s="176">
         <v>1</v>
       </c>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="177" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="183" t="s">
+      <c r="D3" s="178" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="184">
+      <c r="E3" s="179">
         <v>320404</v>
       </c>
-      <c r="F3" s="185" t="s">
+      <c r="F3" s="235" t="s">
+        <v>595</v>
+      </c>
+      <c r="G3" s="180" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" s="144">
         <v>2</v>
       </c>
@@ -9046,11 +9575,14 @@
       <c r="E4" s="139">
         <v>39770</v>
       </c>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="236" t="s">
+        <v>595</v>
+      </c>
+      <c r="G4" s="145" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="25.5">
+    <row r="5" spans="2:7" ht="25.5">
       <c r="B5" s="142">
         <v>3</v>
       </c>
@@ -9063,11 +9595,14 @@
       <c r="E5" s="137">
         <v>4</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="237" t="s">
+        <v>595</v>
+      </c>
+      <c r="G5" s="143" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="144">
         <v>4</v>
       </c>
@@ -9080,11 +9615,14 @@
       <c r="E6" s="138">
         <v>7</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="236" t="s">
+        <v>595</v>
+      </c>
+      <c r="G6" s="145" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="142">
         <v>5</v>
       </c>
@@ -9097,11 +9635,14 @@
       <c r="E7" s="137">
         <v>80</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="237" t="s">
+        <v>595</v>
+      </c>
+      <c r="G7" s="143" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8" s="144">
         <v>6</v>
       </c>
@@ -9114,11 +9655,14 @@
       <c r="E8" s="138">
         <v>100</v>
       </c>
-      <c r="F8" s="145" t="s">
+      <c r="F8" s="236" t="s">
+        <v>595</v>
+      </c>
+      <c r="G8" s="145" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="25.5">
+    <row r="9" spans="2:7" ht="25.5">
       <c r="B9" s="142">
         <v>7</v>
       </c>
@@ -9131,11 +9675,14 @@
       <c r="E9" s="137">
         <v>95</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="237" t="s">
+        <v>595</v>
+      </c>
+      <c r="G9" s="143" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:7">
       <c r="B10" s="144">
         <v>8</v>
       </c>
@@ -9148,11 +9695,14 @@
       <c r="E10" s="138">
         <v>100</v>
       </c>
-      <c r="F10" s="145" t="s">
+      <c r="F10" s="236" t="s">
+        <v>595</v>
+      </c>
+      <c r="G10" s="145" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="25.5">
+    <row r="11" spans="2:7" ht="25.5">
       <c r="B11" s="142">
         <v>9</v>
       </c>
@@ -9165,11 +9715,14 @@
       <c r="E11" s="137">
         <v>90</v>
       </c>
-      <c r="F11" s="143" t="s">
+      <c r="F11" s="237" t="s">
+        <v>595</v>
+      </c>
+      <c r="G11" s="143" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7">
       <c r="B12" s="144">
         <v>10</v>
       </c>
@@ -9182,11 +9735,14 @@
       <c r="E12" s="138">
         <v>80</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="F12" s="236" t="s">
+        <v>595</v>
+      </c>
+      <c r="G12" s="145" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:7">
       <c r="B13" s="142">
         <v>11</v>
       </c>
@@ -9199,11 +9755,14 @@
       <c r="E13" s="137">
         <v>80</v>
       </c>
-      <c r="F13" s="143" t="s">
+      <c r="F13" s="237" t="s">
+        <v>595</v>
+      </c>
+      <c r="G13" s="143" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:7">
       <c r="B14" s="144">
         <v>12</v>
       </c>
@@ -9216,11 +9775,14 @@
       <c r="E14" s="138">
         <v>80</v>
       </c>
-      <c r="F14" s="145" t="s">
+      <c r="F14" s="236" t="s">
+        <v>595</v>
+      </c>
+      <c r="G14" s="145" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:7">
       <c r="B15" s="142">
         <v>13</v>
       </c>
@@ -9233,11 +9795,14 @@
       <c r="E15" s="137">
         <v>85</v>
       </c>
-      <c r="F15" s="143" t="s">
+      <c r="F15" s="237" t="s">
+        <v>595</v>
+      </c>
+      <c r="G15" s="143" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="25.5">
+    <row r="16" spans="2:7" ht="25.5">
       <c r="B16" s="144">
         <v>14</v>
       </c>
@@ -9250,11 +9815,14 @@
       <c r="E16" s="138">
         <v>100</v>
       </c>
-      <c r="F16" s="145" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="F16" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G16" s="145" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="142">
         <v>15</v>
       </c>
@@ -9267,11 +9835,14 @@
       <c r="E17" s="137">
         <v>95</v>
       </c>
-      <c r="F17" s="143" t="s">
+      <c r="F17" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G17" s="143" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7">
       <c r="B18" s="144">
         <v>16</v>
       </c>
@@ -9284,11 +9855,14 @@
       <c r="E18" s="138">
         <v>100</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="F18" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G18" s="145" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" s="142">
         <v>17</v>
       </c>
@@ -9301,11 +9875,14 @@
       <c r="E19" s="137">
         <v>100</v>
       </c>
-      <c r="F19" s="143" t="s">
+      <c r="F19" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G19" s="143" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7">
       <c r="B20" s="144">
         <v>18</v>
       </c>
@@ -9318,11 +9895,14 @@
       <c r="E20" s="138">
         <v>1</v>
       </c>
-      <c r="F20" s="145" t="s">
+      <c r="F20" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G20" s="145" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7">
       <c r="B21" s="142">
         <v>19</v>
       </c>
@@ -9335,11 +9915,14 @@
       <c r="E21" s="137">
         <v>5</v>
       </c>
-      <c r="F21" s="143" t="s">
+      <c r="F21" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G21" s="143" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7">
       <c r="B22" s="144">
         <v>20</v>
       </c>
@@ -9352,11 +9935,14 @@
       <c r="E22" s="138">
         <v>3</v>
       </c>
-      <c r="F22" s="145" t="s">
+      <c r="F22" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G22" s="145" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7">
       <c r="B23" s="142">
         <v>21</v>
       </c>
@@ -9369,11 +9955,14 @@
       <c r="E23" s="137">
         <v>3</v>
       </c>
-      <c r="F23" s="143" t="s">
+      <c r="F23" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G23" s="143" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7">
       <c r="B24" s="144">
         <v>22</v>
       </c>
@@ -9386,16 +9975,19 @@
       <c r="E24" s="138">
         <v>2</v>
       </c>
-      <c r="F24" s="145" t="s">
+      <c r="F24" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G24" s="145" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:7">
       <c r="B25" s="142">
         <v>23</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="D25" s="137" t="s">
         <v>360</v>
@@ -9403,11 +9995,14 @@
       <c r="E25" s="137">
         <v>7</v>
       </c>
-      <c r="F25" s="143" t="s">
+      <c r="F25" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G25" s="143" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="51">
+    <row r="26" spans="2:7" ht="51">
       <c r="B26" s="144">
         <v>24</v>
       </c>
@@ -9420,11 +10015,14 @@
       <c r="E26" s="138">
         <v>20</v>
       </c>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G26" s="145" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="25.5">
+    <row r="27" spans="2:7" ht="25.5">
       <c r="B27" s="142">
         <v>25</v>
       </c>
@@ -9437,11 +10035,14 @@
       <c r="E27" s="137">
         <v>75</v>
       </c>
-      <c r="F27" s="143" t="s">
+      <c r="F27" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G27" s="143" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="63.75">
+    <row r="28" spans="2:7" ht="60" customHeight="1">
       <c r="B28" s="144">
         <v>26</v>
       </c>
@@ -9449,16 +10050,19 @@
         <v>322</v>
       </c>
       <c r="D28" s="138" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="E28" s="138">
         <v>10</v>
       </c>
-      <c r="F28" s="145" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="F28" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G28" s="145" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="142">
         <v>27</v>
       </c>
@@ -9471,11 +10075,14 @@
       <c r="E29" s="137">
         <v>100</v>
       </c>
-      <c r="F29" s="143" t="s">
+      <c r="F29" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G29" s="143" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:7">
       <c r="B30" s="144">
         <v>28</v>
       </c>
@@ -9488,11 +10095,14 @@
       <c r="E30" s="138">
         <v>100</v>
       </c>
-      <c r="F30" s="145" t="s">
+      <c r="F30" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G30" s="145" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="25.5">
+    <row r="31" spans="2:7" ht="25.5">
       <c r="B31" s="142">
         <v>29</v>
       </c>
@@ -9505,11 +10115,14 @@
       <c r="E31" s="137">
         <v>95</v>
       </c>
-      <c r="F31" s="143" t="s">
+      <c r="F31" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G31" s="143" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="51">
+    <row r="32" spans="2:7" ht="51">
       <c r="B32" s="144">
         <v>31</v>
       </c>
@@ -9517,16 +10130,19 @@
         <v>374</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="E32" s="138">
         <v>9</v>
       </c>
-      <c r="F32" s="145" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="F32" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G32" s="145" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="142">
         <v>33</v>
       </c>
@@ -9539,11 +10155,14 @@
       <c r="E33" s="137">
         <v>90</v>
       </c>
-      <c r="F33" s="143" t="s">
+      <c r="F33" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G33" s="143" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="25.5">
+    <row r="34" spans="2:7" ht="25.5">
       <c r="B34" s="144">
         <v>34</v>
       </c>
@@ -9556,11 +10175,14 @@
       <c r="E34" s="138">
         <v>90</v>
       </c>
-      <c r="F34" s="145" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="25.5">
+      <c r="F34" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G34" s="145" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="25.5">
       <c r="B35" s="142">
         <v>35</v>
       </c>
@@ -9573,30 +10195,36 @@
       <c r="E35" s="137">
         <v>100</v>
       </c>
-      <c r="F35" s="143" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="38.25">
-      <c r="B36" s="146">
+      <c r="F35" s="237" t="s">
+        <v>596</v>
+      </c>
+      <c r="G35" s="143" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="38.25">
+      <c r="B36" s="144">
         <v>36</v>
       </c>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="141" t="s">
         <v>378</v>
       </c>
-      <c r="D36" s="148" t="s">
-        <v>478</v>
-      </c>
-      <c r="E36" s="148">
+      <c r="D36" s="138" t="s">
+        <v>451</v>
+      </c>
+      <c r="E36" s="138">
         <v>9</v>
       </c>
-      <c r="F36" s="149" t="s">
-        <v>473</v>
+      <c r="F36" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="G36" s="145" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9611,7 +10239,7 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9621,29 +10249,29 @@
     <col min="4" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="25.5" customHeight="1">
-      <c r="B1" s="264" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
+    <row r="1" spans="2:5" ht="24.75" customHeight="1">
+      <c r="B1" s="238" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
     </row>
     <row r="2" spans="2:5" ht="3" customHeight="1">
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
     </row>
     <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="255" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="194" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195"/>
+      <c r="C3" s="256" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" s="256"/>
+      <c r="E3" s="257"/>
     </row>
     <row r="4" spans="2:5" ht="3" customHeight="1">
       <c r="B4" s="18"/>
@@ -9652,118 +10280,118 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="240" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="186" t="s">
-        <v>483</v>
-      </c>
-      <c r="E5" s="186" t="s">
-        <v>484</v>
+      <c r="D5" s="240" t="s">
+        <v>456</v>
+      </c>
+      <c r="E5" s="241" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="189">
+      <c r="B6" s="242">
         <v>1</v>
       </c>
-      <c r="C6" s="190" t="s">
-        <v>482</v>
-      </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
+      <c r="C6" s="243" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="244"/>
+      <c r="E6" s="245"/>
     </row>
     <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="191">
+      <c r="B7" s="246">
         <v>2</v>
       </c>
-      <c r="C7" s="192" t="s">
-        <v>485</v>
-      </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
+      <c r="C7" s="247" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="248"/>
+      <c r="E7" s="249"/>
     </row>
     <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="189">
+      <c r="B8" s="242">
         <v>3</v>
       </c>
-      <c r="C8" s="190" t="s">
-        <v>486</v>
-      </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
+      <c r="C8" s="243" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" s="244"/>
+      <c r="E8" s="245"/>
     </row>
     <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="191">
+      <c r="B9" s="246">
         <v>4</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>487</v>
-      </c>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
+      <c r="C9" s="247" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9" s="248"/>
+      <c r="E9" s="249"/>
     </row>
     <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="189">
+      <c r="B10" s="242">
         <v>5</v>
       </c>
-      <c r="C10" s="190" t="s">
-        <v>488</v>
-      </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
+      <c r="C10" s="243" t="s">
+        <v>461</v>
+      </c>
+      <c r="D10" s="244"/>
+      <c r="E10" s="245"/>
     </row>
     <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="191">
+      <c r="B11" s="246">
         <v>6</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>490</v>
-      </c>
-      <c r="D11" s="197"/>
-      <c r="E11" s="197"/>
+      <c r="C11" s="247" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="248"/>
+      <c r="E11" s="249"/>
     </row>
     <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="189">
+      <c r="B12" s="242">
         <v>7</v>
       </c>
-      <c r="C12" s="190" t="s">
-        <v>489</v>
-      </c>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
+      <c r="C12" s="243" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="244"/>
+      <c r="E12" s="245"/>
     </row>
     <row r="13" spans="2:5" ht="15">
-      <c r="B13" s="191">
+      <c r="B13" s="246">
         <v>8</v>
       </c>
-      <c r="C13" s="192" t="s">
-        <v>491</v>
-      </c>
-      <c r="D13" s="197"/>
-      <c r="E13" s="197"/>
+      <c r="C13" s="247" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" s="248"/>
+      <c r="E13" s="249"/>
     </row>
     <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="189">
+      <c r="B14" s="242">
         <v>9</v>
       </c>
-      <c r="C14" s="190" t="s">
-        <v>492</v>
-      </c>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
+      <c r="C14" s="243" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" s="244"/>
+      <c r="E14" s="245"/>
     </row>
     <row r="15" spans="2:5" ht="15">
-      <c r="B15" s="191">
+      <c r="B15" s="250">
         <v>10</v>
       </c>
-      <c r="C15" s="192" t="s">
-        <v>493</v>
-      </c>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
+      <c r="C15" s="251" t="s">
+        <v>466</v>
+      </c>
+      <c r="D15" s="252"/>
+      <c r="E15" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9794,436 +10422,436 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B1" s="264" t="s">
-        <v>514</v>
-      </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
+      <c r="B1" s="215" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
     </row>
     <row r="2" spans="2:7" ht="15">
-      <c r="B2" s="200" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="200" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="200" t="s">
+      <c r="B2" s="185" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="185" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="185" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2" s="185" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" s="185" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" s="185" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15">
+      <c r="B3" s="258" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="259" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="259" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" s="199" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" s="264" t="s">
+        <v>472</v>
+      </c>
+      <c r="G3" s="265" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15">
+      <c r="B4" s="260" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="261" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="261" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="183" t="s">
+        <v>554</v>
+      </c>
+      <c r="F4" s="266" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" s="267" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15">
+      <c r="B5" s="262" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="263" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="263" t="s">
+        <v>533</v>
+      </c>
+      <c r="E5" s="184" t="s">
+        <v>555</v>
+      </c>
+      <c r="F5" s="268" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" s="269" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15">
+      <c r="B6" s="260" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="261" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="261" t="s">
+        <v>534</v>
+      </c>
+      <c r="E6" s="183" t="s">
+        <v>556</v>
+      </c>
+      <c r="F6" s="266" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="267" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15">
+      <c r="B7" s="262" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="263" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="263" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" s="184" t="s">
+        <v>557</v>
+      </c>
+      <c r="F7" s="268" t="s">
+        <v>477</v>
+      </c>
+      <c r="G7" s="269" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15">
+      <c r="B8" s="260" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="261" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="261" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" s="183" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" s="266" t="s">
+        <v>478</v>
+      </c>
+      <c r="G8" s="267" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15">
+      <c r="B9" s="262" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="263" t="s">
+        <v>591</v>
+      </c>
+      <c r="D9" s="263" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" s="184" t="s">
+        <v>559</v>
+      </c>
+      <c r="F9" s="268" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" s="269" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15">
+      <c r="B10" s="260" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="261" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="261" t="s">
+        <v>536</v>
+      </c>
+      <c r="E10" s="183" t="s">
+        <v>560</v>
+      </c>
+      <c r="F10" s="266" t="s">
+        <v>480</v>
+      </c>
+      <c r="G10" s="267" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15">
+      <c r="B11" s="262" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="263" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="263" t="s">
+        <v>537</v>
+      </c>
+      <c r="E11" s="184" t="s">
         <v>561</v>
       </c>
-      <c r="E2" s="200" t="s">
-        <v>515</v>
-      </c>
-      <c r="F2" s="200" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="200" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75">
-      <c r="B3" s="242" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="243" t="s">
-        <v>498</v>
-      </c>
-      <c r="D3" s="243" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="244" t="s">
+      <c r="F11" s="268" t="s">
+        <v>482</v>
+      </c>
+      <c r="G11" s="269" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15">
+      <c r="B12" s="260" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="261" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="261" t="s">
+        <v>538</v>
+      </c>
+      <c r="E12" s="183" t="s">
+        <v>562</v>
+      </c>
+      <c r="F12" s="266" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" s="267" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15">
+      <c r="B13" s="262" t="s">
+        <v>540</v>
+      </c>
+      <c r="C13" s="263" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="263" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="184" t="s">
+        <v>563</v>
+      </c>
+      <c r="F13" s="268" t="s">
+        <v>486</v>
+      </c>
+      <c r="G13" s="269" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15">
+      <c r="B14" s="260" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" s="261" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="261" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="183" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="266" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" s="267" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15">
+      <c r="B15" s="262" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="263" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="263" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="184" t="s">
+        <v>565</v>
+      </c>
+      <c r="F15" s="268" t="s">
+        <v>548</v>
+      </c>
+      <c r="G15" s="269" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15">
+      <c r="B16" s="260" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" s="261" t="s">
+        <v>591</v>
+      </c>
+      <c r="D16" s="261" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="183" t="s">
+        <v>566</v>
+      </c>
+      <c r="F16" s="266" t="s">
+        <v>549</v>
+      </c>
+      <c r="G16" s="267" t="s">
         <v>583</v>
       </c>
-      <c r="F3" s="245" t="s">
-        <v>499</v>
-      </c>
-      <c r="G3" s="247" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75">
-      <c r="B4" s="203" t="s">
-        <v>432</v>
-      </c>
-      <c r="C4" s="204" t="s">
-        <v>431</v>
-      </c>
-      <c r="D4" s="204" t="s">
-        <v>562</v>
-      </c>
-      <c r="E4" s="198" t="s">
+    </row>
+    <row r="17" spans="2:7" ht="15">
+      <c r="B17" s="262" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" s="263" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" s="263" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="184" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" s="268" t="s">
+        <v>550</v>
+      </c>
+      <c r="G17" s="269" t="s">
         <v>584</v>
       </c>
-      <c r="F4" s="246" t="s">
-        <v>500</v>
-      </c>
-      <c r="G4" s="248" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="201" t="s">
-        <v>434</v>
-      </c>
-      <c r="C5" s="202" t="s">
-        <v>433</v>
-      </c>
-      <c r="D5" s="202" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="199" t="s">
+    </row>
+    <row r="18" spans="2:7" ht="15">
+      <c r="B18" s="260" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" s="261" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="261" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="183" t="s">
+        <v>568</v>
+      </c>
+      <c r="F18" s="266" t="s">
+        <v>551</v>
+      </c>
+      <c r="G18" s="267" t="s">
         <v>585</v>
       </c>
-      <c r="F5" s="250" t="s">
-        <v>501</v>
-      </c>
-      <c r="G5" s="249" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75">
-      <c r="B6" s="203" t="s">
-        <v>576</v>
-      </c>
-      <c r="C6" s="204" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6" s="204" t="s">
-        <v>564</v>
-      </c>
-      <c r="E6" s="198" t="s">
+    </row>
+    <row r="19" spans="2:7" ht="15">
+      <c r="B19" s="262" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" s="263" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="263" t="s">
+        <v>539</v>
+      </c>
+      <c r="E19" s="184" t="s">
+        <v>481</v>
+      </c>
+      <c r="F19" s="268" t="s">
+        <v>552</v>
+      </c>
+      <c r="G19" s="269" t="s">
         <v>586</v>
       </c>
-      <c r="F6" s="246" t="s">
-        <v>503</v>
-      </c>
-      <c r="G6" s="248" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75">
-      <c r="B7" s="201" t="s">
-        <v>502</v>
-      </c>
-      <c r="C7" s="202" t="s">
-        <v>433</v>
-      </c>
-      <c r="D7" s="202" t="s">
-        <v>564</v>
-      </c>
-      <c r="E7" s="199" t="s">
+    </row>
+    <row r="20" spans="2:7" ht="15">
+      <c r="B20" s="260" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="261" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="261" t="s">
+        <v>539</v>
+      </c>
+      <c r="E20" s="183" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="266" t="s">
+        <v>589</v>
+      </c>
+      <c r="G20" s="267" t="s">
         <v>587</v>
       </c>
-      <c r="F7" s="250" t="s">
-        <v>504</v>
-      </c>
-      <c r="G7" s="249" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75">
-      <c r="B8" s="203" t="s">
-        <v>438</v>
-      </c>
-      <c r="C8" s="204" t="s">
-        <v>437</v>
-      </c>
-      <c r="D8" s="204" t="s">
-        <v>565</v>
-      </c>
-      <c r="E8" s="198" t="s">
+    </row>
+    <row r="21" spans="2:7" ht="15">
+      <c r="B21" s="262" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="263" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="263" t="s">
+        <v>539</v>
+      </c>
+      <c r="E21" s="184" t="s">
+        <v>485</v>
+      </c>
+      <c r="F21" s="268" t="s">
+        <v>590</v>
+      </c>
+      <c r="G21" s="269" t="s">
         <v>588</v>
       </c>
-      <c r="F8" s="246" t="s">
-        <v>505</v>
-      </c>
-      <c r="G8" s="248" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75">
-      <c r="B9" s="201" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" s="202" t="s">
-        <v>621</v>
-      </c>
-      <c r="D9" s="202" t="s">
-        <v>622</v>
-      </c>
-      <c r="E9" s="199" t="s">
-        <v>589</v>
-      </c>
-      <c r="F9" s="250" t="s">
-        <v>506</v>
-      </c>
-      <c r="G9" s="249" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75">
-      <c r="B10" s="203" t="s">
-        <v>442</v>
-      </c>
-      <c r="C10" s="204" t="s">
-        <v>441</v>
-      </c>
-      <c r="D10" s="204" t="s">
-        <v>566</v>
-      </c>
-      <c r="E10" s="198" t="s">
-        <v>590</v>
-      </c>
-      <c r="F10" s="246" t="s">
-        <v>507</v>
-      </c>
-      <c r="G10" s="248" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75">
-      <c r="B11" s="201" t="s">
-        <v>444</v>
-      </c>
-      <c r="C11" s="202" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" s="202" t="s">
-        <v>567</v>
-      </c>
-      <c r="E11" s="199" t="s">
-        <v>591</v>
-      </c>
-      <c r="F11" s="250" t="s">
-        <v>509</v>
-      </c>
-      <c r="G11" s="249" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75">
-      <c r="B12" s="203" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" s="204" t="s">
-        <v>445</v>
-      </c>
-      <c r="D12" s="204" t="s">
-        <v>568</v>
-      </c>
-      <c r="E12" s="198" t="s">
-        <v>592</v>
-      </c>
-      <c r="F12" s="246" t="s">
-        <v>511</v>
-      </c>
-      <c r="G12" s="248" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75">
-      <c r="B13" s="201" t="s">
-        <v>570</v>
-      </c>
-      <c r="C13" s="202" t="s">
-        <v>441</v>
-      </c>
-      <c r="D13" s="202" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="199" t="s">
-        <v>593</v>
-      </c>
-      <c r="F13" s="250" t="s">
-        <v>513</v>
-      </c>
-      <c r="G13" s="249" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75">
-      <c r="B14" s="203" t="s">
-        <v>571</v>
-      </c>
-      <c r="C14" s="204" t="s">
-        <v>443</v>
-      </c>
-      <c r="D14" s="204" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="198" t="s">
-        <v>594</v>
-      </c>
-      <c r="F14" s="246" t="s">
-        <v>577</v>
-      </c>
-      <c r="G14" s="248" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75">
-      <c r="B15" s="201" t="s">
-        <v>572</v>
-      </c>
-      <c r="C15" s="202" t="s">
-        <v>441</v>
-      </c>
-      <c r="D15" s="202" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="199" t="s">
-        <v>595</v>
-      </c>
-      <c r="F15" s="250" t="s">
-        <v>578</v>
-      </c>
-      <c r="G15" s="249" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75">
-      <c r="B16" s="203" t="s">
-        <v>573</v>
-      </c>
-      <c r="C16" s="204" t="s">
-        <v>621</v>
-      </c>
-      <c r="D16" s="204" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="198" t="s">
-        <v>596</v>
-      </c>
-      <c r="F16" s="246" t="s">
-        <v>579</v>
-      </c>
-      <c r="G16" s="248" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75">
-      <c r="B17" s="201" t="s">
-        <v>574</v>
-      </c>
-      <c r="C17" s="202" t="s">
-        <v>441</v>
-      </c>
-      <c r="D17" s="202" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="199" t="s">
-        <v>597</v>
-      </c>
-      <c r="F17" s="250" t="s">
-        <v>580</v>
-      </c>
-      <c r="G17" s="249" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75">
-      <c r="B18" s="203" t="s">
-        <v>575</v>
-      </c>
-      <c r="C18" s="204" t="s">
-        <v>441</v>
-      </c>
-      <c r="D18" s="204" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="198" t="s">
-        <v>598</v>
-      </c>
-      <c r="F18" s="246" t="s">
-        <v>581</v>
-      </c>
-      <c r="G18" s="248" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75">
-      <c r="B19" s="201" t="s">
-        <v>448</v>
-      </c>
-      <c r="C19" s="202" t="s">
-        <v>447</v>
-      </c>
-      <c r="D19" s="202" t="s">
-        <v>569</v>
-      </c>
-      <c r="E19" s="199" t="s">
-        <v>508</v>
-      </c>
-      <c r="F19" s="250" t="s">
-        <v>582</v>
-      </c>
-      <c r="G19" s="249" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75">
-      <c r="B20" s="203" t="s">
-        <v>450</v>
-      </c>
-      <c r="C20" s="204" t="s">
-        <v>449</v>
-      </c>
-      <c r="D20" s="204" t="s">
-        <v>569</v>
-      </c>
-      <c r="E20" s="198" t="s">
-        <v>510</v>
-      </c>
-      <c r="F20" s="246" t="s">
-        <v>619</v>
-      </c>
-      <c r="G20" s="248" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75">
-      <c r="B21" s="201" t="s">
-        <v>452</v>
-      </c>
-      <c r="C21" s="202" t="s">
-        <v>451</v>
-      </c>
-      <c r="D21" s="202" t="s">
-        <v>569</v>
-      </c>
-      <c r="E21" s="199" t="s">
-        <v>512</v>
-      </c>
-      <c r="F21" s="250" t="s">
-        <v>620</v>
-      </c>
-      <c r="G21" s="249" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="22" spans="2:7" ht="15.75">
-      <c r="B22" s="270"/>
-      <c r="C22" s="270"/>
-      <c r="D22" s="270"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="270"/>
-      <c r="G22" s="270"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10258,1095 +10886,1279 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="134" t="s">
+    <row r="1" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B1" s="215" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="152" t="s">
-        <v>404</v>
-      </c>
-      <c r="B3" s="151" t="s">
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="181" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" s="181" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" s="181" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" s="181" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" s="181" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="G2" s="181" t="s">
+        <v>395</v>
+      </c>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+    </row>
+    <row r="3" spans="2:9" ht="51">
+      <c r="B3" s="274" t="s">
         <v>393</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="C3" s="254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="275" t="s">
+        <v>602</v>
+      </c>
+      <c r="E3" s="254" t="s">
         <v>394</v>
       </c>
-      <c r="E3" s="151" t="s">
-        <v>395</v>
-      </c>
-      <c r="F3" s="151" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="151" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" s="151" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="51">
-      <c r="A4" s="151"/>
-      <c r="B4" s="151" t="s">
-        <v>399</v>
-      </c>
-      <c r="C4" s="151" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4" s="151" t="s">
-        <v>401</v>
-      </c>
-      <c r="E4" s="151" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="152" t="s">
-        <v>412</v>
-      </c>
-      <c r="G4" s="151" t="s">
+      <c r="F3" s="275" t="s">
+        <v>603</v>
+      </c>
+      <c r="G3" s="276" t="s">
+        <v>604</v>
+      </c>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+    </row>
+    <row r="4" spans="2:9" ht="38.25">
+      <c r="B4" s="277" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="151"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5">
-      <c r="A5" s="151"/>
-      <c r="B5" s="152" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="152" t="s">
-        <v>421</v>
-      </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="F5" s="152" t="s">
-        <v>411</v>
-      </c>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="151"/>
-      <c r="B6" s="152" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="152" t="s">
-        <v>415</v>
-      </c>
-      <c r="F6" s="152" t="s">
-        <v>410</v>
-      </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-    </row>
-    <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="151"/>
-      <c r="B7" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="C7" s="152" t="s">
-        <v>419</v>
-      </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152" t="s">
-        <v>415</v>
-      </c>
-      <c r="F7" s="152" t="s">
-        <v>413</v>
-      </c>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-    </row>
-    <row r="8" spans="1:8" ht="25.5">
-      <c r="A8" s="151"/>
-      <c r="B8" s="152" t="s">
-        <v>417</v>
-      </c>
-      <c r="C8" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="F8" s="152" t="s">
-        <v>411</v>
-      </c>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="151"/>
-      <c r="B9" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="F9" s="152"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="151"/>
-      <c r="B10" s="152" t="s">
-        <v>406</v>
-      </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="F10" s="152" t="s">
-        <v>410</v>
-      </c>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-    </row>
-    <row r="11" spans="1:8" ht="25.5">
-      <c r="A11" s="151"/>
-      <c r="B11" s="152" t="s">
-        <v>405</v>
-      </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="F11" s="152" t="s">
-        <v>416</v>
-      </c>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
+      <c r="D4" s="278" t="s">
+        <v>606</v>
+      </c>
+      <c r="E4" s="236" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="278" t="s">
+        <v>607</v>
+      </c>
+      <c r="G4" s="279" t="s">
+        <v>608</v>
+      </c>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+    </row>
+    <row r="5" spans="2:9" ht="38.25">
+      <c r="B5" s="274" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="275" t="s">
+        <v>610</v>
+      </c>
+      <c r="E5" s="254" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="275" t="s">
+        <v>611</v>
+      </c>
+      <c r="G5" s="276" t="s">
+        <v>612</v>
+      </c>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="2:9" ht="51">
+      <c r="B6" s="277" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="278" t="s">
+        <v>614</v>
+      </c>
+      <c r="E6" s="236" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="278" t="s">
+        <v>615</v>
+      </c>
+      <c r="G6" s="279" t="s">
+        <v>604</v>
+      </c>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+    </row>
+    <row r="7" spans="2:9" ht="63.75">
+      <c r="B7" s="274" t="s">
+        <v>616</v>
+      </c>
+      <c r="C7" s="254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="275" t="s">
+        <v>617</v>
+      </c>
+      <c r="E7" s="254" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="275" t="s">
+        <v>618</v>
+      </c>
+      <c r="G7" s="276" t="s">
+        <v>608</v>
+      </c>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+    </row>
+    <row r="8" spans="2:9" ht="51">
+      <c r="B8" s="277" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="278" t="s">
+        <v>620</v>
+      </c>
+      <c r="E8" s="236" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="278" t="s">
+        <v>621</v>
+      </c>
+      <c r="G8" s="279" t="s">
+        <v>604</v>
+      </c>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+    </row>
+    <row r="9" spans="2:9" ht="51">
+      <c r="B9" s="274" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" s="254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="275" t="s">
+        <v>623</v>
+      </c>
+      <c r="E9" s="254" t="s">
+        <v>624</v>
+      </c>
+      <c r="F9" s="275" t="s">
+        <v>625</v>
+      </c>
+      <c r="G9" s="276" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="38.25">
+      <c r="B10" s="277" t="s">
+        <v>626</v>
+      </c>
+      <c r="C10" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="278" t="s">
+        <v>627</v>
+      </c>
+      <c r="E10" s="236" t="s">
+        <v>624</v>
+      </c>
+      <c r="F10" s="278" t="s">
+        <v>607</v>
+      </c>
+      <c r="G10" s="279" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="51">
+      <c r="B11" s="274" t="s">
+        <v>629</v>
+      </c>
+      <c r="C11" s="254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="275" t="s">
+        <v>630</v>
+      </c>
+      <c r="E11" s="254" t="s">
+        <v>631</v>
+      </c>
+      <c r="F11" s="275" t="s">
+        <v>618</v>
+      </c>
+      <c r="G11" s="276" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="51">
+      <c r="B12" s="277" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="278" t="s">
+        <v>633</v>
+      </c>
+      <c r="E12" s="236" t="s">
+        <v>624</v>
+      </c>
+      <c r="F12" s="278" t="s">
+        <v>634</v>
+      </c>
+      <c r="G12" s="279" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="38.25">
+      <c r="B13" s="274" t="s">
+        <v>635</v>
+      </c>
+      <c r="C13" s="254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="275" t="s">
+        <v>636</v>
+      </c>
+      <c r="E13" s="254" t="s">
+        <v>624</v>
+      </c>
+      <c r="F13" s="275" t="s">
+        <v>618</v>
+      </c>
+      <c r="G13" s="276" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="38.25">
+      <c r="B14" s="277" t="s">
+        <v>640</v>
+      </c>
+      <c r="C14" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="278" t="s">
+        <v>637</v>
+      </c>
+      <c r="E14" s="236" t="s">
+        <v>624</v>
+      </c>
+      <c r="F14" s="278" t="s">
+        <v>621</v>
+      </c>
+      <c r="G14" s="279" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="51">
+      <c r="B15" s="274" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" s="254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="275" t="s">
+        <v>639</v>
+      </c>
+      <c r="E15" s="254" t="s">
+        <v>624</v>
+      </c>
+      <c r="F15" s="275" t="s">
+        <v>621</v>
+      </c>
+      <c r="G15" s="276" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" s="148"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="148"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="148"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup scale="54" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T24"/>
+  <dimension ref="B1:V24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:J2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="3" style="153" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="148" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="7" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="2:22" ht="25.5" customHeight="1">
+      <c r="B1" s="215" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="269"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75">
-      <c r="A2" s="220"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="267" t="s">
-        <v>520</v>
-      </c>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="222"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="187" t="s">
-        <v>559</v>
-      </c>
-      <c r="B3" s="187" t="s">
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+    </row>
+    <row r="2" spans="2:22">
+      <c r="B2" s="231" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="187" t="s">
-        <v>516</v>
-      </c>
-      <c r="D3" s="187" t="s">
-        <v>517</v>
-      </c>
-      <c r="E3" s="187" t="s">
-        <v>518</v>
-      </c>
-      <c r="F3" s="187" t="s">
-        <v>519</v>
-      </c>
-      <c r="G3" s="187" t="s">
+      <c r="C2" s="231" t="s">
+        <v>489</v>
+      </c>
+      <c r="D2" s="231" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" s="231" t="s">
+        <v>491</v>
+      </c>
+      <c r="F2" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="G2" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231" t="s">
+        <v>530</v>
+      </c>
+      <c r="L2" s="231" t="s">
+        <v>529</v>
+      </c>
+      <c r="M2" s="231" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="187" t="s">
-        <v>623</v>
-      </c>
-      <c r="I3" s="187" t="s">
-        <v>624</v>
-      </c>
-      <c r="J3" s="187" t="s">
-        <v>555</v>
-      </c>
-      <c r="K3" s="187" t="s">
-        <v>558</v>
-      </c>
-      <c r="L3" s="187" t="s">
-        <v>521</v>
-      </c>
-      <c r="O3" s="265" t="s">
-        <v>557</v>
-      </c>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="265"/>
-      <c r="S3" s="265"/>
-    </row>
-    <row r="4" spans="1:20" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="223">
-        <f t="shared" ref="A4:A24" si="0">F4*J4</f>
+      <c r="H3" s="181" t="s">
+        <v>593</v>
+      </c>
+      <c r="I3" s="181" t="s">
+        <v>594</v>
+      </c>
+      <c r="J3" s="181" t="s">
+        <v>526</v>
+      </c>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="271" t="s">
+        <v>528</v>
+      </c>
+      <c r="R3" s="271"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="135"/>
+    </row>
+    <row r="4" spans="2:22" ht="39.950000000000003" customHeight="1">
+      <c r="B4" s="187">
+        <v>1</v>
+      </c>
+      <c r="C4" s="188" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="189" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" s="189" t="s">
+        <v>497</v>
+      </c>
+      <c r="F4" s="189">
+        <v>1</v>
+      </c>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189">
         <v>5</v>
       </c>
-      <c r="B4" s="224">
+      <c r="K4" s="189">
+        <f>F4*J4</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="189" t="s">
+        <v>408</v>
+      </c>
+      <c r="M4" s="190"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="229" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q4" s="216">
+        <v>5</v>
+      </c>
+      <c r="R4" s="217">
+        <v>10</v>
+      </c>
+      <c r="S4" s="218">
+        <v>15</v>
+      </c>
+      <c r="T4" s="218">
+        <v>20</v>
+      </c>
+      <c r="U4" s="219">
+        <v>25</v>
+      </c>
+      <c r="V4" s="270" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="39.950000000000003" customHeight="1">
+      <c r="B5" s="191">
+        <v>2</v>
+      </c>
+      <c r="C5" s="192" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="193" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="193" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="193">
         <v>1</v>
       </c>
-      <c r="C4" s="225" t="s">
-        <v>522</v>
-      </c>
-      <c r="D4" s="226" t="s">
-        <v>523</v>
-      </c>
-      <c r="E4" s="226" t="s">
-        <v>524</v>
-      </c>
-      <c r="F4" s="226">
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193">
+        <v>5</v>
+      </c>
+      <c r="K5" s="193">
+        <f t="shared" ref="K5:K24" si="0">F5*J5</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M5" s="194"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="229" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q5" s="220">
+        <v>4</v>
+      </c>
+      <c r="R5" s="221">
+        <v>8</v>
+      </c>
+      <c r="S5" s="221">
+        <v>12</v>
+      </c>
+      <c r="T5" s="222">
+        <v>16</v>
+      </c>
+      <c r="U5" s="223">
+        <v>20</v>
+      </c>
+      <c r="V5" s="270"/>
+    </row>
+    <row r="6" spans="2:22" ht="39.950000000000003" customHeight="1">
+      <c r="B6" s="195">
+        <v>3</v>
+      </c>
+      <c r="C6" s="196" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="197" t="s">
+        <v>496</v>
+      </c>
+      <c r="E6" s="197" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="197">
+        <v>2</v>
+      </c>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197">
+        <v>5</v>
+      </c>
+      <c r="K6" s="197">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L6" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M6" s="198"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="229" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q6" s="220">
+        <v>3</v>
+      </c>
+      <c r="R6" s="221">
+        <v>6</v>
+      </c>
+      <c r="S6" s="221">
+        <v>9</v>
+      </c>
+      <c r="T6" s="221">
+        <v>12</v>
+      </c>
+      <c r="U6" s="223">
+        <v>15</v>
+      </c>
+      <c r="V6" s="270"/>
+    </row>
+    <row r="7" spans="2:22" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="191">
+        <v>4</v>
+      </c>
+      <c r="C7" s="192" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="193" t="s">
+        <v>502</v>
+      </c>
+      <c r="E7" s="193" t="s">
+        <v>503</v>
+      </c>
+      <c r="F7" s="193">
+        <v>3</v>
+      </c>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193">
+        <v>5</v>
+      </c>
+      <c r="K7" s="193">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L7" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M7" s="194"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="229" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q7" s="220">
+        <v>2</v>
+      </c>
+      <c r="R7" s="224">
+        <v>4</v>
+      </c>
+      <c r="S7" s="221">
+        <v>6</v>
+      </c>
+      <c r="T7" s="221">
+        <v>8</v>
+      </c>
+      <c r="U7" s="225">
+        <v>10</v>
+      </c>
+      <c r="V7" s="270"/>
+    </row>
+    <row r="8" spans="2:22" ht="39.950000000000003" customHeight="1">
+      <c r="B8" s="195">
+        <v>5</v>
+      </c>
+      <c r="C8" s="196" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" s="197" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" s="197" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="197">
         <v>1</v>
       </c>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="226">
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197">
+        <v>3</v>
+      </c>
+      <c r="K8" s="197">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M8" s="198"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="229" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q8" s="226">
+        <v>1</v>
+      </c>
+      <c r="R8" s="227">
+        <v>2</v>
+      </c>
+      <c r="S8" s="227">
+        <v>3</v>
+      </c>
+      <c r="T8" s="227">
+        <v>4</v>
+      </c>
+      <c r="U8" s="228">
         <v>5</v>
       </c>
-      <c r="K4" s="226" t="s">
-        <v>435</v>
-      </c>
-      <c r="L4" s="227"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="209" t="s">
+      <c r="V8" s="270"/>
+    </row>
+    <row r="9" spans="2:22" ht="25.5">
+      <c r="B9" s="191">
+        <v>6</v>
+      </c>
+      <c r="C9" s="192" t="s">
+        <v>505</v>
+      </c>
+      <c r="D9" s="193" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="272" t="s">
+        <v>597</v>
+      </c>
+      <c r="F9" s="193">
+        <v>2</v>
+      </c>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193">
+        <v>5</v>
+      </c>
+      <c r="K9" s="193">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M9" s="194"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="230"/>
+      <c r="Q9" s="229" t="s">
+        <v>387</v>
+      </c>
+      <c r="R9" s="229" t="s">
+        <v>386</v>
+      </c>
+      <c r="S9" s="229" t="s">
+        <v>385</v>
+      </c>
+      <c r="T9" s="229" t="s">
+        <v>384</v>
+      </c>
+      <c r="U9" s="229" t="s">
         <v>383</v>
       </c>
-      <c r="O4" s="210">
+      <c r="V9" s="135"/>
+    </row>
+    <row r="10" spans="2:22" ht="25.5">
+      <c r="B10" s="195">
+        <v>7</v>
+      </c>
+      <c r="C10" s="196" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" s="197" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="273" t="s">
+        <v>597</v>
+      </c>
+      <c r="F10" s="197">
+        <v>1</v>
+      </c>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197">
+        <v>2</v>
+      </c>
+      <c r="K10" s="197">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M10" s="198"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+    </row>
+    <row r="11" spans="2:22" ht="25.5">
+      <c r="B11" s="191">
+        <v>8</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="193" t="s">
+        <v>506</v>
+      </c>
+      <c r="E11" s="272" t="s">
+        <v>597</v>
+      </c>
+      <c r="F11" s="193">
+        <v>1</v>
+      </c>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193">
+        <v>2</v>
+      </c>
+      <c r="K11" s="193">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M11" s="194"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+    </row>
+    <row r="12" spans="2:22" ht="25.5">
+      <c r="B12" s="195">
+        <v>9</v>
+      </c>
+      <c r="C12" s="196" t="s">
+        <v>509</v>
+      </c>
+      <c r="D12" s="197" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="273" t="s">
+        <v>597</v>
+      </c>
+      <c r="F12" s="197">
+        <v>3</v>
+      </c>
+      <c r="G12" s="197"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197">
         <v>5</v>
       </c>
-      <c r="P4" s="211">
+      <c r="K12" s="197">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L12" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M12" s="198"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="186"/>
+    </row>
+    <row r="13" spans="2:22" ht="25.5">
+      <c r="B13" s="191">
         <v>10</v>
       </c>
-      <c r="Q4" s="212">
-        <v>15</v>
-      </c>
-      <c r="R4" s="212">
-        <v>20</v>
-      </c>
-      <c r="S4" s="213">
-        <v>25</v>
-      </c>
-      <c r="T4" s="266" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="228">
+      <c r="C13" s="192" t="s">
+        <v>510</v>
+      </c>
+      <c r="D13" s="193" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" s="272" t="s">
+        <v>597</v>
+      </c>
+      <c r="F13" s="193">
+        <v>2</v>
+      </c>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193">
+        <v>4</v>
+      </c>
+      <c r="K13" s="193">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M13" s="194"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+    </row>
+    <row r="14" spans="2:22" ht="38.25">
+      <c r="B14" s="195">
+        <v>11</v>
+      </c>
+      <c r="C14" s="196" t="s">
+        <v>511</v>
+      </c>
+      <c r="D14" s="197" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="273" t="s">
+        <v>597</v>
+      </c>
+      <c r="F14" s="197">
+        <v>2</v>
+      </c>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="197">
+        <v>4</v>
+      </c>
+      <c r="K14" s="197">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L14" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M14" s="198"/>
+      <c r="N14" s="186"/>
+      <c r="O14" s="186"/>
+    </row>
+    <row r="15" spans="2:22" ht="25.5">
+      <c r="B15" s="191">
+        <v>12</v>
+      </c>
+      <c r="C15" s="192" t="s">
+        <v>512</v>
+      </c>
+      <c r="D15" s="193" t="s">
+        <v>496</v>
+      </c>
+      <c r="E15" s="272" t="s">
+        <v>598</v>
+      </c>
+      <c r="F15" s="193">
+        <v>1</v>
+      </c>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193">
+        <v>5</v>
+      </c>
+      <c r="K15" s="193">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B5" s="229">
+      <c r="L15" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M15" s="194"/>
+      <c r="N15" s="186"/>
+      <c r="O15" s="186"/>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="195">
+        <v>13</v>
+      </c>
+      <c r="C16" s="196" t="s">
+        <v>513</v>
+      </c>
+      <c r="D16" s="197" t="s">
+        <v>502</v>
+      </c>
+      <c r="E16" s="197" t="s">
+        <v>514</v>
+      </c>
+      <c r="F16" s="197">
+        <v>3</v>
+      </c>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197">
+        <v>3</v>
+      </c>
+      <c r="K16" s="197">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L16" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M16" s="198"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="191">
+        <v>14</v>
+      </c>
+      <c r="C17" s="192" t="s">
+        <v>515</v>
+      </c>
+      <c r="D17" s="193" t="s">
+        <v>502</v>
+      </c>
+      <c r="E17" s="193" t="s">
+        <v>514</v>
+      </c>
+      <c r="F17" s="193">
+        <v>3</v>
+      </c>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193">
+        <v>3</v>
+      </c>
+      <c r="K17" s="193">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L17" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M17" s="194"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="186"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="195">
+        <v>15</v>
+      </c>
+      <c r="C18" s="196" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="197" t="s">
+        <v>502</v>
+      </c>
+      <c r="E18" s="197" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" s="197">
+        <v>1</v>
+      </c>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197">
         <v>2</v>
       </c>
-      <c r="C5" s="230" t="s">
-        <v>525</v>
-      </c>
-      <c r="D5" s="231" t="s">
-        <v>526</v>
-      </c>
-      <c r="E5" s="231" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="231">
+      <c r="K18" s="197">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M18" s="198"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+    </row>
+    <row r="19" spans="2:15" ht="25.5">
+      <c r="B19" s="191">
+        <v>16</v>
+      </c>
+      <c r="C19" s="192" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" s="193" t="s">
+        <v>499</v>
+      </c>
+      <c r="E19" s="193" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="193">
         <v>1</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231">
-        <v>5</v>
-      </c>
-      <c r="K5" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L5" s="232"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="209" t="s">
-        <v>384</v>
-      </c>
-      <c r="O5" s="214">
-        <v>4</v>
-      </c>
-      <c r="P5" s="206">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="206">
-        <v>12</v>
-      </c>
-      <c r="R5" s="207">
-        <v>16</v>
-      </c>
-      <c r="S5" s="215">
-        <v>20</v>
-      </c>
-      <c r="T5" s="266"/>
-    </row>
-    <row r="6" spans="1:20" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="228">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B6" s="233">
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="193">
         <v>3</v>
       </c>
-      <c r="C6" s="234" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6" s="235" t="s">
-        <v>523</v>
-      </c>
-      <c r="E6" s="235" t="s">
-        <v>524</v>
-      </c>
-      <c r="F6" s="235">
-        <v>2</v>
-      </c>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235">
-        <v>5</v>
-      </c>
-      <c r="K6" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L6" s="236"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="209" t="s">
-        <v>385</v>
-      </c>
-      <c r="O6" s="214">
-        <v>3</v>
-      </c>
-      <c r="P6" s="206">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="206">
-        <v>9</v>
-      </c>
-      <c r="R6" s="206">
-        <v>12</v>
-      </c>
-      <c r="S6" s="215">
-        <v>15</v>
-      </c>
-      <c r="T6" s="266"/>
-    </row>
-    <row r="7" spans="1:20" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="228">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B7" s="229">
-        <v>4</v>
-      </c>
-      <c r="C7" s="230" t="s">
-        <v>528</v>
-      </c>
-      <c r="D7" s="231" t="s">
-        <v>529</v>
-      </c>
-      <c r="E7" s="231" t="s">
-        <v>530</v>
-      </c>
-      <c r="F7" s="231">
-        <v>3</v>
-      </c>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231">
-        <v>5</v>
-      </c>
-      <c r="K7" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L7" s="232"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="209" t="s">
-        <v>386</v>
-      </c>
-      <c r="O7" s="214">
-        <v>2</v>
-      </c>
-      <c r="P7" s="208">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="206">
-        <v>6</v>
-      </c>
-      <c r="R7" s="206">
-        <v>8</v>
-      </c>
-      <c r="S7" s="216">
-        <v>10</v>
-      </c>
-      <c r="T7" s="266"/>
-    </row>
-    <row r="8" spans="1:20" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="228">
+      <c r="K19" s="193">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="233">
-        <v>5</v>
-      </c>
-      <c r="C8" s="234" t="s">
-        <v>531</v>
-      </c>
-      <c r="D8" s="235" t="s">
-        <v>526</v>
-      </c>
-      <c r="E8" s="235" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="235">
+      <c r="L19" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M19" s="194"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="195">
+        <v>17</v>
+      </c>
+      <c r="C20" s="196" t="s">
+        <v>520</v>
+      </c>
+      <c r="D20" s="197" t="s">
+        <v>499</v>
+      </c>
+      <c r="E20" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="197">
+        <v>3</v>
+      </c>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="197">
+        <v>4</v>
+      </c>
+      <c r="K20" s="197">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L20" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M20" s="198"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="191">
+        <v>18</v>
+      </c>
+      <c r="C21" s="192" t="s">
+        <v>521</v>
+      </c>
+      <c r="D21" s="193" t="s">
+        <v>506</v>
+      </c>
+      <c r="E21" s="193" t="s">
+        <v>522</v>
+      </c>
+      <c r="F21" s="193">
+        <v>2</v>
+      </c>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="193">
+        <v>2</v>
+      </c>
+      <c r="K21" s="193">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L21" s="193" t="s">
+        <v>402</v>
+      </c>
+      <c r="M21" s="194"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+    </row>
+    <row r="22" spans="2:15" ht="38.25">
+      <c r="B22" s="195">
+        <v>19</v>
+      </c>
+      <c r="C22" s="196" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" s="197" t="s">
+        <v>506</v>
+      </c>
+      <c r="E22" s="273" t="s">
+        <v>597</v>
+      </c>
+      <c r="F22" s="197">
         <v>1</v>
       </c>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="235">
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197">
         <v>3</v>
       </c>
-      <c r="K8" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L8" s="236"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="209" t="s">
-        <v>387</v>
-      </c>
-      <c r="O8" s="217">
-        <v>1</v>
-      </c>
-      <c r="P8" s="218">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="218">
-        <v>3</v>
-      </c>
-      <c r="R8" s="218">
-        <v>4</v>
-      </c>
-      <c r="S8" s="219">
-        <v>5</v>
-      </c>
-      <c r="T8" s="266"/>
-    </row>
-    <row r="9" spans="1:20" ht="25.5">
-      <c r="A9" s="228">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B9" s="229">
-        <v>6</v>
-      </c>
-      <c r="C9" s="230" t="s">
-        <v>532</v>
-      </c>
-      <c r="D9" s="231" t="s">
-        <v>533</v>
-      </c>
-      <c r="E9" s="231" t="s">
-        <v>534</v>
-      </c>
-      <c r="F9" s="231">
-        <v>2</v>
-      </c>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231">
-        <v>5</v>
-      </c>
-      <c r="K9" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L9" s="232"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="209" t="s">
-        <v>387</v>
-      </c>
-      <c r="P9" s="209" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q9" s="209" t="s">
-        <v>385</v>
-      </c>
-      <c r="R9" s="209" t="s">
-        <v>384</v>
-      </c>
-      <c r="S9" s="209" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="25.5">
-      <c r="A10" s="228">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B10" s="233">
-        <v>7</v>
-      </c>
-      <c r="C10" s="234" t="s">
-        <v>535</v>
-      </c>
-      <c r="D10" s="235" t="s">
-        <v>533</v>
-      </c>
-      <c r="E10" s="235" t="s">
-        <v>534</v>
-      </c>
-      <c r="F10" s="235">
-        <v>1</v>
-      </c>
-      <c r="G10" s="235"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="235"/>
-      <c r="J10" s="235">
-        <v>2</v>
-      </c>
-      <c r="K10" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L10" s="236"/>
-      <c r="M10" s="205"/>
-    </row>
-    <row r="11" spans="1:20" ht="25.5">
-      <c r="A11" s="228">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B11" s="229">
-        <v>8</v>
-      </c>
-      <c r="C11" s="230" t="s">
-        <v>536</v>
-      </c>
-      <c r="D11" s="231" t="s">
-        <v>533</v>
-      </c>
-      <c r="E11" s="231" t="s">
-        <v>534</v>
-      </c>
-      <c r="F11" s="231">
-        <v>1</v>
-      </c>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="231">
-        <v>2</v>
-      </c>
-      <c r="K11" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L11" s="232"/>
-      <c r="M11" s="205"/>
-    </row>
-    <row r="12" spans="1:20" ht="25.5">
-      <c r="A12" s="228">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B12" s="233">
-        <v>9</v>
-      </c>
-      <c r="C12" s="234" t="s">
-        <v>537</v>
-      </c>
-      <c r="D12" s="235" t="s">
-        <v>533</v>
-      </c>
-      <c r="E12" s="235" t="s">
-        <v>534</v>
-      </c>
-      <c r="F12" s="235">
-        <v>3</v>
-      </c>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="235">
-        <v>5</v>
-      </c>
-      <c r="K12" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L12" s="236"/>
-      <c r="M12" s="205"/>
-    </row>
-    <row r="13" spans="1:20" ht="25.5">
-      <c r="A13" s="228">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="229">
-        <v>10</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>538</v>
-      </c>
-      <c r="D13" s="231" t="s">
-        <v>533</v>
-      </c>
-      <c r="E13" s="231" t="s">
-        <v>534</v>
-      </c>
-      <c r="F13" s="231">
-        <v>2</v>
-      </c>
-      <c r="G13" s="231"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="231">
-        <v>4</v>
-      </c>
-      <c r="K13" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L13" s="232"/>
-      <c r="M13" s="205"/>
-    </row>
-    <row r="14" spans="1:20" ht="38.25">
-      <c r="A14" s="228">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="233">
-        <v>11</v>
-      </c>
-      <c r="C14" s="234" t="s">
-        <v>539</v>
-      </c>
-      <c r="D14" s="235" t="s">
-        <v>523</v>
-      </c>
-      <c r="E14" s="235" t="s">
-        <v>560</v>
-      </c>
-      <c r="F14" s="235">
-        <v>2</v>
-      </c>
-      <c r="G14" s="235"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="235"/>
-      <c r="J14" s="235">
-        <v>4</v>
-      </c>
-      <c r="K14" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L14" s="236"/>
-      <c r="M14" s="205"/>
-    </row>
-    <row r="15" spans="1:20" ht="25.5">
-      <c r="A15" s="228">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B15" s="229">
-        <v>12</v>
-      </c>
-      <c r="C15" s="230" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" s="231" t="s">
-        <v>523</v>
-      </c>
-      <c r="E15" s="231" t="s">
-        <v>541</v>
-      </c>
-      <c r="F15" s="231">
-        <v>1</v>
-      </c>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="231">
-        <v>5</v>
-      </c>
-      <c r="K15" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L15" s="232"/>
-      <c r="M15" s="205"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="228">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="233">
-        <v>13</v>
-      </c>
-      <c r="C16" s="234" t="s">
-        <v>542</v>
-      </c>
-      <c r="D16" s="235" t="s">
-        <v>529</v>
-      </c>
-      <c r="E16" s="235" t="s">
-        <v>543</v>
-      </c>
-      <c r="F16" s="235">
-        <v>3</v>
-      </c>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="235">
-        <v>3</v>
-      </c>
-      <c r="K16" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L16" s="236"/>
-      <c r="M16" s="205"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="228">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="229">
-        <v>14</v>
-      </c>
-      <c r="C17" s="230" t="s">
-        <v>544</v>
-      </c>
-      <c r="D17" s="231" t="s">
-        <v>529</v>
-      </c>
-      <c r="E17" s="231" t="s">
-        <v>543</v>
-      </c>
-      <c r="F17" s="231">
-        <v>3</v>
-      </c>
-      <c r="G17" s="231"/>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="231">
-        <v>3</v>
-      </c>
-      <c r="K17" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L17" s="232"/>
-      <c r="M17" s="205"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="228">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B18" s="233">
-        <v>15</v>
-      </c>
-      <c r="C18" s="234" t="s">
-        <v>545</v>
-      </c>
-      <c r="D18" s="235" t="s">
-        <v>529</v>
-      </c>
-      <c r="E18" s="235" t="s">
-        <v>546</v>
-      </c>
-      <c r="F18" s="235">
-        <v>1</v>
-      </c>
-      <c r="G18" s="235"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="235">
-        <v>2</v>
-      </c>
-      <c r="K18" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L18" s="236"/>
-      <c r="M18" s="205"/>
-    </row>
-    <row r="19" spans="1:13" ht="25.5">
-      <c r="A19" s="228">
+      <c r="K22" s="197">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B19" s="229">
-        <v>16</v>
-      </c>
-      <c r="C19" s="230" t="s">
-        <v>547</v>
-      </c>
-      <c r="D19" s="231" t="s">
+      <c r="L22" s="197" t="s">
+        <v>408</v>
+      </c>
+      <c r="M22" s="198"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+    </row>
+    <row r="23" spans="2:15" ht="38.25">
+      <c r="B23" s="191">
+        <v>20</v>
+      </c>
+      <c r="C23" s="192" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="193" t="s">
+        <v>506</v>
+      </c>
+      <c r="E23" s="272" t="s">
+        <v>597</v>
+      </c>
+      <c r="F23" s="193">
+        <v>1</v>
+      </c>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193">
+        <v>3</v>
+      </c>
+      <c r="K23" s="193">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="193" t="s">
+        <v>408</v>
+      </c>
+      <c r="M23" s="194"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="195">
+        <v>21</v>
+      </c>
+      <c r="C24" s="196" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" s="197" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" s="197" t="s">
         <v>526</v>
       </c>
-      <c r="E19" s="231" t="s">
-        <v>548</v>
-      </c>
-      <c r="F19" s="231">
-        <v>1</v>
-      </c>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231">
-        <v>3</v>
-      </c>
-      <c r="K19" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L19" s="232"/>
-      <c r="M19" s="205"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="228">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="233">
-        <v>17</v>
-      </c>
-      <c r="C20" s="234" t="s">
-        <v>549</v>
-      </c>
-      <c r="D20" s="235" t="s">
-        <v>526</v>
-      </c>
-      <c r="E20" s="235" t="s">
-        <v>548</v>
-      </c>
-      <c r="F20" s="235">
-        <v>3</v>
-      </c>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235">
-        <v>4</v>
-      </c>
-      <c r="K20" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L20" s="236"/>
-      <c r="M20" s="205"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="228">
+      <c r="F24" s="197">
+        <v>2</v>
+      </c>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="197">
+        <v>2</v>
+      </c>
+      <c r="K24" s="197">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B21" s="229">
-        <v>18</v>
-      </c>
-      <c r="C21" s="230" t="s">
-        <v>550</v>
-      </c>
-      <c r="D21" s="231" t="s">
-        <v>533</v>
-      </c>
-      <c r="E21" s="231" t="s">
-        <v>551</v>
-      </c>
-      <c r="F21" s="231">
-        <v>2</v>
-      </c>
-      <c r="G21" s="231"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="231">
-        <v>2</v>
-      </c>
-      <c r="K21" s="231" t="s">
-        <v>429</v>
-      </c>
-      <c r="L21" s="232"/>
-      <c r="M21" s="205"/>
-    </row>
-    <row r="22" spans="1:13" ht="38.25">
-      <c r="A22" s="228">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B22" s="233">
-        <v>19</v>
-      </c>
-      <c r="C22" s="234" t="s">
-        <v>552</v>
-      </c>
-      <c r="D22" s="235" t="s">
-        <v>533</v>
-      </c>
-      <c r="E22" s="235" t="s">
-        <v>534</v>
-      </c>
-      <c r="F22" s="235">
-        <v>1</v>
-      </c>
-      <c r="G22" s="235"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="235">
-        <v>3</v>
-      </c>
-      <c r="K22" s="235" t="s">
-        <v>435</v>
-      </c>
-      <c r="L22" s="236"/>
-      <c r="M22" s="205"/>
-    </row>
-    <row r="23" spans="1:13" ht="38.25">
-      <c r="A23" s="228">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B23" s="229">
-        <v>20</v>
-      </c>
-      <c r="C23" s="230" t="s">
-        <v>553</v>
-      </c>
-      <c r="D23" s="231" t="s">
-        <v>533</v>
-      </c>
-      <c r="E23" s="231" t="s">
-        <v>534</v>
-      </c>
-      <c r="F23" s="231">
-        <v>1</v>
-      </c>
-      <c r="G23" s="231"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="231">
-        <v>3</v>
-      </c>
-      <c r="K23" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="L23" s="232"/>
-      <c r="M23" s="205"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="237">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B24" s="238">
-        <v>21</v>
-      </c>
-      <c r="C24" s="239" t="s">
-        <v>554</v>
-      </c>
-      <c r="D24" s="240" t="s">
-        <v>523</v>
-      </c>
-      <c r="E24" s="240" t="s">
-        <v>555</v>
-      </c>
-      <c r="F24" s="240">
-        <v>2</v>
-      </c>
-      <c r="G24" s="240"/>
-      <c r="H24" s="240"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="240">
-        <v>2</v>
-      </c>
-      <c r="K24" s="240" t="s">
-        <v>429</v>
-      </c>
-      <c r="L24" s="241"/>
-      <c r="M24" s="205"/>
+      <c r="L24" s="197" t="s">
+        <v>402</v>
+      </c>
+      <c r="M24" s="198"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="12">
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V4:V8"/>
+    <mergeCell ref="B1:M1"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="23" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11355,7 +12167,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11384,16 +12196,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="15">
-      <c r="C3" s="251" t="s">
-        <v>459</v>
-      </c>
-      <c r="D3" s="251"/>
+      <c r="C3" s="202" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" s="202"/>
     </row>
     <row r="4" spans="3:4" ht="15">
-      <c r="C4" s="251" t="s">
-        <v>460</v>
-      </c>
-      <c r="D4" s="251"/>
+      <c r="C4" s="202" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" s="202"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -11409,26 +12221,6 @@
   <oleObjects>
     <oleObject progId="Document" dvAspect="DVASPECT_ICON" shapeId="17410" r:id="rId4"/>
   </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="134" t="s">
-        <v>391</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -11762,380 +12554,380 @@
     <col min="16134" max="16135" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="164" customFormat="1" ht="31.5">
-      <c r="B1" s="252" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="165" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" s="165" t="s">
-        <v>424</v>
-      </c>
-      <c r="F1" s="165" t="s">
-        <v>425</v>
-      </c>
-      <c r="G1" s="166" t="s">
-        <v>426</v>
+    <row r="1" spans="2:7" s="159" customFormat="1" ht="31.5">
+      <c r="B1" s="203" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="204"/>
+      <c r="D1" s="160" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" s="160" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1" s="160" t="s">
+        <v>398</v>
+      </c>
+      <c r="G1" s="161" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="15.75">
-      <c r="B2" s="161">
+      <c r="B2" s="156">
         <v>4</v>
       </c>
-      <c r="C2" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
+      <c r="C2" s="162" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="164"/>
     </row>
     <row r="3" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B3" s="160"/>
-      <c r="C3" s="172" t="s">
-        <v>471</v>
-      </c>
-      <c r="D3" s="156" t="s">
-        <v>429</v>
-      </c>
-      <c r="E3" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="G3" s="157" t="str">
+      <c r="B3" s="155"/>
+      <c r="C3" s="167" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!L3</f>
         <v>Gerenciar Atentamente</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="B4" s="161">
+      <c r="B4" s="156">
         <v>4</v>
       </c>
-      <c r="C4" s="167" t="s">
-        <v>431</v>
-      </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
+      <c r="C4" s="162" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
     </row>
     <row r="5" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B5" s="160"/>
-      <c r="C5" s="170" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="156" t="s">
-        <v>429</v>
-      </c>
-      <c r="E5" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="F5" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="G5" s="157" t="str">
+      <c r="B5" s="155"/>
+      <c r="C5" s="165" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!L3</f>
         <v>Gerenciar Atentamente</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75">
-      <c r="B6" s="161">
+      <c r="B6" s="156">
         <v>4</v>
       </c>
-      <c r="C6" s="167" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="C6" s="162" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
     </row>
     <row r="7" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B7" s="162"/>
-      <c r="C7" s="170" t="s">
-        <v>461</v>
-      </c>
-      <c r="D7" s="156" t="s">
-        <v>435</v>
-      </c>
-      <c r="E7" s="156" t="s">
-        <v>436</v>
-      </c>
-      <c r="F7" s="156" t="s">
-        <v>436</v>
-      </c>
-      <c r="G7" s="157" t="str">
+      <c r="B7" s="157"/>
+      <c r="C7" s="165" t="s">
+        <v>434</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!E22</f>
         <v>Manter Monitorado</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B8" s="160"/>
-      <c r="C8" s="170" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" s="156" t="s">
+      <c r="B8" s="155"/>
+      <c r="C8" s="165" t="s">
         <v>435</v>
       </c>
-      <c r="E8" s="156" t="s">
-        <v>436</v>
-      </c>
-      <c r="F8" s="156" t="s">
-        <v>436</v>
-      </c>
-      <c r="G8" s="157" t="str">
+      <c r="D8" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!E22</f>
         <v>Manter Monitorado</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75">
-      <c r="B9" s="161">
+      <c r="B9" s="156">
         <v>4</v>
       </c>
-      <c r="C9" s="167" t="s">
-        <v>437</v>
-      </c>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="C9" s="162" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B10" s="160"/>
-      <c r="C10" s="170" t="s">
-        <v>463</v>
-      </c>
-      <c r="D10" s="156" t="s">
-        <v>429</v>
-      </c>
-      <c r="E10" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="F10" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="G10" s="157" t="str">
+      <c r="B10" s="155"/>
+      <c r="C10" s="165" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!L3</f>
         <v>Gerenciar Atentamente</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75">
-      <c r="B11" s="161">
+      <c r="B11" s="156">
         <v>4</v>
       </c>
-      <c r="C11" s="167" t="s">
-        <v>439</v>
-      </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169"/>
+      <c r="C11" s="162" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="164"/>
     </row>
     <row r="12" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B12" s="160"/>
-      <c r="C12" s="170" t="s">
-        <v>464</v>
-      </c>
-      <c r="D12" s="156" t="s">
-        <v>435</v>
-      </c>
-      <c r="E12" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="F12" s="156" t="s">
-        <v>436</v>
-      </c>
-      <c r="G12" s="157" t="str">
+      <c r="B12" s="155"/>
+      <c r="C12" s="165" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!E3</f>
         <v>Manter Satisfeito</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75">
-      <c r="B13" s="161">
+      <c r="B13" s="156">
         <v>4</v>
       </c>
-      <c r="C13" s="167" t="s">
-        <v>441</v>
-      </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="169"/>
+      <c r="C13" s="162" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="164"/>
     </row>
     <row r="14" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B14" s="160"/>
-      <c r="C14" s="170" t="s">
-        <v>470</v>
-      </c>
-      <c r="D14" s="156" t="s">
-        <v>429</v>
-      </c>
-      <c r="E14" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="F14" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="G14" s="157" t="str">
+      <c r="B14" s="155"/>
+      <c r="C14" s="165" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E14" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!L3</f>
         <v>Gerenciar Atentamente</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75">
-      <c r="B15" s="161">
+      <c r="B15" s="156">
         <v>4</v>
       </c>
-      <c r="C15" s="167" t="s">
-        <v>443</v>
-      </c>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="169"/>
+      <c r="C15" s="162" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="164"/>
     </row>
     <row r="16" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B16" s="160"/>
-      <c r="C16" s="170" t="s">
-        <v>469</v>
-      </c>
-      <c r="D16" s="156" t="s">
-        <v>429</v>
-      </c>
-      <c r="E16" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="F16" s="156" t="s">
-        <v>436</v>
-      </c>
-      <c r="G16" s="157" t="str">
+      <c r="B16" s="155"/>
+      <c r="C16" s="165" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="G16" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!E3</f>
         <v>Manter Satisfeito</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75">
-      <c r="B17" s="161">
+      <c r="B17" s="156">
         <v>4</v>
       </c>
-      <c r="C17" s="167" t="s">
-        <v>445</v>
-      </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="169"/>
+      <c r="C17" s="162" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
     </row>
     <row r="18" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B18" s="160"/>
-      <c r="C18" s="170" t="s">
-        <v>468</v>
-      </c>
-      <c r="D18" s="156" t="s">
-        <v>429</v>
-      </c>
-      <c r="E18" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="F18" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="G18" s="157" t="str">
+      <c r="B18" s="155"/>
+      <c r="C18" s="165" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F18" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!L3</f>
         <v>Gerenciar Atentamente</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75">
-      <c r="B19" s="161">
+      <c r="B19" s="156">
         <v>4</v>
       </c>
-      <c r="C19" s="167" t="s">
-        <v>447</v>
-      </c>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="169"/>
+      <c r="C19" s="162" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="164"/>
     </row>
     <row r="20" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B20" s="160"/>
-      <c r="C20" s="170" t="s">
-        <v>467</v>
-      </c>
-      <c r="D20" s="156" t="s">
-        <v>429</v>
-      </c>
-      <c r="E20" s="156" t="s">
-        <v>436</v>
-      </c>
-      <c r="F20" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="G20" s="157" t="str">
+      <c r="B20" s="155"/>
+      <c r="C20" s="165" t="s">
+        <v>440</v>
+      </c>
+      <c r="D20" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="G20" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!L22</f>
         <v>Manter Informado</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75">
-      <c r="B21" s="161">
+      <c r="B21" s="156">
         <v>4</v>
       </c>
-      <c r="C21" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="169"/>
+      <c r="C21" s="162" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="164"/>
     </row>
     <row r="22" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B22" s="160"/>
-      <c r="C22" s="170" t="s">
-        <v>466</v>
-      </c>
-      <c r="D22" s="156" t="s">
-        <v>429</v>
-      </c>
-      <c r="E22" s="156" t="s">
-        <v>436</v>
-      </c>
-      <c r="F22" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="G22" s="157" t="str">
+      <c r="B22" s="155"/>
+      <c r="C22" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="152" t="str">
         <f>'[1]Stakeholders Graphic'!L22</f>
         <v>Manter Informado</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75">
-      <c r="B23" s="161">
+      <c r="B23" s="156">
         <v>4</v>
       </c>
-      <c r="C23" s="167" t="s">
-        <v>451</v>
-      </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="169"/>
+      <c r="C23" s="162" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="164"/>
     </row>
     <row r="24" spans="2:7" s="8" customFormat="1" ht="15.75">
-      <c r="B24" s="163"/>
-      <c r="C24" s="171" t="s">
-        <v>465</v>
-      </c>
-      <c r="D24" s="158" t="s">
-        <v>429</v>
-      </c>
-      <c r="E24" s="158" t="s">
-        <v>436</v>
-      </c>
-      <c r="F24" s="158" t="s">
-        <v>430</v>
-      </c>
-      <c r="G24" s="159" t="str">
+      <c r="B24" s="158"/>
+      <c r="C24" s="166" t="s">
+        <v>438</v>
+      </c>
+      <c r="D24" s="153" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="153" t="s">
+        <v>409</v>
+      </c>
+      <c r="F24" s="153" t="s">
+        <v>403</v>
+      </c>
+      <c r="G24" s="154" t="str">
         <f>'[1]Stakeholders Graphic'!L22</f>
         <v>Manter Informado</v>
       </c>
@@ -12161,14 +12953,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="153" customWidth="1"/>
+    <col min="1" max="1" width="9" style="148" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="153" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="148" customWidth="1"/>
     <col min="5" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="153" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="148" customWidth="1"/>
     <col min="257" max="257" width="3.7109375" customWidth="1"/>
     <col min="258" max="258" width="2.85546875" customWidth="1"/>
     <col min="259" max="259" width="3.7109375" customWidth="1"/>
@@ -12677,201 +13469,201 @@
   <sheetData>
     <row r="1" spans="2:12" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="168" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="149"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="254" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" s="154"/>
-      <c r="E3" s="177" t="s">
-        <v>454</v>
-      </c>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="176" t="s">
-        <v>455</v>
+      <c r="B3" s="205" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" s="149"/>
+      <c r="E3" s="172" t="s">
+        <v>427</v>
+      </c>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="171" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="254"/>
-      <c r="C4" s="154"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="149"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="254"/>
-      <c r="C5" s="154"/>
-      <c r="E5" s="179" t="str">
+      <c r="B5" s="205"/>
+      <c r="C5" s="149"/>
+      <c r="E5" s="174" t="str">
         <f>'[1]Stakeholders List'!B12</f>
         <v>José Souza</v>
       </c>
-      <c r="L5" s="178" t="str">
+      <c r="L5" s="173" t="str">
         <f>'[1]Stakeholders List'!B3</f>
         <v>Mark Sullivan</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="254"/>
-      <c r="C6" s="154"/>
-      <c r="E6" s="179" t="str">
+      <c r="B6" s="205"/>
+      <c r="C6" s="149"/>
+      <c r="E6" s="174" t="str">
         <f>'[1]Stakeholders List'!B16</f>
         <v>Julia Almeida</v>
       </c>
-      <c r="L6" s="178" t="str">
+      <c r="L6" s="173" t="str">
         <f>'[1]Stakeholders List'!B5</f>
         <v>João Teixeira</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="254"/>
-      <c r="C7" s="154"/>
-      <c r="F7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="178" t="str">
+      <c r="B7" s="205"/>
+      <c r="C7" s="149"/>
+      <c r="F7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="173" t="str">
         <f>'[1]Stakeholders List'!B10</f>
         <v>Cristina Medeiros</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="254"/>
-      <c r="C8" s="154"/>
-      <c r="F8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="178" t="str">
+      <c r="B8" s="205"/>
+      <c r="C8" s="149"/>
+      <c r="F8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="173" t="str">
         <f>'[1]Stakeholders List'!B14</f>
         <v>Marcia Oliveira</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="254"/>
-      <c r="C9" s="154"/>
-      <c r="L9" s="178" t="str">
+      <c r="B9" s="205"/>
+      <c r="C9" s="149"/>
+      <c r="L9" s="173" t="str">
         <f>'[1]Stakeholders List'!B18</f>
         <v>Ana Pereira</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="254"/>
-      <c r="C10" s="154"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="149"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="254"/>
-      <c r="C11" s="154"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="149"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="254"/>
-      <c r="C12" s="154"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="149"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="254"/>
-      <c r="C13" s="154"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="149"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="254"/>
-      <c r="C14" s="154"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="149"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="254"/>
-      <c r="C15" s="154"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="149"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="254"/>
-      <c r="C16" s="154"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="149"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="254"/>
-      <c r="C17" s="154"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="149"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="254"/>
-      <c r="C18" s="154"/>
-      <c r="F18" s="150"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="178" t="str">
+      <c r="B18" s="205"/>
+      <c r="C18" s="149"/>
+      <c r="F18" s="146"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="173" t="str">
         <f>'[1]Stakeholders List'!B24</f>
         <v>Marcelo Martins</v>
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="254"/>
-      <c r="C19" s="154"/>
-      <c r="E19" s="179" t="str">
+      <c r="B19" s="205"/>
+      <c r="C19" s="149"/>
+      <c r="E19" s="174" t="str">
         <f>'[1]Stakeholders List'!B8</f>
         <v>Venderores</v>
       </c>
-      <c r="F19" s="150"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="178" t="str">
+      <c r="F19" s="146"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="173" t="str">
         <f>'[1]Stakeholders List'!B22</f>
         <v>Carla Moreira</v>
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="254"/>
-      <c r="C20" s="154"/>
-      <c r="E20" s="179" t="str">
+      <c r="B20" s="205"/>
+      <c r="C20" s="149"/>
+      <c r="E20" s="174" t="str">
         <f>'[1]Stakeholders List'!B7</f>
         <v>Paulo Silva</v>
       </c>
-      <c r="L20" s="178" t="str">
+      <c r="L20" s="173" t="str">
         <f>'[1]Stakeholders List'!B20</f>
         <v>Júlio Batista</v>
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="254"/>
-      <c r="C21" s="154"/>
+      <c r="B21" s="205"/>
+      <c r="C21" s="149"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
-      <c r="B22" s="254"/>
-      <c r="C22" s="154"/>
-      <c r="E22" s="177" t="s">
-        <v>456</v>
-      </c>
-      <c r="L22" s="176" t="s">
-        <v>457</v>
+      <c r="B22" s="205"/>
+      <c r="C22" s="149"/>
+      <c r="E22" s="172" t="s">
+        <v>429</v>
+      </c>
+      <c r="L22" s="171" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="175" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1">
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1">
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="169" t="s">
         <v>386</v>
       </c>
-      <c r="E25" s="255" t="s">
-        <v>458</v>
-      </c>
-      <c r="F25" s="255"/>
-      <c r="G25" s="255"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="255"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="174" t="s">
+      <c r="E25" s="206" t="s">
+        <v>431</v>
+      </c>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="169" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15">
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12907,25 +13699,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="207" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="258"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
     </row>
     <row r="2" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B2" s="19"/>
@@ -13688,7 +14480,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:R1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
@@ -14290,7 +15082,7 @@
     <row r="1" ht="24.95" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="66" scale="63" orientation="landscape" r:id="rId1"/>
@@ -14305,7 +15097,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16127,7 +16919,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A2:G84"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="66" scale="89" orientation="landscape" r:id="rId1"/>

--- a/Salesforce/Salesforce.xlsx
+++ b/Salesforce/Salesforce.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1" userName="SONY" reservationPassword="CA71"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="15315" windowHeight="8085" tabRatio="840" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="15315" windowHeight="8085" tabRatio="840" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="10" r:id="rId1"/>
@@ -39,9 +39,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">'11 - MS-Project'!$B$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'12 - MQ'!$B$1:$G$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'13 - CQ'!$B$1:$E$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'14 - Organograma'!$B$1:$Q$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'15 - TimeProjeto'!$B$1:$G$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'16 - PGC'!$B$1:$G$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'17 - PGR'!$B$1:$M$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'17 - PGR'!$B$1:$M$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'18 - EAR'!$B$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2 - Project Charter'!$B$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3 - Stakeholders List'!$B$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4 - Stakeholders Graphic'!$B$1:$N$25</definedName>
@@ -4100,7 +4102,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4143,6 +4145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="74">
     <border>
@@ -5074,7 +5082,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5532,9 +5540,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5542,9 +5547,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5552,9 +5554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -5571,48 +5570,6 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5658,18 +5615,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5677,9 +5622,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5765,35 +5707,108 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6759,23 +6774,63 @@
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>814917</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22530" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="446" t="3454" r="1566" b="8299"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="635000" y="84664"/>
+          <a:ext cx="10001250" cy="5249333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Seta para a direita listrada 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="1 - Capa"/>
+        <xdr:cNvPr id="3" name="Seta para a direita listrada 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="1 - Capa"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1"/>
@@ -6783,7 +6838,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="28575" y="28575"/>
+          <a:off x="38100" y="28575"/>
           <a:ext cx="542926" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="stripedRightArrow">
@@ -6888,6 +6943,69 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta para a direita listrada 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="1 - Capa"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="542926" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58314"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>32807</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>32807</xdr:rowOff>
@@ -6910,6 +7028,149 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="32807" y="32807"/>
+          <a:ext cx="542926" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58314"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1058</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21550" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="625475" y="8066611"/>
+          <a:ext cx="12065000" cy="2687108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23554" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="171450" y="295275"/>
+          <a:ext cx="5143500" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Seta para a direita listrada 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="1 - Capa"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="28575" y="28575"/>
           <a:ext cx="542926" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="stripedRightArrow">
@@ -9223,13 +9484,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="10" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="258" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="212"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="260"/>
     </row>
     <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="129" t="s">
@@ -9419,12 +9680,12 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="261" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
       <c r="F13" s="131">
         <f>SUM(F3:F12)</f>
         <v>39770</v>
@@ -9458,16 +9719,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="15">
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="250" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="202"/>
+      <c r="D2" s="250"/>
     </row>
     <row r="3" spans="3:4" ht="15">
-      <c r="C3" s="202" t="s">
+      <c r="C3" s="250" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="202"/>
+      <c r="D3" s="250"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -9507,20 +9768,20 @@
     <col min="3" max="3" width="58" style="135" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="135" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="136" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="230" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="213" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="75.7109375" style="135" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="135"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" customHeight="1">
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="263" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="234"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="265"/>
     </row>
     <row r="2" spans="2:7" s="18" customFormat="1" ht="15">
       <c r="B2" s="181" t="s">
@@ -9555,7 +9816,7 @@
       <c r="E3" s="179">
         <v>320404</v>
       </c>
-      <c r="F3" s="235" t="s">
+      <c r="F3" s="214" t="s">
         <v>595</v>
       </c>
       <c r="G3" s="180" t="s">
@@ -9575,7 +9836,7 @@
       <c r="E4" s="139">
         <v>39770</v>
       </c>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="215" t="s">
         <v>595</v>
       </c>
       <c r="G4" s="145" t="s">
@@ -9595,7 +9856,7 @@
       <c r="E5" s="137">
         <v>4</v>
       </c>
-      <c r="F5" s="237" t="s">
+      <c r="F5" s="216" t="s">
         <v>595</v>
       </c>
       <c r="G5" s="143" t="s">
@@ -9615,7 +9876,7 @@
       <c r="E6" s="138">
         <v>7</v>
       </c>
-      <c r="F6" s="236" t="s">
+      <c r="F6" s="215" t="s">
         <v>595</v>
       </c>
       <c r="G6" s="145" t="s">
@@ -9635,7 +9896,7 @@
       <c r="E7" s="137">
         <v>80</v>
       </c>
-      <c r="F7" s="237" t="s">
+      <c r="F7" s="216" t="s">
         <v>595</v>
       </c>
       <c r="G7" s="143" t="s">
@@ -9655,7 +9916,7 @@
       <c r="E8" s="138">
         <v>100</v>
       </c>
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="215" t="s">
         <v>595</v>
       </c>
       <c r="G8" s="145" t="s">
@@ -9675,7 +9936,7 @@
       <c r="E9" s="137">
         <v>95</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="216" t="s">
         <v>595</v>
       </c>
       <c r="G9" s="143" t="s">
@@ -9695,7 +9956,7 @@
       <c r="E10" s="138">
         <v>100</v>
       </c>
-      <c r="F10" s="236" t="s">
+      <c r="F10" s="215" t="s">
         <v>595</v>
       </c>
       <c r="G10" s="145" t="s">
@@ -9715,7 +9976,7 @@
       <c r="E11" s="137">
         <v>90</v>
       </c>
-      <c r="F11" s="237" t="s">
+      <c r="F11" s="216" t="s">
         <v>595</v>
       </c>
       <c r="G11" s="143" t="s">
@@ -9735,7 +9996,7 @@
       <c r="E12" s="138">
         <v>80</v>
       </c>
-      <c r="F12" s="236" t="s">
+      <c r="F12" s="215" t="s">
         <v>595</v>
       </c>
       <c r="G12" s="145" t="s">
@@ -9755,7 +10016,7 @@
       <c r="E13" s="137">
         <v>80</v>
       </c>
-      <c r="F13" s="237" t="s">
+      <c r="F13" s="216" t="s">
         <v>595</v>
       </c>
       <c r="G13" s="143" t="s">
@@ -9775,7 +10036,7 @@
       <c r="E14" s="138">
         <v>80</v>
       </c>
-      <c r="F14" s="236" t="s">
+      <c r="F14" s="215" t="s">
         <v>595</v>
       </c>
       <c r="G14" s="145" t="s">
@@ -9795,7 +10056,7 @@
       <c r="E15" s="137">
         <v>85</v>
       </c>
-      <c r="F15" s="237" t="s">
+      <c r="F15" s="216" t="s">
         <v>595</v>
       </c>
       <c r="G15" s="143" t="s">
@@ -9815,7 +10076,7 @@
       <c r="E16" s="138">
         <v>100</v>
       </c>
-      <c r="F16" s="236" t="s">
+      <c r="F16" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G16" s="145" t="s">
@@ -9835,7 +10096,7 @@
       <c r="E17" s="137">
         <v>95</v>
       </c>
-      <c r="F17" s="237" t="s">
+      <c r="F17" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G17" s="143" t="s">
@@ -9855,7 +10116,7 @@
       <c r="E18" s="138">
         <v>100</v>
       </c>
-      <c r="F18" s="236" t="s">
+      <c r="F18" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G18" s="145" t="s">
@@ -9875,7 +10136,7 @@
       <c r="E19" s="137">
         <v>100</v>
       </c>
-      <c r="F19" s="237" t="s">
+      <c r="F19" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G19" s="143" t="s">
@@ -9895,7 +10156,7 @@
       <c r="E20" s="138">
         <v>1</v>
       </c>
-      <c r="F20" s="236" t="s">
+      <c r="F20" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G20" s="145" t="s">
@@ -9915,7 +10176,7 @@
       <c r="E21" s="137">
         <v>5</v>
       </c>
-      <c r="F21" s="237" t="s">
+      <c r="F21" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G21" s="143" t="s">
@@ -9935,7 +10196,7 @@
       <c r="E22" s="138">
         <v>3</v>
       </c>
-      <c r="F22" s="236" t="s">
+      <c r="F22" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G22" s="145" t="s">
@@ -9955,7 +10216,7 @@
       <c r="E23" s="137">
         <v>3</v>
       </c>
-      <c r="F23" s="237" t="s">
+      <c r="F23" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G23" s="143" t="s">
@@ -9975,7 +10236,7 @@
       <c r="E24" s="138">
         <v>2</v>
       </c>
-      <c r="F24" s="236" t="s">
+      <c r="F24" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G24" s="145" t="s">
@@ -9995,7 +10256,7 @@
       <c r="E25" s="137">
         <v>7</v>
       </c>
-      <c r="F25" s="237" t="s">
+      <c r="F25" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G25" s="143" t="s">
@@ -10015,7 +10276,7 @@
       <c r="E26" s="138">
         <v>20</v>
       </c>
-      <c r="F26" s="236" t="s">
+      <c r="F26" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G26" s="145" t="s">
@@ -10035,7 +10296,7 @@
       <c r="E27" s="137">
         <v>75</v>
       </c>
-      <c r="F27" s="237" t="s">
+      <c r="F27" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G27" s="143" t="s">
@@ -10055,7 +10316,7 @@
       <c r="E28" s="138">
         <v>10</v>
       </c>
-      <c r="F28" s="236" t="s">
+      <c r="F28" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G28" s="145" t="s">
@@ -10075,7 +10336,7 @@
       <c r="E29" s="137">
         <v>100</v>
       </c>
-      <c r="F29" s="237" t="s">
+      <c r="F29" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G29" s="143" t="s">
@@ -10095,7 +10356,7 @@
       <c r="E30" s="138">
         <v>100</v>
       </c>
-      <c r="F30" s="236" t="s">
+      <c r="F30" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G30" s="145" t="s">
@@ -10115,7 +10376,7 @@
       <c r="E31" s="137">
         <v>95</v>
       </c>
-      <c r="F31" s="237" t="s">
+      <c r="F31" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G31" s="143" t="s">
@@ -10135,7 +10396,7 @@
       <c r="E32" s="138">
         <v>9</v>
       </c>
-      <c r="F32" s="236" t="s">
+      <c r="F32" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G32" s="145" t="s">
@@ -10155,7 +10416,7 @@
       <c r="E33" s="137">
         <v>90</v>
       </c>
-      <c r="F33" s="237" t="s">
+      <c r="F33" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G33" s="143" t="s">
@@ -10175,7 +10436,7 @@
       <c r="E34" s="138">
         <v>90</v>
       </c>
-      <c r="F34" s="236" t="s">
+      <c r="F34" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G34" s="145" t="s">
@@ -10195,7 +10456,7 @@
       <c r="E35" s="137">
         <v>100</v>
       </c>
-      <c r="F35" s="237" t="s">
+      <c r="F35" s="216" t="s">
         <v>596</v>
       </c>
       <c r="G35" s="143" t="s">
@@ -10215,7 +10476,7 @@
       <c r="E36" s="138">
         <v>9</v>
       </c>
-      <c r="F36" s="236" t="s">
+      <c r="F36" s="215" t="s">
         <v>596</v>
       </c>
       <c r="G36" s="145" t="s">
@@ -10250,12 +10511,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="24.75" customHeight="1">
-      <c r="B1" s="238" t="s">
+      <c r="B1" s="266" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
     </row>
     <row r="2" spans="2:5" ht="3" customHeight="1">
       <c r="B2" s="182"/>
@@ -10264,14 +10525,14 @@
       <c r="E2" s="182"/>
     </row>
     <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="233" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="256" t="s">
+      <c r="C3" s="234" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="257"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="235"/>
     </row>
     <row r="4" spans="2:5" ht="3" customHeight="1">
       <c r="B4" s="18"/>
@@ -10280,118 +10541,118 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="217" t="s">
         <v>311</v>
       </c>
-      <c r="C5" s="240" t="s">
+      <c r="C5" s="218" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="240" t="s">
+      <c r="D5" s="218" t="s">
         <v>456</v>
       </c>
-      <c r="E5" s="241" t="s">
+      <c r="E5" s="219" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="242">
+      <c r="B6" s="220">
         <v>1</v>
       </c>
-      <c r="C6" s="243" t="s">
+      <c r="C6" s="221" t="s">
         <v>455</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="245"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="223"/>
     </row>
     <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="246">
+      <c r="B7" s="224">
         <v>2</v>
       </c>
-      <c r="C7" s="247" t="s">
+      <c r="C7" s="225" t="s">
         <v>458</v>
       </c>
-      <c r="D7" s="248"/>
-      <c r="E7" s="249"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="227"/>
     </row>
     <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="242">
+      <c r="B8" s="220">
         <v>3</v>
       </c>
-      <c r="C8" s="243" t="s">
+      <c r="C8" s="221" t="s">
         <v>459</v>
       </c>
-      <c r="D8" s="244"/>
-      <c r="E8" s="245"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="223"/>
     </row>
     <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="246">
+      <c r="B9" s="224">
         <v>4</v>
       </c>
-      <c r="C9" s="247" t="s">
+      <c r="C9" s="225" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="248"/>
-      <c r="E9" s="249"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="227"/>
     </row>
     <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="242">
+      <c r="B10" s="220">
         <v>5</v>
       </c>
-      <c r="C10" s="243" t="s">
+      <c r="C10" s="221" t="s">
         <v>461</v>
       </c>
-      <c r="D10" s="244"/>
-      <c r="E10" s="245"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="223"/>
     </row>
     <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="246">
+      <c r="B11" s="224">
         <v>6</v>
       </c>
-      <c r="C11" s="247" t="s">
+      <c r="C11" s="225" t="s">
         <v>463</v>
       </c>
-      <c r="D11" s="248"/>
-      <c r="E11" s="249"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="227"/>
     </row>
     <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="242">
+      <c r="B12" s="220">
         <v>7</v>
       </c>
-      <c r="C12" s="243" t="s">
+      <c r="C12" s="221" t="s">
         <v>462</v>
       </c>
-      <c r="D12" s="244"/>
-      <c r="E12" s="245"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="223"/>
     </row>
     <row r="13" spans="2:5" ht="15">
-      <c r="B13" s="246">
+      <c r="B13" s="224">
         <v>8</v>
       </c>
-      <c r="C13" s="247" t="s">
+      <c r="C13" s="225" t="s">
         <v>464</v>
       </c>
-      <c r="D13" s="248"/>
-      <c r="E13" s="249"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="227"/>
     </row>
     <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="242">
+      <c r="B14" s="220">
         <v>9</v>
       </c>
-      <c r="C14" s="243" t="s">
+      <c r="C14" s="221" t="s">
         <v>465</v>
       </c>
-      <c r="D14" s="244"/>
-      <c r="E14" s="245"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="223"/>
     </row>
     <row r="15" spans="2:5" ht="15">
-      <c r="B15" s="250">
+      <c r="B15" s="228">
         <v>10</v>
       </c>
-      <c r="C15" s="251" t="s">
+      <c r="C15" s="229" t="s">
         <v>466</v>
       </c>
-      <c r="D15" s="252"/>
-      <c r="E15" s="253"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10408,13 +10669,23 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10436,14 +10707,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="267" t="s">
         <v>487</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
     </row>
     <row r="2" spans="2:7" ht="15">
       <c r="B2" s="185" t="s">
@@ -10466,392 +10737,392 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15">
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="236" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="237" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="259" t="s">
+      <c r="D3" s="237" t="s">
         <v>400</v>
       </c>
-      <c r="E3" s="199" t="s">
+      <c r="E3" s="196" t="s">
         <v>553</v>
       </c>
-      <c r="F3" s="264" t="s">
+      <c r="F3" s="242" t="s">
         <v>472</v>
       </c>
-      <c r="G3" s="265" t="s">
+      <c r="G3" s="243" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15">
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="238" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="261" t="s">
+      <c r="C4" s="239" t="s">
         <v>404</v>
       </c>
-      <c r="D4" s="261" t="s">
+      <c r="D4" s="239" t="s">
         <v>532</v>
       </c>
       <c r="E4" s="183" t="s">
         <v>554</v>
       </c>
-      <c r="F4" s="266" t="s">
+      <c r="F4" s="244" t="s">
         <v>473</v>
       </c>
-      <c r="G4" s="267" t="s">
+      <c r="G4" s="245" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15">
-      <c r="B5" s="262" t="s">
+      <c r="B5" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="241" t="s">
         <v>406</v>
       </c>
-      <c r="D5" s="263" t="s">
+      <c r="D5" s="241" t="s">
         <v>533</v>
       </c>
       <c r="E5" s="184" t="s">
         <v>555</v>
       </c>
-      <c r="F5" s="268" t="s">
+      <c r="F5" s="246" t="s">
         <v>474</v>
       </c>
-      <c r="G5" s="269" t="s">
+      <c r="G5" s="247" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15">
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="238" t="s">
         <v>546</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="239" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="261" t="s">
+      <c r="D6" s="239" t="s">
         <v>534</v>
       </c>
       <c r="E6" s="183" t="s">
         <v>556</v>
       </c>
-      <c r="F6" s="266" t="s">
+      <c r="F6" s="244" t="s">
         <v>476</v>
       </c>
-      <c r="G6" s="267" t="s">
+      <c r="G6" s="245" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15">
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="240" t="s">
         <v>475</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="241" t="s">
         <v>406</v>
       </c>
-      <c r="D7" s="263" t="s">
+      <c r="D7" s="241" t="s">
         <v>534</v>
       </c>
       <c r="E7" s="184" t="s">
         <v>557</v>
       </c>
-      <c r="F7" s="268" t="s">
+      <c r="F7" s="246" t="s">
         <v>477</v>
       </c>
-      <c r="G7" s="269" t="s">
+      <c r="G7" s="247" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15">
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="238" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="261" t="s">
+      <c r="C8" s="239" t="s">
         <v>410</v>
       </c>
-      <c r="D8" s="261" t="s">
+      <c r="D8" s="239" t="s">
         <v>535</v>
       </c>
       <c r="E8" s="183" t="s">
         <v>558</v>
       </c>
-      <c r="F8" s="266" t="s">
+      <c r="F8" s="244" t="s">
         <v>478</v>
       </c>
-      <c r="G8" s="267" t="s">
+      <c r="G8" s="245" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15">
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="240" t="s">
         <v>413</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="241" t="s">
         <v>591</v>
       </c>
-      <c r="D9" s="263" t="s">
+      <c r="D9" s="241" t="s">
         <v>592</v>
       </c>
       <c r="E9" s="184" t="s">
         <v>559</v>
       </c>
-      <c r="F9" s="268" t="s">
+      <c r="F9" s="246" t="s">
         <v>479</v>
       </c>
-      <c r="G9" s="269" t="s">
+      <c r="G9" s="247" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15">
-      <c r="B10" s="260" t="s">
+      <c r="B10" s="238" t="s">
         <v>415</v>
       </c>
-      <c r="C10" s="261" t="s">
+      <c r="C10" s="239" t="s">
         <v>414</v>
       </c>
-      <c r="D10" s="261" t="s">
+      <c r="D10" s="239" t="s">
         <v>536</v>
       </c>
       <c r="E10" s="183" t="s">
         <v>560</v>
       </c>
-      <c r="F10" s="266" t="s">
+      <c r="F10" s="244" t="s">
         <v>480</v>
       </c>
-      <c r="G10" s="267" t="s">
+      <c r="G10" s="245" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15">
-      <c r="B11" s="262" t="s">
+      <c r="B11" s="240" t="s">
         <v>417</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="241" t="s">
         <v>416</v>
       </c>
-      <c r="D11" s="263" t="s">
+      <c r="D11" s="241" t="s">
         <v>537</v>
       </c>
       <c r="E11" s="184" t="s">
         <v>561</v>
       </c>
-      <c r="F11" s="268" t="s">
+      <c r="F11" s="246" t="s">
         <v>482</v>
       </c>
-      <c r="G11" s="269" t="s">
+      <c r="G11" s="247" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15">
-      <c r="B12" s="260" t="s">
+      <c r="B12" s="238" t="s">
         <v>419</v>
       </c>
-      <c r="C12" s="261" t="s">
+      <c r="C12" s="239" t="s">
         <v>418</v>
       </c>
-      <c r="D12" s="261" t="s">
+      <c r="D12" s="239" t="s">
         <v>538</v>
       </c>
       <c r="E12" s="183" t="s">
         <v>562</v>
       </c>
-      <c r="F12" s="266" t="s">
+      <c r="F12" s="244" t="s">
         <v>484</v>
       </c>
-      <c r="G12" s="267" t="s">
+      <c r="G12" s="245" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15">
-      <c r="B13" s="262" t="s">
+      <c r="B13" s="240" t="s">
         <v>540</v>
       </c>
-      <c r="C13" s="263" t="s">
+      <c r="C13" s="241" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="263" t="s">
+      <c r="D13" s="241" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="184" t="s">
         <v>563</v>
       </c>
-      <c r="F13" s="268" t="s">
+      <c r="F13" s="246" t="s">
         <v>486</v>
       </c>
-      <c r="G13" s="269" t="s">
+      <c r="G13" s="247" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15">
-      <c r="B14" s="260" t="s">
+      <c r="B14" s="238" t="s">
         <v>541</v>
       </c>
-      <c r="C14" s="261" t="s">
+      <c r="C14" s="239" t="s">
         <v>416</v>
       </c>
-      <c r="D14" s="261" t="s">
+      <c r="D14" s="239" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="183" t="s">
         <v>564</v>
       </c>
-      <c r="F14" s="266" t="s">
+      <c r="F14" s="244" t="s">
         <v>547</v>
       </c>
-      <c r="G14" s="267" t="s">
+      <c r="G14" s="245" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15">
-      <c r="B15" s="262" t="s">
+      <c r="B15" s="240" t="s">
         <v>542</v>
       </c>
-      <c r="C15" s="263" t="s">
+      <c r="C15" s="241" t="s">
         <v>414</v>
       </c>
-      <c r="D15" s="263" t="s">
+      <c r="D15" s="241" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="184" t="s">
         <v>565</v>
       </c>
-      <c r="F15" s="268" t="s">
+      <c r="F15" s="246" t="s">
         <v>548</v>
       </c>
-      <c r="G15" s="269" t="s">
+      <c r="G15" s="247" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15">
-      <c r="B16" s="260" t="s">
+      <c r="B16" s="238" t="s">
         <v>543</v>
       </c>
-      <c r="C16" s="261" t="s">
+      <c r="C16" s="239" t="s">
         <v>591</v>
       </c>
-      <c r="D16" s="261" t="s">
+      <c r="D16" s="239" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="183" t="s">
         <v>566</v>
       </c>
-      <c r="F16" s="266" t="s">
+      <c r="F16" s="244" t="s">
         <v>549</v>
       </c>
-      <c r="G16" s="267" t="s">
+      <c r="G16" s="245" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15">
-      <c r="B17" s="262" t="s">
+      <c r="B17" s="240" t="s">
         <v>544</v>
       </c>
-      <c r="C17" s="263" t="s">
+      <c r="C17" s="241" t="s">
         <v>414</v>
       </c>
-      <c r="D17" s="263" t="s">
+      <c r="D17" s="241" t="s">
         <v>116</v>
       </c>
       <c r="E17" s="184" t="s">
         <v>567</v>
       </c>
-      <c r="F17" s="268" t="s">
+      <c r="F17" s="246" t="s">
         <v>550</v>
       </c>
-      <c r="G17" s="269" t="s">
+      <c r="G17" s="247" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15">
-      <c r="B18" s="260" t="s">
+      <c r="B18" s="238" t="s">
         <v>545</v>
       </c>
-      <c r="C18" s="261" t="s">
+      <c r="C18" s="239" t="s">
         <v>414</v>
       </c>
-      <c r="D18" s="261" t="s">
+      <c r="D18" s="239" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="183" t="s">
         <v>568</v>
       </c>
-      <c r="F18" s="266" t="s">
+      <c r="F18" s="244" t="s">
         <v>551</v>
       </c>
-      <c r="G18" s="267" t="s">
+      <c r="G18" s="245" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15">
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="240" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="263" t="s">
+      <c r="C19" s="241" t="s">
         <v>420</v>
       </c>
-      <c r="D19" s="263" t="s">
+      <c r="D19" s="241" t="s">
         <v>539</v>
       </c>
       <c r="E19" s="184" t="s">
         <v>481</v>
       </c>
-      <c r="F19" s="268" t="s">
+      <c r="F19" s="246" t="s">
         <v>552</v>
       </c>
-      <c r="G19" s="269" t="s">
+      <c r="G19" s="247" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15">
-      <c r="B20" s="260" t="s">
+      <c r="B20" s="238" t="s">
         <v>423</v>
       </c>
-      <c r="C20" s="261" t="s">
+      <c r="C20" s="239" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="261" t="s">
+      <c r="D20" s="239" t="s">
         <v>539</v>
       </c>
       <c r="E20" s="183" t="s">
         <v>483</v>
       </c>
-      <c r="F20" s="266" t="s">
+      <c r="F20" s="244" t="s">
         <v>589</v>
       </c>
-      <c r="G20" s="267" t="s">
+      <c r="G20" s="245" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15">
-      <c r="B21" s="262" t="s">
+      <c r="B21" s="240" t="s">
         <v>425</v>
       </c>
-      <c r="C21" s="263" t="s">
+      <c r="C21" s="241" t="s">
         <v>424</v>
       </c>
-      <c r="D21" s="263" t="s">
+      <c r="D21" s="241" t="s">
         <v>539</v>
       </c>
       <c r="E21" s="184" t="s">
         <v>485</v>
       </c>
-      <c r="F21" s="268" t="s">
+      <c r="F21" s="246" t="s">
         <v>590</v>
       </c>
-      <c r="G21" s="269" t="s">
+      <c r="G21" s="247" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75">
-      <c r="B22" s="200"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10888,8 +11159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10904,14 +11175,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="267" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="181" t="s">
@@ -10936,274 +11207,274 @@
       <c r="I2" s="147"/>
     </row>
     <row r="3" spans="2:9" ht="51">
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="279" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="254" t="s">
+      <c r="C3" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="275" t="s">
+      <c r="D3" s="277" t="s">
         <v>602</v>
       </c>
-      <c r="E3" s="254" t="s">
+      <c r="E3" s="232" t="s">
         <v>394</v>
       </c>
-      <c r="F3" s="275" t="s">
+      <c r="F3" s="277" t="s">
         <v>603</v>
       </c>
-      <c r="G3" s="276" t="s">
+      <c r="G3" s="280" t="s">
         <v>604</v>
       </c>
       <c r="H3" s="147"/>
       <c r="I3" s="147"/>
     </row>
     <row r="4" spans="2:9" ht="38.25">
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="281" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="236" t="s">
+      <c r="C4" s="215" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="278" t="s">
         <v>606</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="215" t="s">
         <v>394</v>
       </c>
       <c r="F4" s="278" t="s">
         <v>607</v>
       </c>
-      <c r="G4" s="279" t="s">
+      <c r="G4" s="282" t="s">
         <v>608</v>
       </c>
       <c r="H4" s="147"/>
       <c r="I4" s="147"/>
     </row>
     <row r="5" spans="2:9" ht="38.25">
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="279" t="s">
         <v>609</v>
       </c>
-      <c r="C5" s="254" t="s">
+      <c r="C5" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="275" t="s">
+      <c r="D5" s="277" t="s">
         <v>610</v>
       </c>
-      <c r="E5" s="254" t="s">
+      <c r="E5" s="232" t="s">
         <v>394</v>
       </c>
-      <c r="F5" s="275" t="s">
+      <c r="F5" s="277" t="s">
         <v>611</v>
       </c>
-      <c r="G5" s="276" t="s">
+      <c r="G5" s="280" t="s">
         <v>612</v>
       </c>
       <c r="H5" s="147"/>
       <c r="I5" s="147"/>
     </row>
     <row r="6" spans="2:9" ht="51">
-      <c r="B6" s="277" t="s">
+      <c r="B6" s="281" t="s">
         <v>613</v>
       </c>
-      <c r="C6" s="236" t="s">
+      <c r="C6" s="215" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="278" t="s">
         <v>614</v>
       </c>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="215" t="s">
         <v>394</v>
       </c>
       <c r="F6" s="278" t="s">
         <v>615</v>
       </c>
-      <c r="G6" s="279" t="s">
+      <c r="G6" s="282" t="s">
         <v>604</v>
       </c>
       <c r="H6" s="147"/>
       <c r="I6" s="147"/>
     </row>
     <row r="7" spans="2:9" ht="63.75">
-      <c r="B7" s="274" t="s">
+      <c r="B7" s="279" t="s">
         <v>616</v>
       </c>
-      <c r="C7" s="254" t="s">
+      <c r="C7" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="275" t="s">
+      <c r="D7" s="277" t="s">
         <v>617</v>
       </c>
-      <c r="E7" s="254" t="s">
+      <c r="E7" s="232" t="s">
         <v>394</v>
       </c>
-      <c r="F7" s="275" t="s">
+      <c r="F7" s="277" t="s">
         <v>618</v>
       </c>
-      <c r="G7" s="276" t="s">
+      <c r="G7" s="280" t="s">
         <v>608</v>
       </c>
       <c r="H7" s="147"/>
       <c r="I7" s="147"/>
     </row>
     <row r="8" spans="2:9" ht="51">
-      <c r="B8" s="277" t="s">
+      <c r="B8" s="281" t="s">
         <v>619</v>
       </c>
-      <c r="C8" s="236" t="s">
+      <c r="C8" s="215" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="278" t="s">
         <v>620</v>
       </c>
-      <c r="E8" s="236" t="s">
+      <c r="E8" s="215" t="s">
         <v>394</v>
       </c>
       <c r="F8" s="278" t="s">
         <v>621</v>
       </c>
-      <c r="G8" s="279" t="s">
+      <c r="G8" s="282" t="s">
         <v>604</v>
       </c>
       <c r="H8" s="147"/>
       <c r="I8" s="147"/>
     </row>
     <row r="9" spans="2:9" ht="51">
-      <c r="B9" s="274" t="s">
+      <c r="B9" s="279" t="s">
         <v>622</v>
       </c>
-      <c r="C9" s="254" t="s">
+      <c r="C9" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="275" t="s">
+      <c r="D9" s="277" t="s">
         <v>623</v>
       </c>
-      <c r="E9" s="254" t="s">
+      <c r="E9" s="232" t="s">
         <v>624</v>
       </c>
-      <c r="F9" s="275" t="s">
+      <c r="F9" s="277" t="s">
         <v>625</v>
       </c>
-      <c r="G9" s="276" t="s">
+      <c r="G9" s="280" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="38.25">
-      <c r="B10" s="277" t="s">
+      <c r="B10" s="281" t="s">
         <v>626</v>
       </c>
-      <c r="C10" s="236" t="s">
+      <c r="C10" s="215" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="278" t="s">
         <v>627</v>
       </c>
-      <c r="E10" s="236" t="s">
+      <c r="E10" s="215" t="s">
         <v>624</v>
       </c>
       <c r="F10" s="278" t="s">
         <v>607</v>
       </c>
-      <c r="G10" s="279" t="s">
+      <c r="G10" s="282" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="51">
-      <c r="B11" s="274" t="s">
+      <c r="B11" s="279" t="s">
         <v>629</v>
       </c>
-      <c r="C11" s="254" t="s">
+      <c r="C11" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="275" t="s">
+      <c r="D11" s="277" t="s">
         <v>630</v>
       </c>
-      <c r="E11" s="254" t="s">
+      <c r="E11" s="232" t="s">
         <v>631</v>
       </c>
-      <c r="F11" s="275" t="s">
+      <c r="F11" s="277" t="s">
         <v>618</v>
       </c>
-      <c r="G11" s="276" t="s">
+      <c r="G11" s="280" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="51">
-      <c r="B12" s="277" t="s">
+      <c r="B12" s="281" t="s">
         <v>632</v>
       </c>
-      <c r="C12" s="236" t="s">
+      <c r="C12" s="215" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="278" t="s">
         <v>633</v>
       </c>
-      <c r="E12" s="236" t="s">
+      <c r="E12" s="215" t="s">
         <v>624</v>
       </c>
       <c r="F12" s="278" t="s">
         <v>634</v>
       </c>
-      <c r="G12" s="279" t="s">
+      <c r="G12" s="282" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="38.25">
-      <c r="B13" s="274" t="s">
+      <c r="B13" s="279" t="s">
         <v>635</v>
       </c>
-      <c r="C13" s="254" t="s">
+      <c r="C13" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="275" t="s">
+      <c r="D13" s="277" t="s">
         <v>636</v>
       </c>
-      <c r="E13" s="254" t="s">
+      <c r="E13" s="232" t="s">
         <v>624</v>
       </c>
-      <c r="F13" s="275" t="s">
+      <c r="F13" s="277" t="s">
         <v>618</v>
       </c>
-      <c r="G13" s="276" t="s">
+      <c r="G13" s="280" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="38.25">
-      <c r="B14" s="277" t="s">
+      <c r="B14" s="281" t="s">
         <v>640</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="215" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="278" t="s">
         <v>637</v>
       </c>
-      <c r="E14" s="236" t="s">
+      <c r="E14" s="215" t="s">
         <v>624</v>
       </c>
       <c r="F14" s="278" t="s">
         <v>621</v>
       </c>
-      <c r="G14" s="279" t="s">
+      <c r="G14" s="282" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="51">
-      <c r="B15" s="274" t="s">
+      <c r="B15" s="279" t="s">
         <v>638</v>
       </c>
-      <c r="C15" s="254" t="s">
+      <c r="C15" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="275" t="s">
+      <c r="D15" s="277" t="s">
         <v>639</v>
       </c>
-      <c r="E15" s="254" t="s">
+      <c r="E15" s="232" t="s">
         <v>624</v>
       </c>
-      <c r="F15" s="275" t="s">
+      <c r="F15" s="277" t="s">
         <v>621</v>
       </c>
-      <c r="G15" s="276" t="s">
+      <c r="G15" s="280" t="s">
         <v>604</v>
       </c>
     </row>
@@ -11228,17 +11499,17 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V24"/>
+  <dimension ref="B1:V43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:I4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="3" style="148" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
@@ -11252,59 +11523,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="25.5" customHeight="1">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="267" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="270" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="270" t="s">
         <v>489</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="D2" s="270" t="s">
         <v>490</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="270" t="s">
         <v>491</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="270" t="s">
         <v>492</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="270" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231" t="s">
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270" t="s">
         <v>530</v>
       </c>
-      <c r="L2" s="231" t="s">
+      <c r="L2" s="270" t="s">
         <v>529</v>
       </c>
-      <c r="M2" s="231" t="s">
+      <c r="M2" s="270" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
       <c r="G3" s="181" t="s">
         <v>177</v>
       </c>
@@ -11317,825 +11588,831 @@
       <c r="J3" s="181" t="s">
         <v>526</v>
       </c>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="270"/>
       <c r="P3" s="135"/>
-      <c r="Q3" s="271" t="s">
+      <c r="Q3" s="268" t="s">
         <v>528</v>
       </c>
-      <c r="R3" s="271"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
+      <c r="R3" s="268"/>
+      <c r="S3" s="268"/>
+      <c r="T3" s="268"/>
+      <c r="U3" s="268"/>
       <c r="V3" s="135"/>
     </row>
     <row r="4" spans="2:22" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="187">
+      <c r="B4" s="272">
         <v>1</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="187" t="s">
         <v>495</v>
       </c>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="188" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="189" t="s">
+      <c r="E4" s="188" t="s">
         <v>497</v>
       </c>
-      <c r="F4" s="189">
+      <c r="F4" s="188">
         <v>1</v>
       </c>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189">
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188">
         <v>5</v>
       </c>
-      <c r="K4" s="189">
+      <c r="K4" s="188">
         <f>F4*J4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="189" t="s">
+      <c r="L4" s="188" t="s">
         <v>408</v>
       </c>
-      <c r="M4" s="190"/>
+      <c r="M4" s="189"/>
       <c r="N4" s="186"/>
       <c r="O4" s="186"/>
-      <c r="P4" s="229" t="s">
+      <c r="P4" s="212" t="s">
         <v>383</v>
       </c>
-      <c r="Q4" s="216">
+      <c r="Q4" s="199">
         <v>5</v>
       </c>
-      <c r="R4" s="217">
+      <c r="R4" s="200">
         <v>10</v>
       </c>
-      <c r="S4" s="218">
+      <c r="S4" s="201">
         <v>15</v>
       </c>
-      <c r="T4" s="218">
+      <c r="T4" s="201">
         <v>20</v>
       </c>
-      <c r="U4" s="219">
+      <c r="U4" s="202">
         <v>25</v>
       </c>
-      <c r="V4" s="270" t="s">
+      <c r="V4" s="269" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="39.950000000000003" customHeight="1">
-      <c r="B5" s="191">
+      <c r="B5" s="273">
         <v>2</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="190" t="s">
         <v>498</v>
       </c>
-      <c r="D5" s="193" t="s">
+      <c r="D5" s="191" t="s">
         <v>499</v>
       </c>
-      <c r="E5" s="193" t="s">
+      <c r="E5" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="F5" s="193">
+      <c r="F5" s="191">
         <v>1</v>
       </c>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193">
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191">
         <v>5</v>
       </c>
-      <c r="K5" s="193">
+      <c r="K5" s="191">
         <f t="shared" ref="K5:K24" si="0">F5*J5</f>
         <v>5</v>
       </c>
-      <c r="L5" s="193" t="s">
+      <c r="L5" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M5" s="194"/>
+      <c r="M5" s="192"/>
       <c r="N5" s="186"/>
       <c r="O5" s="186"/>
-      <c r="P5" s="229" t="s">
+      <c r="P5" s="212" t="s">
         <v>384</v>
       </c>
-      <c r="Q5" s="220">
+      <c r="Q5" s="203">
         <v>4</v>
       </c>
-      <c r="R5" s="221">
+      <c r="R5" s="204">
         <v>8</v>
       </c>
-      <c r="S5" s="221">
+      <c r="S5" s="204">
         <v>12</v>
       </c>
-      <c r="T5" s="222">
+      <c r="T5" s="205">
         <v>16</v>
       </c>
-      <c r="U5" s="223">
+      <c r="U5" s="206">
         <v>20</v>
       </c>
-      <c r="V5" s="270"/>
+      <c r="V5" s="269"/>
     </row>
     <row r="6" spans="2:22" ht="39.950000000000003" customHeight="1">
-      <c r="B6" s="195">
+      <c r="B6" s="274">
         <v>3</v>
       </c>
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="193" t="s">
         <v>500</v>
       </c>
-      <c r="D6" s="197" t="s">
+      <c r="D6" s="194" t="s">
         <v>496</v>
       </c>
-      <c r="E6" s="197" t="s">
+      <c r="E6" s="194" t="s">
         <v>497</v>
       </c>
-      <c r="F6" s="197">
+      <c r="F6" s="194">
         <v>2</v>
       </c>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197">
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194">
         <v>5</v>
       </c>
-      <c r="K6" s="197">
+      <c r="K6" s="194">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L6" s="197" t="s">
+      <c r="L6" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M6" s="198"/>
+      <c r="M6" s="195"/>
       <c r="N6" s="186"/>
       <c r="O6" s="186"/>
-      <c r="P6" s="229" t="s">
+      <c r="P6" s="212" t="s">
         <v>385</v>
       </c>
-      <c r="Q6" s="220">
+      <c r="Q6" s="203">
         <v>3</v>
       </c>
-      <c r="R6" s="221">
+      <c r="R6" s="204">
         <v>6</v>
       </c>
-      <c r="S6" s="221">
+      <c r="S6" s="204">
         <v>9</v>
       </c>
-      <c r="T6" s="221">
+      <c r="T6" s="204">
         <v>12</v>
       </c>
-      <c r="U6" s="223">
+      <c r="U6" s="206">
         <v>15</v>
       </c>
-      <c r="V6" s="270"/>
+      <c r="V6" s="269"/>
     </row>
     <row r="7" spans="2:22" ht="39.950000000000003" customHeight="1">
-      <c r="B7" s="191">
+      <c r="B7" s="273">
         <v>4</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="190" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="191" t="s">
         <v>502</v>
       </c>
-      <c r="E7" s="193" t="s">
+      <c r="E7" s="191" t="s">
         <v>503</v>
       </c>
-      <c r="F7" s="193">
+      <c r="F7" s="191">
         <v>3</v>
       </c>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193">
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191">
         <v>5</v>
       </c>
-      <c r="K7" s="193">
+      <c r="K7" s="191">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L7" s="193" t="s">
+      <c r="L7" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M7" s="194"/>
+      <c r="M7" s="192"/>
       <c r="N7" s="186"/>
       <c r="O7" s="186"/>
-      <c r="P7" s="229" t="s">
+      <c r="P7" s="212" t="s">
         <v>386</v>
       </c>
-      <c r="Q7" s="220">
+      <c r="Q7" s="203">
         <v>2</v>
       </c>
-      <c r="R7" s="224">
+      <c r="R7" s="207">
         <v>4</v>
       </c>
-      <c r="S7" s="221">
+      <c r="S7" s="204">
         <v>6</v>
       </c>
-      <c r="T7" s="221">
+      <c r="T7" s="204">
         <v>8</v>
       </c>
-      <c r="U7" s="225">
+      <c r="U7" s="208">
         <v>10</v>
       </c>
-      <c r="V7" s="270"/>
+      <c r="V7" s="269"/>
     </row>
     <row r="8" spans="2:22" ht="39.950000000000003" customHeight="1">
-      <c r="B8" s="195">
+      <c r="B8" s="274">
         <v>5</v>
       </c>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="193" t="s">
         <v>504</v>
       </c>
-      <c r="D8" s="197" t="s">
+      <c r="D8" s="194" t="s">
         <v>499</v>
       </c>
-      <c r="E8" s="197" t="s">
+      <c r="E8" s="194" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="197">
+      <c r="F8" s="194">
         <v>1</v>
       </c>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197">
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194">
         <v>3</v>
       </c>
-      <c r="K8" s="197">
+      <c r="K8" s="194">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L8" s="197" t="s">
+      <c r="L8" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M8" s="198"/>
+      <c r="M8" s="195"/>
       <c r="N8" s="186"/>
       <c r="O8" s="186"/>
-      <c r="P8" s="229" t="s">
+      <c r="P8" s="212" t="s">
         <v>387</v>
       </c>
-      <c r="Q8" s="226">
+      <c r="Q8" s="209">
         <v>1</v>
       </c>
-      <c r="R8" s="227">
+      <c r="R8" s="210">
         <v>2</v>
       </c>
-      <c r="S8" s="227">
+      <c r="S8" s="210">
         <v>3</v>
       </c>
-      <c r="T8" s="227">
+      <c r="T8" s="210">
         <v>4</v>
       </c>
-      <c r="U8" s="228">
+      <c r="U8" s="211">
         <v>5</v>
       </c>
-      <c r="V8" s="270"/>
+      <c r="V8" s="269"/>
     </row>
     <row r="9" spans="2:22" ht="25.5">
-      <c r="B9" s="191">
+      <c r="B9" s="273">
         <v>6</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="190" t="s">
         <v>505</v>
       </c>
-      <c r="D9" s="193" t="s">
+      <c r="D9" s="191" t="s">
         <v>506</v>
       </c>
-      <c r="E9" s="272" t="s">
+      <c r="E9" s="248" t="s">
         <v>597</v>
       </c>
-      <c r="F9" s="193">
+      <c r="F9" s="191">
         <v>2</v>
       </c>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193">
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191">
         <v>5</v>
       </c>
-      <c r="K9" s="193">
+      <c r="K9" s="191">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L9" s="193" t="s">
+      <c r="L9" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M9" s="194"/>
+      <c r="M9" s="192"/>
       <c r="N9" s="186"/>
       <c r="O9" s="186"/>
-      <c r="P9" s="230"/>
-      <c r="Q9" s="229" t="s">
+      <c r="P9" s="213"/>
+      <c r="Q9" s="212" t="s">
         <v>387</v>
       </c>
-      <c r="R9" s="229" t="s">
+      <c r="R9" s="212" t="s">
         <v>386</v>
       </c>
-      <c r="S9" s="229" t="s">
+      <c r="S9" s="212" t="s">
         <v>385</v>
       </c>
-      <c r="T9" s="229" t="s">
+      <c r="T9" s="212" t="s">
         <v>384</v>
       </c>
-      <c r="U9" s="229" t="s">
+      <c r="U9" s="212" t="s">
         <v>383</v>
       </c>
       <c r="V9" s="135"/>
     </row>
     <row r="10" spans="2:22" ht="25.5">
-      <c r="B10" s="195">
+      <c r="B10" s="274">
         <v>7</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="193" t="s">
         <v>507</v>
       </c>
-      <c r="D10" s="197" t="s">
+      <c r="D10" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="E10" s="273" t="s">
+      <c r="E10" s="249" t="s">
         <v>597</v>
       </c>
-      <c r="F10" s="197">
+      <c r="F10" s="194">
         <v>1</v>
       </c>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197">
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194">
         <v>2</v>
       </c>
-      <c r="K10" s="197">
+      <c r="K10" s="194">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L10" s="197" t="s">
+      <c r="L10" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M10" s="198"/>
+      <c r="M10" s="195"/>
       <c r="N10" s="186"/>
       <c r="O10" s="186"/>
     </row>
     <row r="11" spans="2:22" ht="25.5">
-      <c r="B11" s="191">
+      <c r="B11" s="273">
         <v>8</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="193" t="s">
+      <c r="D11" s="191" t="s">
         <v>506</v>
       </c>
-      <c r="E11" s="272" t="s">
+      <c r="E11" s="248" t="s">
         <v>597</v>
       </c>
-      <c r="F11" s="193">
+      <c r="F11" s="191">
         <v>1</v>
       </c>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193">
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="191">
         <v>2</v>
       </c>
-      <c r="K11" s="193">
+      <c r="K11" s="191">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L11" s="193" t="s">
+      <c r="L11" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M11" s="194"/>
+      <c r="M11" s="192"/>
       <c r="N11" s="186"/>
       <c r="O11" s="186"/>
     </row>
     <row r="12" spans="2:22" ht="25.5">
-      <c r="B12" s="195">
+      <c r="B12" s="274">
         <v>9</v>
       </c>
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="193" t="s">
         <v>509</v>
       </c>
-      <c r="D12" s="197" t="s">
+      <c r="D12" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="E12" s="273" t="s">
+      <c r="E12" s="249" t="s">
         <v>597</v>
       </c>
-      <c r="F12" s="197">
+      <c r="F12" s="194">
         <v>3</v>
       </c>
-      <c r="G12" s="197"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197">
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194">
         <v>5</v>
       </c>
-      <c r="K12" s="197">
+      <c r="K12" s="194">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L12" s="197" t="s">
+      <c r="L12" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M12" s="198"/>
+      <c r="M12" s="195"/>
       <c r="N12" s="186"/>
       <c r="O12" s="186"/>
     </row>
     <row r="13" spans="2:22" ht="25.5">
-      <c r="B13" s="191">
+      <c r="B13" s="273">
         <v>10</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="190" t="s">
         <v>510</v>
       </c>
-      <c r="D13" s="193" t="s">
+      <c r="D13" s="191" t="s">
         <v>506</v>
       </c>
-      <c r="E13" s="272" t="s">
+      <c r="E13" s="248" t="s">
         <v>597</v>
       </c>
-      <c r="F13" s="193">
+      <c r="F13" s="191">
         <v>2</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193">
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191">
         <v>4</v>
       </c>
-      <c r="K13" s="193">
+      <c r="K13" s="191">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L13" s="193" t="s">
+      <c r="L13" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M13" s="194"/>
+      <c r="M13" s="192"/>
       <c r="N13" s="186"/>
       <c r="O13" s="186"/>
     </row>
     <row r="14" spans="2:22" ht="38.25">
-      <c r="B14" s="195">
+      <c r="B14" s="274">
         <v>11</v>
       </c>
-      <c r="C14" s="196" t="s">
+      <c r="C14" s="193" t="s">
         <v>511</v>
       </c>
-      <c r="D14" s="197" t="s">
+      <c r="D14" s="194" t="s">
         <v>496</v>
       </c>
-      <c r="E14" s="273" t="s">
+      <c r="E14" s="249" t="s">
         <v>597</v>
       </c>
-      <c r="F14" s="197">
+      <c r="F14" s="194">
         <v>2</v>
       </c>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197">
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194">
         <v>4</v>
       </c>
-      <c r="K14" s="197">
+      <c r="K14" s="194">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L14" s="197" t="s">
+      <c r="L14" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M14" s="198"/>
+      <c r="M14" s="195"/>
       <c r="N14" s="186"/>
       <c r="O14" s="186"/>
     </row>
     <row r="15" spans="2:22" ht="25.5">
-      <c r="B15" s="191">
+      <c r="B15" s="273">
         <v>12</v>
       </c>
-      <c r="C15" s="192" t="s">
+      <c r="C15" s="190" t="s">
         <v>512</v>
       </c>
-      <c r="D15" s="193" t="s">
+      <c r="D15" s="191" t="s">
         <v>496</v>
       </c>
-      <c r="E15" s="272" t="s">
+      <c r="E15" s="248" t="s">
         <v>598</v>
       </c>
-      <c r="F15" s="193">
+      <c r="F15" s="191">
         <v>1</v>
       </c>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193">
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191">
         <v>5</v>
       </c>
-      <c r="K15" s="193">
+      <c r="K15" s="191">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L15" s="193" t="s">
+      <c r="L15" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M15" s="194"/>
+      <c r="M15" s="192"/>
       <c r="N15" s="186"/>
       <c r="O15" s="186"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="195">
+      <c r="B16" s="274">
         <v>13</v>
       </c>
-      <c r="C16" s="196" t="s">
+      <c r="C16" s="193" t="s">
         <v>513</v>
       </c>
-      <c r="D16" s="197" t="s">
+      <c r="D16" s="194" t="s">
         <v>502</v>
       </c>
-      <c r="E16" s="197" t="s">
+      <c r="E16" s="194" t="s">
         <v>514</v>
       </c>
-      <c r="F16" s="197">
+      <c r="F16" s="194">
         <v>3</v>
       </c>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197">
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194">
         <v>3</v>
       </c>
-      <c r="K16" s="197">
+      <c r="K16" s="194">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L16" s="197" t="s">
+      <c r="L16" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M16" s="198"/>
+      <c r="M16" s="195"/>
       <c r="N16" s="186"/>
       <c r="O16" s="186"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="191">
+      <c r="B17" s="273">
         <v>14</v>
       </c>
-      <c r="C17" s="192" t="s">
+      <c r="C17" s="190" t="s">
         <v>515</v>
       </c>
-      <c r="D17" s="193" t="s">
+      <c r="D17" s="191" t="s">
         <v>502</v>
       </c>
-      <c r="E17" s="193" t="s">
+      <c r="E17" s="191" t="s">
         <v>514</v>
       </c>
-      <c r="F17" s="193">
+      <c r="F17" s="191">
         <v>3</v>
       </c>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193">
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191">
         <v>3</v>
       </c>
-      <c r="K17" s="193">
+      <c r="K17" s="191">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L17" s="193" t="s">
+      <c r="L17" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M17" s="194"/>
+      <c r="M17" s="192"/>
       <c r="N17" s="186"/>
       <c r="O17" s="186"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="195">
+      <c r="B18" s="274">
         <v>15</v>
       </c>
-      <c r="C18" s="196" t="s">
+      <c r="C18" s="193" t="s">
         <v>516</v>
       </c>
-      <c r="D18" s="197" t="s">
+      <c r="D18" s="194" t="s">
         <v>502</v>
       </c>
-      <c r="E18" s="197" t="s">
+      <c r="E18" s="194" t="s">
         <v>517</v>
       </c>
-      <c r="F18" s="197">
+      <c r="F18" s="194">
         <v>1</v>
       </c>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197">
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194">
         <v>2</v>
       </c>
-      <c r="K18" s="197">
+      <c r="K18" s="194">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L18" s="197" t="s">
+      <c r="L18" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M18" s="198"/>
+      <c r="M18" s="195"/>
       <c r="N18" s="186"/>
       <c r="O18" s="186"/>
     </row>
     <row r="19" spans="2:15" ht="25.5">
-      <c r="B19" s="191">
+      <c r="B19" s="273">
         <v>16</v>
       </c>
-      <c r="C19" s="192" t="s">
+      <c r="C19" s="190" t="s">
         <v>518</v>
       </c>
-      <c r="D19" s="193" t="s">
+      <c r="D19" s="191" t="s">
         <v>499</v>
       </c>
-      <c r="E19" s="193" t="s">
+      <c r="E19" s="191" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="193">
+      <c r="F19" s="191">
         <v>1</v>
       </c>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193">
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191">
         <v>3</v>
       </c>
-      <c r="K19" s="193">
+      <c r="K19" s="191">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L19" s="193" t="s">
+      <c r="L19" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M19" s="194"/>
+      <c r="M19" s="192"/>
       <c r="N19" s="186"/>
       <c r="O19" s="186"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="195">
+      <c r="B20" s="274">
         <v>17</v>
       </c>
-      <c r="C20" s="196" t="s">
+      <c r="C20" s="193" t="s">
         <v>520</v>
       </c>
-      <c r="D20" s="197" t="s">
+      <c r="D20" s="194" t="s">
         <v>499</v>
       </c>
-      <c r="E20" s="197" t="s">
+      <c r="E20" s="194" t="s">
         <v>519</v>
       </c>
-      <c r="F20" s="197">
+      <c r="F20" s="194">
         <v>3</v>
       </c>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="197">
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194">
         <v>4</v>
       </c>
-      <c r="K20" s="197">
+      <c r="K20" s="194">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L20" s="197" t="s">
+      <c r="L20" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M20" s="198"/>
+      <c r="M20" s="195"/>
       <c r="N20" s="186"/>
       <c r="O20" s="186"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="191">
+      <c r="B21" s="273">
         <v>18</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="C21" s="190" t="s">
         <v>521</v>
       </c>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="191" t="s">
         <v>506</v>
       </c>
-      <c r="E21" s="193" t="s">
+      <c r="E21" s="191" t="s">
         <v>522</v>
       </c>
-      <c r="F21" s="193">
+      <c r="F21" s="191">
         <v>2</v>
       </c>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193">
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191">
         <v>2</v>
       </c>
-      <c r="K21" s="193">
+      <c r="K21" s="191">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L21" s="193" t="s">
+      <c r="L21" s="191" t="s">
         <v>402</v>
       </c>
-      <c r="M21" s="194"/>
+      <c r="M21" s="192"/>
       <c r="N21" s="186"/>
       <c r="O21" s="186"/>
     </row>
     <row r="22" spans="2:15" ht="38.25">
-      <c r="B22" s="195">
+      <c r="B22" s="274">
         <v>19</v>
       </c>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="193" t="s">
         <v>523</v>
       </c>
-      <c r="D22" s="197" t="s">
+      <c r="D22" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="E22" s="273" t="s">
+      <c r="E22" s="249" t="s">
         <v>597</v>
       </c>
-      <c r="F22" s="197">
+      <c r="F22" s="194">
         <v>1</v>
       </c>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197">
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194">
         <v>3</v>
       </c>
-      <c r="K22" s="197">
+      <c r="K22" s="194">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L22" s="197" t="s">
+      <c r="L22" s="194" t="s">
         <v>408</v>
       </c>
-      <c r="M22" s="198"/>
+      <c r="M22" s="195"/>
       <c r="N22" s="186"/>
       <c r="O22" s="186"/>
     </row>
     <row r="23" spans="2:15" ht="38.25">
-      <c r="B23" s="191">
+      <c r="B23" s="273">
         <v>20</v>
       </c>
-      <c r="C23" s="192" t="s">
+      <c r="C23" s="190" t="s">
         <v>524</v>
       </c>
-      <c r="D23" s="193" t="s">
+      <c r="D23" s="191" t="s">
         <v>506</v>
       </c>
-      <c r="E23" s="272" t="s">
+      <c r="E23" s="248" t="s">
         <v>597</v>
       </c>
-      <c r="F23" s="193">
+      <c r="F23" s="191">
         <v>1</v>
       </c>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193">
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191">
         <v>3</v>
       </c>
-      <c r="K23" s="193">
+      <c r="K23" s="191">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L23" s="193" t="s">
+      <c r="L23" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="M23" s="194"/>
+      <c r="M23" s="192"/>
       <c r="N23" s="186"/>
       <c r="O23" s="186"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="195">
+      <c r="B24" s="274">
         <v>21</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="193" t="s">
         <v>525</v>
       </c>
-      <c r="D24" s="197" t="s">
+      <c r="D24" s="194" t="s">
         <v>496</v>
       </c>
-      <c r="E24" s="197" t="s">
+      <c r="E24" s="194" t="s">
         <v>526</v>
       </c>
-      <c r="F24" s="197">
+      <c r="F24" s="194">
         <v>2</v>
       </c>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="197">
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194">
         <v>2</v>
       </c>
-      <c r="K24" s="197">
+      <c r="K24" s="194">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L24" s="197" t="s">
+      <c r="L24" s="194" t="s">
         <v>402</v>
       </c>
-      <c r="M24" s="198"/>
+      <c r="M24" s="195"/>
       <c r="N24" s="186"/>
       <c r="O24" s="186"/>
+    </row>
+    <row r="25" spans="2:15" s="276" customFormat="1">
+      <c r="B25" s="275"/>
+    </row>
+    <row r="43" spans="2:2" s="276" customFormat="1">
+      <c r="B43" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12164,21 +12441,34 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="134" t="s">
+    <row r="2" spans="2:10" ht="15.75">
+      <c r="B2" s="271" t="s">
         <v>390</v>
       </c>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12196,16 +12486,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="15">
-      <c r="C3" s="202" t="s">
+      <c r="C3" s="250" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="202"/>
+      <c r="D3" s="250"/>
     </row>
     <row r="4" spans="3:4" ht="15">
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="250" t="s">
         <v>433</v>
       </c>
-      <c r="D4" s="202"/>
+      <c r="D4" s="250"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12555,10 +12845,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="159" customFormat="1" ht="31.5">
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="251" t="s">
         <v>395</v>
       </c>
-      <c r="C1" s="204"/>
+      <c r="C1" s="252"/>
       <c r="D1" s="160" t="s">
         <v>396</v>
       </c>
@@ -13475,7 +13765,7 @@
       <c r="C2" s="149"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="253" t="s">
         <v>426</v>
       </c>
       <c r="C3" s="149"/>
@@ -13489,11 +13779,11 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="205"/>
+      <c r="B4" s="253"/>
       <c r="C4" s="149"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="205"/>
+      <c r="B5" s="253"/>
       <c r="C5" s="149"/>
       <c r="E5" s="174" t="str">
         <f>'[1]Stakeholders List'!B12</f>
@@ -13505,7 +13795,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="205"/>
+      <c r="B6" s="253"/>
       <c r="C6" s="149"/>
       <c r="E6" s="174" t="str">
         <f>'[1]Stakeholders List'!B16</f>
@@ -13517,7 +13807,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="205"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="149"/>
       <c r="F7" s="148"/>
       <c r="K7" s="148"/>
@@ -13527,7 +13817,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="205"/>
+      <c r="B8" s="253"/>
       <c r="C8" s="149"/>
       <c r="F8" s="148"/>
       <c r="K8" s="148"/>
@@ -13537,7 +13827,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="205"/>
+      <c r="B9" s="253"/>
       <c r="C9" s="149"/>
       <c r="L9" s="173" t="str">
         <f>'[1]Stakeholders List'!B18</f>
@@ -13545,39 +13835,39 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="205"/>
+      <c r="B10" s="253"/>
       <c r="C10" s="149"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="205"/>
+      <c r="B11" s="253"/>
       <c r="C11" s="149"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="205"/>
+      <c r="B12" s="253"/>
       <c r="C12" s="149"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="205"/>
+      <c r="B13" s="253"/>
       <c r="C13" s="149"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="205"/>
+      <c r="B14" s="253"/>
       <c r="C14" s="149"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="205"/>
+      <c r="B15" s="253"/>
       <c r="C15" s="149"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="205"/>
+      <c r="B16" s="253"/>
       <c r="C16" s="149"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="205"/>
+      <c r="B17" s="253"/>
       <c r="C17" s="149"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="205"/>
+      <c r="B18" s="253"/>
       <c r="C18" s="149"/>
       <c r="F18" s="146"/>
       <c r="K18" s="148"/>
@@ -13587,7 +13877,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="205"/>
+      <c r="B19" s="253"/>
       <c r="C19" s="149"/>
       <c r="E19" s="174" t="str">
         <f>'[1]Stakeholders List'!B8</f>
@@ -13601,7 +13891,7 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="205"/>
+      <c r="B20" s="253"/>
       <c r="C20" s="149"/>
       <c r="E20" s="174" t="str">
         <f>'[1]Stakeholders List'!B7</f>
@@ -13613,11 +13903,11 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="205"/>
+      <c r="B21" s="253"/>
       <c r="C21" s="149"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
-      <c r="B22" s="205"/>
+      <c r="B22" s="253"/>
       <c r="C22" s="149"/>
       <c r="E22" s="172" t="s">
         <v>429</v>
@@ -13639,16 +13929,16 @@
       <c r="D25" s="169" t="s">
         <v>386</v>
       </c>
-      <c r="E25" s="206" t="s">
+      <c r="E25" s="254" t="s">
         <v>431</v>
       </c>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="206"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="254"/>
+      <c r="K25" s="254"/>
+      <c r="L25" s="254"/>
       <c r="M25" s="169" t="s">
         <v>384</v>
       </c>
@@ -13699,25 +13989,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="25.5" customHeight="1">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="255" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="256"/>
+      <c r="O1" s="256"/>
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
     </row>
     <row r="2" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B2" s="19"/>

--- a/Salesforce/Salesforce.xlsx
+++ b/Salesforce/Salesforce.xlsx
@@ -4090,158 +4090,8 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4337,15 +4187,6 @@
     <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="16" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4358,15 +4199,6 @@
     <xf numFmtId="44" fontId="16" fillId="3" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="18" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4403,24 +4235,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4490,15 +4304,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4591,9 +4396,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4635,6 +4437,204 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -4644,6 +4644,54 @@
     <cellStyle name="Normal_Recursos" xfId="3"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000FF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4742,54 +4790,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000FF"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7491,10 +7491,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="17" ySplit="33" topLeftCell="R34" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="R34" sqref="R34"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7927,328 +7924,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18" customHeight="1">
-      <c r="B1" s="312" t="s">
+      <c r="B1" s="365" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="314"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="366"/>
+      <c r="E1" s="366"/>
+      <c r="F1" s="366"/>
+      <c r="G1" s="366"/>
+      <c r="H1" s="367"/>
     </row>
     <row r="2" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="252" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="308" t="s">
+      <c r="C2" s="252" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="308" t="s">
+      <c r="D2" s="252" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="308" t="s">
+      <c r="E2" s="252" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="308" t="s">
+      <c r="F2" s="252" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="308" t="s">
+      <c r="G2" s="252" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="308" t="s">
+      <c r="H2" s="252" t="s">
         <v>146</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="315" t="s">
+      <c r="B3" s="253" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="302" t="s">
+      <c r="C3" s="246" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="302" t="s">
+      <c r="D3" s="246" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="302" t="s">
+      <c r="E3" s="246" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="302" t="s">
+      <c r="F3" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="303">
+      <c r="G3" s="247">
         <v>75000</v>
       </c>
-      <c r="H3" s="316" t="s">
+      <c r="H3" s="254" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="317" t="s">
+      <c r="B4" s="255" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="304" t="s">
+      <c r="C4" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="304" t="s">
+      <c r="D4" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="304" t="s">
+      <c r="F4" s="248" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="305">
+      <c r="G4" s="249">
         <v>28800</v>
       </c>
-      <c r="H4" s="318" t="s">
+      <c r="H4" s="256" t="s">
         <v>150</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="319" t="s">
+      <c r="B5" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="306" t="s">
+      <c r="C5" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="306" t="s">
+      <c r="D5" s="250" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="306" t="s">
+      <c r="E5" s="250" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="306" t="s">
+      <c r="F5" s="250" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="307">
+      <c r="G5" s="251">
         <v>7200</v>
       </c>
-      <c r="H5" s="320" t="s">
+      <c r="H5" s="258" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="304" t="s">
+      <c r="C6" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="304" t="s">
+      <c r="D6" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="304" t="s">
+      <c r="E6" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="304" t="s">
+      <c r="F6" s="248" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="305">
+      <c r="G6" s="249">
         <v>34800</v>
       </c>
-      <c r="H6" s="318" t="s">
+      <c r="H6" s="256" t="s">
         <v>152</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="319" t="s">
+      <c r="B7" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="306" t="s">
+      <c r="C7" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="306" t="s">
+      <c r="D7" s="250" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="306" t="s">
+      <c r="E7" s="250" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="306" t="s">
+      <c r="F7" s="250" t="s">
         <v>151</v>
       </c>
-      <c r="G7" s="307">
+      <c r="G7" s="251">
         <v>16000</v>
       </c>
-      <c r="H7" s="320" t="s">
+      <c r="H7" s="258" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="317" t="s">
+      <c r="B8" s="255" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="304" t="s">
+      <c r="C8" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="304" t="s">
+      <c r="D8" s="248" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="304" t="s">
+      <c r="E8" s="248" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="304" t="s">
+      <c r="F8" s="248" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="305">
+      <c r="G8" s="249">
         <v>53000</v>
       </c>
-      <c r="H8" s="318" t="s">
+      <c r="H8" s="256" t="s">
         <v>154</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="319" t="s">
+      <c r="B9" s="257" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="250" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306" t="s">
+      <c r="D9" s="250"/>
+      <c r="E9" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="306" t="s">
+      <c r="F9" s="250" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="307">
+      <c r="G9" s="251">
         <v>1460.0000000000002</v>
       </c>
-      <c r="H9" s="320">
+      <c r="H9" s="258">
         <v>292</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="317" t="s">
+      <c r="B10" s="255" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="304" t="s">
+      <c r="C10" s="248" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304" t="s">
+      <c r="D10" s="248"/>
+      <c r="E10" s="248" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="304" t="s">
+      <c r="F10" s="248" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="305">
+      <c r="G10" s="249">
         <v>670</v>
       </c>
-      <c r="H10" s="318">
+      <c r="H10" s="256">
         <v>67</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="319" t="s">
+      <c r="B11" s="257" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="306" t="s">
+      <c r="C11" s="250" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="306"/>
-      <c r="E11" s="306" t="s">
+      <c r="D11" s="250"/>
+      <c r="E11" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="306" t="s">
+      <c r="F11" s="250" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="307">
+      <c r="G11" s="251">
         <v>134</v>
       </c>
-      <c r="H11" s="320">
+      <c r="H11" s="258">
         <v>67</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="317" t="s">
+      <c r="B12" s="255" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="304" t="s">
+      <c r="C12" s="248" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="304"/>
-      <c r="E12" s="304" t="s">
+      <c r="D12" s="248"/>
+      <c r="E12" s="248" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="304" t="s">
+      <c r="F12" s="248" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="305">
+      <c r="G12" s="249">
         <v>2340.0000000000005</v>
       </c>
-      <c r="H12" s="318">
+      <c r="H12" s="256">
         <v>60</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="319" t="s">
+      <c r="B13" s="257" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="306" t="s">
+      <c r="C13" s="250" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="306"/>
-      <c r="E13" s="306" t="s">
+      <c r="D13" s="250"/>
+      <c r="E13" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="306" t="s">
+      <c r="F13" s="250" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="307">
+      <c r="G13" s="251">
         <v>100000</v>
       </c>
-      <c r="H13" s="320">
+      <c r="H13" s="258">
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="317" t="s">
+      <c r="B14" s="255" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="304" t="s">
+      <c r="C14" s="248" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="304"/>
-      <c r="E14" s="304" t="s">
+      <c r="D14" s="248"/>
+      <c r="E14" s="248" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="304"/>
-      <c r="G14" s="305">
+      <c r="F14" s="248"/>
+      <c r="G14" s="249">
         <v>1000</v>
       </c>
-      <c r="H14" s="318"/>
+      <c r="H14" s="256"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="321" t="s">
+      <c r="B15" s="259" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="322" t="s">
+      <c r="C15" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="322"/>
-      <c r="E15" s="322" t="s">
+      <c r="D15" s="260"/>
+      <c r="E15" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="322"/>
-      <c r="G15" s="323">
+      <c r="F15" s="260"/>
+      <c r="G15" s="261">
         <v>39770</v>
       </c>
-      <c r="H15" s="324"/>
+      <c r="H15" s="262"/>
       <c r="I15" s="1"/>
     </row>
   </sheetData>
@@ -8295,209 +8292,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B1" s="287" t="s">
+      <c r="B1" s="368" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="289"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="370"/>
     </row>
     <row r="2" spans="2:6" ht="15">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="278" t="s">
+      <c r="C2" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="278" t="s">
+      <c r="D2" s="228" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="278" t="s">
+      <c r="E2" s="228" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="278" t="s">
+      <c r="F2" s="228" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="242" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="279" t="s">
+      <c r="C3" s="229" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="279">
+      <c r="D3" s="229">
         <v>24</v>
       </c>
-      <c r="E3" s="280">
+      <c r="E3" s="230">
         <v>150</v>
       </c>
-      <c r="F3" s="290">
+      <c r="F3" s="237">
         <f>D3*E3</f>
         <v>3600</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="4" customFormat="1">
-      <c r="B4" s="299" t="s">
+      <c r="B4" s="243" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="281">
+      <c r="D4" s="231">
         <v>24</v>
       </c>
-      <c r="E4" s="282">
+      <c r="E4" s="232">
         <v>100</v>
       </c>
-      <c r="F4" s="291">
+      <c r="F4" s="238">
         <f t="shared" ref="F4:F10" si="0">D4*E4</f>
         <v>2400</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="244" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="283" t="s">
+      <c r="C5" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="283">
+      <c r="D5" s="233">
         <v>16</v>
       </c>
-      <c r="E5" s="284">
+      <c r="E5" s="234">
         <v>100</v>
       </c>
-      <c r="F5" s="292">
+      <c r="F5" s="239">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="4" customFormat="1">
-      <c r="B6" s="299" t="s">
+      <c r="B6" s="243" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="281" t="s">
+      <c r="C6" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="281">
+      <c r="D6" s="231">
         <v>40</v>
       </c>
-      <c r="E6" s="282">
+      <c r="E6" s="232">
         <v>100</v>
       </c>
-      <c r="F6" s="291">
+      <c r="F6" s="238">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="300" t="s">
+      <c r="B7" s="244" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="283" t="s">
+      <c r="C7" s="233" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="283">
+      <c r="D7" s="233">
         <v>40</v>
       </c>
-      <c r="E7" s="284">
+      <c r="E7" s="234">
         <v>100</v>
       </c>
-      <c r="F7" s="292">
+      <c r="F7" s="239">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="8" spans="2:6" s="4" customFormat="1">
-      <c r="B8" s="299" t="s">
+      <c r="B8" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="281" t="s">
+      <c r="C8" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="281">
+      <c r="D8" s="231">
         <v>40</v>
       </c>
-      <c r="E8" s="282">
+      <c r="E8" s="232">
         <v>100</v>
       </c>
-      <c r="F8" s="291">
+      <c r="F8" s="238">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="300" t="s">
+      <c r="B9" s="244" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="233" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="283">
+      <c r="D9" s="233">
         <v>10</v>
       </c>
-      <c r="E9" s="284">
+      <c r="E9" s="234">
         <v>100</v>
       </c>
-      <c r="F9" s="292">
+      <c r="F9" s="239">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="2:6" s="4" customFormat="1">
-      <c r="B10" s="299" t="s">
+      <c r="B10" s="243" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="281" t="s">
+      <c r="C10" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="281">
+      <c r="D10" s="231">
         <v>40</v>
       </c>
-      <c r="E10" s="282">
+      <c r="E10" s="232">
         <v>200</v>
       </c>
-      <c r="F10" s="291">
+      <c r="F10" s="238">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="300" t="s">
+      <c r="B11" s="244" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="283" t="s">
+      <c r="C11" s="233" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="283"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="292">
+      <c r="D11" s="233"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="239">
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="2:6" s="4" customFormat="1">
-      <c r="B12" s="301" t="s">
+      <c r="B12" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="285" t="s">
+      <c r="C12" s="235" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="285"/>
-      <c r="E12" s="286"/>
-      <c r="F12" s="293">
+      <c r="D12" s="235"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="240">
         <v>1170</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15">
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="371" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="297">
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="373"/>
+      <c r="F13" s="241">
         <f>SUM(F3:F12)</f>
         <v>39770</v>
       </c>
@@ -8537,16 +8534,16 @@
   <sheetData>
     <row r="1" spans="3:4" ht="24.95" customHeight="1"/>
     <row r="2" spans="3:4" ht="15">
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="328" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="200"/>
+      <c r="D2" s="328"/>
     </row>
     <row r="3" spans="3:4" ht="15">
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="328" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="200"/>
+      <c r="D3" s="328"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8592,14 +8589,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18" customHeight="1">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="374" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="235"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="376"/>
     </row>
     <row r="2" spans="2:7" s="7" customFormat="1" ht="15">
       <c r="B2" s="184" t="s">
@@ -9337,18 +9334,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1">
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="377" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
     </row>
     <row r="2" spans="2:5" ht="3" customHeight="1">
-      <c r="B2" s="272"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="274"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="224"/>
     </row>
     <row r="3" spans="2:5" ht="15">
       <c r="B3" s="95" t="s">
@@ -9361,10 +9358,10 @@
       <c r="E3" s="97"/>
     </row>
     <row r="4" spans="2:5" ht="3" customHeight="1">
-      <c r="B4" s="275"/>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="277"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="227"/>
     </row>
     <row r="5" spans="2:5" ht="15">
       <c r="B5" s="184" t="s">
@@ -9381,14 +9378,14 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="268">
+      <c r="B6" s="218">
         <v>1</v>
       </c>
-      <c r="C6" s="269" t="s">
+      <c r="C6" s="219" t="s">
         <v>418</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="271"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="221"/>
     </row>
     <row r="7" spans="2:5" ht="15">
       <c r="B7" s="86">
@@ -9546,14 +9543,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75">
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="377" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
     </row>
     <row r="2" spans="2:7" ht="15">
       <c r="B2" s="68" t="s">
@@ -9576,382 +9573,382 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75">
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="203" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="254" t="s">
+      <c r="C3" s="204" t="s">
         <v>434</v>
       </c>
-      <c r="D3" s="254" t="s">
+      <c r="D3" s="204" t="s">
         <v>375</v>
       </c>
-      <c r="E3" s="255" t="s">
+      <c r="E3" s="205" t="s">
         <v>512</v>
       </c>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="206" t="s">
         <v>435</v>
       </c>
-      <c r="G3" s="257" t="s">
+      <c r="G3" s="207" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="208" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="209" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="259" t="s">
+      <c r="D4" s="209" t="s">
         <v>491</v>
       </c>
-      <c r="E4" s="260" t="s">
+      <c r="E4" s="210" t="s">
         <v>513</v>
       </c>
-      <c r="F4" s="261" t="s">
+      <c r="F4" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="G4" s="262" t="s">
+      <c r="G4" s="212" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="263" t="s">
+      <c r="B5" s="213" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="264" t="s">
+      <c r="C5" s="214" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="214" t="s">
         <v>492</v>
       </c>
-      <c r="E5" s="265" t="s">
+      <c r="E5" s="215" t="s">
         <v>514</v>
       </c>
-      <c r="F5" s="266" t="s">
+      <c r="F5" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="G5" s="267" t="s">
+      <c r="G5" s="217" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75">
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="208" t="s">
         <v>505</v>
       </c>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="209" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="209" t="s">
         <v>493</v>
       </c>
-      <c r="E6" s="260" t="s">
+      <c r="E6" s="210" t="s">
         <v>515</v>
       </c>
-      <c r="F6" s="261" t="s">
+      <c r="F6" s="211" t="s">
         <v>439</v>
       </c>
-      <c r="G6" s="262" t="s">
+      <c r="G6" s="212" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75">
-      <c r="B7" s="263" t="s">
+      <c r="B7" s="213" t="s">
         <v>438</v>
       </c>
-      <c r="C7" s="264" t="s">
+      <c r="C7" s="214" t="s">
         <v>381</v>
       </c>
-      <c r="D7" s="264" t="s">
+      <c r="D7" s="214" t="s">
         <v>493</v>
       </c>
-      <c r="E7" s="265" t="s">
+      <c r="E7" s="215" t="s">
         <v>516</v>
       </c>
-      <c r="F7" s="266" t="s">
+      <c r="F7" s="216" t="s">
         <v>440</v>
       </c>
-      <c r="G7" s="267" t="s">
+      <c r="G7" s="217" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75">
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="208" t="s">
         <v>392</v>
       </c>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="209" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="259" t="s">
+      <c r="D8" s="209" t="s">
         <v>496</v>
       </c>
-      <c r="E8" s="260" t="s">
+      <c r="E8" s="210" t="s">
         <v>520</v>
       </c>
-      <c r="F8" s="261" t="s">
+      <c r="F8" s="211" t="s">
         <v>445</v>
       </c>
-      <c r="G8" s="262" t="s">
+      <c r="G8" s="212" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75">
-      <c r="B9" s="263" t="s">
+      <c r="B9" s="213" t="s">
         <v>500</v>
       </c>
-      <c r="C9" s="264" t="s">
+      <c r="C9" s="214" t="s">
         <v>391</v>
       </c>
-      <c r="D9" s="264" t="s">
+      <c r="D9" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="265" t="s">
+      <c r="E9" s="215" t="s">
         <v>523</v>
       </c>
-      <c r="F9" s="266" t="s">
+      <c r="F9" s="216" t="s">
         <v>506</v>
       </c>
-      <c r="G9" s="267" t="s">
+      <c r="G9" s="217" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75">
-      <c r="B10" s="258" t="s">
+      <c r="B10" s="208" t="s">
         <v>386</v>
       </c>
-      <c r="C10" s="259" t="s">
+      <c r="C10" s="209" t="s">
         <v>385</v>
       </c>
-      <c r="D10" s="259" t="s">
+      <c r="D10" s="209" t="s">
         <v>494</v>
       </c>
-      <c r="E10" s="260" t="s">
+      <c r="E10" s="210" t="s">
         <v>517</v>
       </c>
-      <c r="F10" s="261" t="s">
+      <c r="F10" s="211" t="s">
         <v>441</v>
       </c>
-      <c r="G10" s="262" t="s">
+      <c r="G10" s="212" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75">
-      <c r="B11" s="263" t="s">
+      <c r="B11" s="213" t="s">
         <v>394</v>
       </c>
-      <c r="C11" s="264" t="s">
+      <c r="C11" s="214" t="s">
         <v>393</v>
       </c>
-      <c r="D11" s="264" t="s">
+      <c r="D11" s="214" t="s">
         <v>497</v>
       </c>
-      <c r="E11" s="265" t="s">
+      <c r="E11" s="215" t="s">
         <v>521</v>
       </c>
-      <c r="F11" s="266" t="s">
+      <c r="F11" s="216" t="s">
         <v>447</v>
       </c>
-      <c r="G11" s="267" t="s">
+      <c r="G11" s="217" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75">
-      <c r="B12" s="258" t="s">
+      <c r="B12" s="208" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="259" t="s">
+      <c r="C12" s="209" t="s">
         <v>550</v>
       </c>
-      <c r="D12" s="259" t="s">
+      <c r="D12" s="209" t="s">
         <v>551</v>
       </c>
-      <c r="E12" s="260" t="s">
+      <c r="E12" s="210" t="s">
         <v>518</v>
       </c>
-      <c r="F12" s="261" t="s">
+      <c r="F12" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="G12" s="262" t="s">
+      <c r="G12" s="212" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75">
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="213" t="s">
         <v>502</v>
       </c>
-      <c r="C13" s="264" t="s">
+      <c r="C13" s="214" t="s">
         <v>550</v>
       </c>
-      <c r="D13" s="264" t="s">
+      <c r="D13" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="265" t="s">
+      <c r="E13" s="215" t="s">
         <v>525</v>
       </c>
-      <c r="F13" s="266" t="s">
+      <c r="F13" s="216" t="s">
         <v>508</v>
       </c>
-      <c r="G13" s="267" t="s">
+      <c r="G13" s="217" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75">
-      <c r="B14" s="258" t="s">
+      <c r="B14" s="208" t="s">
         <v>390</v>
       </c>
-      <c r="C14" s="259" t="s">
+      <c r="C14" s="209" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="259" t="s">
+      <c r="D14" s="209" t="s">
         <v>495</v>
       </c>
-      <c r="E14" s="260" t="s">
+      <c r="E14" s="210" t="s">
         <v>519</v>
       </c>
-      <c r="F14" s="261" t="s">
+      <c r="F14" s="211" t="s">
         <v>443</v>
       </c>
-      <c r="G14" s="262" t="s">
+      <c r="G14" s="212" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75">
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="213" t="s">
         <v>499</v>
       </c>
-      <c r="C15" s="264" t="s">
+      <c r="C15" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="D15" s="264" t="s">
+      <c r="D15" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="265" t="s">
+      <c r="E15" s="215" t="s">
         <v>522</v>
       </c>
-      <c r="F15" s="266" t="s">
+      <c r="F15" s="216" t="s">
         <v>449</v>
       </c>
-      <c r="G15" s="267" t="s">
+      <c r="G15" s="217" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75">
-      <c r="B16" s="258" t="s">
+      <c r="B16" s="208" t="s">
         <v>501</v>
       </c>
-      <c r="C16" s="259" t="s">
+      <c r="C16" s="209" t="s">
         <v>389</v>
       </c>
-      <c r="D16" s="259" t="s">
+      <c r="D16" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="260" t="s">
+      <c r="E16" s="210" t="s">
         <v>524</v>
       </c>
-      <c r="F16" s="261" t="s">
+      <c r="F16" s="211" t="s">
         <v>507</v>
       </c>
-      <c r="G16" s="262" t="s">
+      <c r="G16" s="212" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75">
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="213" t="s">
         <v>503</v>
       </c>
-      <c r="C17" s="264" t="s">
+      <c r="C17" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="D17" s="264" t="s">
+      <c r="D17" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="265" t="s">
+      <c r="E17" s="215" t="s">
         <v>526</v>
       </c>
-      <c r="F17" s="266" t="s">
+      <c r="F17" s="216" t="s">
         <v>509</v>
       </c>
-      <c r="G17" s="267" t="s">
+      <c r="G17" s="217" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75">
-      <c r="B18" s="258" t="s">
+      <c r="B18" s="208" t="s">
         <v>504</v>
       </c>
-      <c r="C18" s="259" t="s">
+      <c r="C18" s="209" t="s">
         <v>389</v>
       </c>
-      <c r="D18" s="259" t="s">
+      <c r="D18" s="209" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="260" t="s">
+      <c r="E18" s="210" t="s">
         <v>527</v>
       </c>
-      <c r="F18" s="261" t="s">
+      <c r="F18" s="211" t="s">
         <v>510</v>
       </c>
-      <c r="G18" s="262" t="s">
+      <c r="G18" s="212" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75">
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="213" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="264" t="s">
+      <c r="C19" s="214" t="s">
         <v>395</v>
       </c>
-      <c r="D19" s="264" t="s">
+      <c r="D19" s="214" t="s">
         <v>498</v>
       </c>
-      <c r="E19" s="265" t="s">
+      <c r="E19" s="215" t="s">
         <v>444</v>
       </c>
-      <c r="F19" s="266" t="s">
+      <c r="F19" s="216" t="s">
         <v>511</v>
       </c>
-      <c r="G19" s="267" t="s">
+      <c r="G19" s="217" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75">
-      <c r="B20" s="258" t="s">
+      <c r="B20" s="208" t="s">
         <v>398</v>
       </c>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="209" t="s">
         <v>397</v>
       </c>
-      <c r="D20" s="259" t="s">
+      <c r="D20" s="209" t="s">
         <v>498</v>
       </c>
-      <c r="E20" s="260" t="s">
+      <c r="E20" s="210" t="s">
         <v>446</v>
       </c>
-      <c r="F20" s="261" t="s">
+      <c r="F20" s="211" t="s">
         <v>548</v>
       </c>
-      <c r="G20" s="262" t="s">
+      <c r="G20" s="212" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75">
-      <c r="B21" s="263" t="s">
+      <c r="B21" s="213" t="s">
         <v>400</v>
       </c>
-      <c r="C21" s="264" t="s">
+      <c r="C21" s="214" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="264" t="s">
+      <c r="D21" s="214" t="s">
         <v>498</v>
       </c>
-      <c r="E21" s="265" t="s">
+      <c r="E21" s="215" t="s">
         <v>448</v>
       </c>
-      <c r="F21" s="266" t="s">
+      <c r="F21" s="216" t="s">
         <v>549</v>
       </c>
-      <c r="G21" s="267" t="s">
+      <c r="G21" s="217" t="s">
         <v>547</v>
       </c>
     </row>
@@ -10022,14 +10019,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75">
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="377" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
     </row>
     <row r="2" spans="2:9" ht="15">
       <c r="B2" s="184" t="s">
@@ -10075,7 +10072,7 @@
       <c r="H3" s="59"/>
       <c r="I3" s="59"/>
     </row>
-    <row r="4" spans="2:9" ht="51">
+    <row r="4" spans="2:9" ht="38.25">
       <c r="B4" s="109" t="s">
         <v>564</v>
       </c>
@@ -10141,7 +10138,7 @@
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
     </row>
-    <row r="7" spans="2:9" ht="63.75">
+    <row r="7" spans="2:9" ht="38.25">
       <c r="B7" s="107" t="s">
         <v>572</v>
       </c>
@@ -10378,21 +10375,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="389" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="389"/>
     </row>
     <row r="2" spans="2:15" ht="25.5" customHeight="1">
       <c r="B2" s="112"/>
@@ -10423,10 +10420,10 @@
       <c r="J3" s="111"/>
       <c r="K3" s="111"/>
       <c r="L3" s="178"/>
-      <c r="M3" s="242" t="s">
+      <c r="M3" s="378" t="s">
         <v>633</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="384"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1">
       <c r="B4" s="114"/>
@@ -10440,8 +10437,8 @@
       <c r="J4" s="111"/>
       <c r="K4" s="111"/>
       <c r="L4" s="179"/>
-      <c r="M4" s="238"/>
-      <c r="N4" s="239"/>
+      <c r="M4" s="385"/>
+      <c r="N4" s="386"/>
     </row>
     <row r="5" spans="2:15" ht="25.5" customHeight="1">
       <c r="B5" s="114"/>
@@ -10455,8 +10452,8 @@
       <c r="J5" s="111"/>
       <c r="K5" s="111"/>
       <c r="L5" s="180"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="241"/>
+      <c r="M5" s="387"/>
+      <c r="N5" s="388"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" customHeight="1">
       <c r="B6" s="114"/>
@@ -10487,10 +10484,10 @@
       <c r="J7" s="111"/>
       <c r="K7" s="114"/>
       <c r="L7" s="174"/>
-      <c r="M7" s="242" t="s">
+      <c r="M7" s="378" t="s">
         <v>632</v>
       </c>
-      <c r="N7" s="246"/>
+      <c r="N7" s="379"/>
     </row>
     <row r="8" spans="2:15" ht="25.5" customHeight="1">
       <c r="B8" s="114"/>
@@ -10504,8 +10501,8 @@
       <c r="J8" s="111"/>
       <c r="K8" s="114"/>
       <c r="L8" s="175"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="248"/>
+      <c r="M8" s="380"/>
+      <c r="N8" s="381"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1">
       <c r="B9" s="114"/>
@@ -10519,8 +10516,8 @@
       <c r="J9" s="111"/>
       <c r="K9" s="115"/>
       <c r="L9" s="176"/>
-      <c r="M9" s="249"/>
-      <c r="N9" s="250"/>
+      <c r="M9" s="382"/>
+      <c r="N9" s="383"/>
     </row>
     <row r="10" spans="2:15" s="60" customFormat="1">
       <c r="B10" s="138" t="s">
@@ -10595,7 +10592,7 @@
       <c r="K11" s="135"/>
       <c r="L11" s="171"/>
       <c r="M11" s="71"/>
-      <c r="N11" s="245"/>
+      <c r="N11" s="200"/>
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="2:15" ht="25.5">
@@ -10628,7 +10625,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="136"/>
-      <c r="L12" s="251"/>
+      <c r="L12" s="201"/>
       <c r="M12" s="73"/>
       <c r="N12" s="110"/>
       <c r="O12" s="69"/>
@@ -10665,7 +10662,7 @@
       <c r="K13" s="137" t="s">
         <v>625</v>
       </c>
-      <c r="L13" s="252" t="s">
+      <c r="L13" s="202" t="s">
         <v>494</v>
       </c>
       <c r="M13" s="75" t="s">
@@ -10708,7 +10705,7 @@
       <c r="K14" s="136" t="s">
         <v>625</v>
       </c>
-      <c r="L14" s="251" t="s">
+      <c r="L14" s="201" t="s">
         <v>628</v>
       </c>
       <c r="M14" s="98" t="s">
@@ -10749,7 +10746,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="137"/>
-      <c r="L15" s="252"/>
+      <c r="L15" s="202"/>
       <c r="M15" s="75"/>
       <c r="N15" s="108"/>
       <c r="O15" s="69"/>
@@ -10784,7 +10781,7 @@
         <v>10</v>
       </c>
       <c r="K16" s="136"/>
-      <c r="L16" s="251"/>
+      <c r="L16" s="201"/>
       <c r="M16" s="73"/>
       <c r="N16" s="110"/>
       <c r="O16" s="69"/>
@@ -10819,7 +10816,7 @@
         <v>4</v>
       </c>
       <c r="K17" s="137"/>
-      <c r="L17" s="252"/>
+      <c r="L17" s="202"/>
       <c r="M17" s="75"/>
       <c r="N17" s="108"/>
       <c r="O17" s="69"/>
@@ -10854,7 +10851,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="136"/>
-      <c r="L18" s="251"/>
+      <c r="L18" s="201"/>
       <c r="M18" s="73"/>
       <c r="N18" s="110"/>
       <c r="O18" s="69"/>
@@ -10891,7 +10888,7 @@
       <c r="K19" s="137" t="s">
         <v>625</v>
       </c>
-      <c r="L19" s="252" t="s">
+      <c r="L19" s="202" t="s">
         <v>93</v>
       </c>
       <c r="M19" s="99" t="s">
@@ -10932,7 +10929,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="136"/>
-      <c r="L20" s="251"/>
+      <c r="L20" s="201"/>
       <c r="M20" s="73"/>
       <c r="N20" s="110"/>
       <c r="O20" s="69"/>
@@ -10967,7 +10964,7 @@
         <v>8</v>
       </c>
       <c r="K21" s="137"/>
-      <c r="L21" s="252"/>
+      <c r="L21" s="202"/>
       <c r="M21" s="75"/>
       <c r="N21" s="108"/>
       <c r="O21" s="69"/>
@@ -11002,7 +10999,7 @@
         <v>5</v>
       </c>
       <c r="K22" s="136"/>
-      <c r="L22" s="251"/>
+      <c r="L22" s="201"/>
       <c r="M22" s="73"/>
       <c r="N22" s="110"/>
       <c r="O22" s="69"/>
@@ -11037,7 +11034,7 @@
         <v>12</v>
       </c>
       <c r="K23" s="137"/>
-      <c r="L23" s="252"/>
+      <c r="L23" s="202"/>
       <c r="M23" s="75"/>
       <c r="N23" s="108"/>
       <c r="O23" s="69"/>
@@ -11072,7 +11069,7 @@
         <v>6</v>
       </c>
       <c r="K24" s="136"/>
-      <c r="L24" s="251"/>
+      <c r="L24" s="201"/>
       <c r="M24" s="73"/>
       <c r="N24" s="110"/>
       <c r="O24" s="69"/>
@@ -11107,7 +11104,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="137"/>
-      <c r="L25" s="252"/>
+      <c r="L25" s="202"/>
       <c r="M25" s="75"/>
       <c r="N25" s="108"/>
       <c r="O25" s="69"/>
@@ -11142,7 +11139,7 @@
         <v>6</v>
       </c>
       <c r="K26" s="136"/>
-      <c r="L26" s="251"/>
+      <c r="L26" s="201"/>
       <c r="M26" s="73"/>
       <c r="N26" s="110"/>
       <c r="O26" s="69"/>
@@ -11179,7 +11176,7 @@
       <c r="K27" s="137" t="s">
         <v>625</v>
       </c>
-      <c r="L27" s="252" t="s">
+      <c r="L27" s="202" t="s">
         <v>492</v>
       </c>
       <c r="M27" s="99" t="s">
@@ -11220,7 +11217,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="136"/>
-      <c r="L28" s="251"/>
+      <c r="L28" s="201"/>
       <c r="M28" s="73"/>
       <c r="N28" s="110"/>
       <c r="O28" s="69"/>
@@ -11255,7 +11252,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="137"/>
-      <c r="L29" s="252"/>
+      <c r="L29" s="202"/>
       <c r="M29" s="75"/>
       <c r="N29" s="108"/>
       <c r="O29" s="69"/>
@@ -11290,7 +11287,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="136"/>
-      <c r="L30" s="251"/>
+      <c r="L30" s="201"/>
       <c r="M30" s="73"/>
       <c r="N30" s="110"/>
       <c r="O30" s="69"/>
@@ -11325,7 +11322,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="137"/>
-      <c r="L31" s="252"/>
+      <c r="L31" s="202"/>
       <c r="M31" s="75"/>
       <c r="N31" s="108"/>
       <c r="O31" s="69"/>
@@ -11339,15 +11336,15 @@
     <mergeCell ref="B1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>15</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>5</formula>
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
@@ -11371,7 +11368,7 @@
       <pane xSplit="10" ySplit="21" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11391,17 +11388,17 @@
       <c r="J1" s="117"/>
     </row>
     <row r="2" spans="2:10" ht="17.25">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="390" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="117"/>
@@ -11613,7 +11610,7 @@
       <c r="J21" s="117"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
@@ -11647,29 +11644,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B1" s="309" t="s">
+      <c r="B1" s="325" t="s">
         <v>641</v>
       </c>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
-      <c r="J1" s="310"/>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="310"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="310"/>
-      <c r="P1" s="310"/>
-      <c r="Q1" s="310"/>
-      <c r="R1" s="310"/>
-      <c r="S1" s="311"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="327"/>
     </row>
     <row r="2" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B2" s="375"/>
+      <c r="B2" s="309"/>
       <c r="C2" s="123"/>
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
@@ -11686,10 +11683,10 @@
       <c r="P2" s="119"/>
       <c r="Q2" s="119"/>
       <c r="R2" s="119"/>
-      <c r="S2" s="376"/>
+      <c r="S2" s="310"/>
     </row>
     <row r="3" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="311" t="s">
         <v>609</v>
       </c>
       <c r="C3" s="124" t="s">
@@ -11710,10 +11707,10 @@
       <c r="P3" s="120"/>
       <c r="Q3" s="120"/>
       <c r="R3" s="120"/>
-      <c r="S3" s="378"/>
+      <c r="S3" s="312"/>
     </row>
     <row r="4" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B4" s="379"/>
+      <c r="B4" s="313"/>
       <c r="C4" s="125" t="s">
         <v>607</v>
       </c>
@@ -11732,10 +11729,10 @@
       <c r="P4" s="121"/>
       <c r="Q4" s="121"/>
       <c r="R4" s="121"/>
-      <c r="S4" s="380"/>
+      <c r="S4" s="314"/>
     </row>
     <row r="5" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B5" s="375"/>
+      <c r="B5" s="309"/>
       <c r="C5" s="123"/>
       <c r="D5" s="119"/>
       <c r="E5" s="119"/>
@@ -11752,10 +11749,10 @@
       <c r="P5" s="119"/>
       <c r="Q5" s="119"/>
       <c r="R5" s="119"/>
-      <c r="S5" s="376"/>
+      <c r="S5" s="310"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B6" s="381" t="s">
+      <c r="B6" s="315" t="s">
         <v>610</v>
       </c>
       <c r="C6" s="126" t="s">
@@ -11776,10 +11773,10 @@
       <c r="P6" s="122"/>
       <c r="Q6" s="122"/>
       <c r="R6" s="122"/>
-      <c r="S6" s="382"/>
+      <c r="S6" s="316"/>
     </row>
     <row r="7" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B7" s="375"/>
+      <c r="B7" s="309"/>
       <c r="C7" s="123"/>
       <c r="D7" s="119"/>
       <c r="E7" s="119"/>
@@ -11796,10 +11793,10 @@
       <c r="P7" s="119"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="119"/>
-      <c r="S7" s="376"/>
+      <c r="S7" s="310"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B8" s="375"/>
+      <c r="B8" s="309"/>
       <c r="C8" s="127" t="s">
         <v>281</v>
       </c>
@@ -11818,10 +11815,10 @@
       <c r="P8" s="119"/>
       <c r="Q8" s="119"/>
       <c r="R8" s="119"/>
-      <c r="S8" s="376"/>
+      <c r="S8" s="310"/>
     </row>
     <row r="9" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B9" s="375"/>
+      <c r="B9" s="309"/>
       <c r="C9" s="127" t="s">
         <v>282</v>
       </c>
@@ -11840,10 +11837,10 @@
       <c r="P9" s="119"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="119"/>
-      <c r="S9" s="376"/>
+      <c r="S9" s="310"/>
     </row>
     <row r="10" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B10" s="375"/>
+      <c r="B10" s="309"/>
       <c r="C10" s="127" t="s">
         <v>283</v>
       </c>
@@ -11862,10 +11859,10 @@
       <c r="P10" s="119"/>
       <c r="Q10" s="119"/>
       <c r="R10" s="119"/>
-      <c r="S10" s="376"/>
+      <c r="S10" s="310"/>
     </row>
     <row r="11" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B11" s="375"/>
+      <c r="B11" s="309"/>
       <c r="C11" s="127" t="s">
         <v>284</v>
       </c>
@@ -11884,10 +11881,10 @@
       <c r="P11" s="119"/>
       <c r="Q11" s="119"/>
       <c r="R11" s="119"/>
-      <c r="S11" s="376"/>
+      <c r="S11" s="310"/>
     </row>
     <row r="12" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B12" s="375"/>
+      <c r="B12" s="309"/>
       <c r="C12" s="127" t="s">
         <v>285</v>
       </c>
@@ -11906,10 +11903,10 @@
       <c r="P12" s="119"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
-      <c r="S12" s="376"/>
+      <c r="S12" s="310"/>
     </row>
     <row r="13" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B13" s="375"/>
+      <c r="B13" s="309"/>
       <c r="C13" s="123"/>
       <c r="D13" s="119"/>
       <c r="E13" s="119"/>
@@ -11926,10 +11923,10 @@
       <c r="P13" s="119"/>
       <c r="Q13" s="119"/>
       <c r="R13" s="119"/>
-      <c r="S13" s="376"/>
+      <c r="S13" s="310"/>
     </row>
     <row r="14" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B14" s="381" t="s">
+      <c r="B14" s="315" t="s">
         <v>611</v>
       </c>
       <c r="C14" s="126" t="s">
@@ -11950,10 +11947,10 @@
       <c r="P14" s="122"/>
       <c r="Q14" s="122"/>
       <c r="R14" s="122"/>
-      <c r="S14" s="382"/>
+      <c r="S14" s="316"/>
     </row>
     <row r="15" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B15" s="375"/>
+      <c r="B15" s="309"/>
       <c r="C15" s="123"/>
       <c r="D15" s="119"/>
       <c r="E15" s="119"/>
@@ -11970,10 +11967,10 @@
       <c r="P15" s="119"/>
       <c r="Q15" s="119"/>
       <c r="R15" s="119"/>
-      <c r="S15" s="376"/>
+      <c r="S15" s="310"/>
     </row>
     <row r="16" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B16" s="383"/>
+      <c r="B16" s="317"/>
       <c r="C16" s="127" t="s">
         <v>286</v>
       </c>
@@ -11992,10 +11989,10 @@
       <c r="P16" s="128"/>
       <c r="Q16" s="128"/>
       <c r="R16" s="128"/>
-      <c r="S16" s="384"/>
+      <c r="S16" s="318"/>
     </row>
     <row r="17" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B17" s="383"/>
+      <c r="B17" s="317"/>
       <c r="C17" s="127" t="s">
         <v>287</v>
       </c>
@@ -12014,10 +12011,10 @@
       <c r="P17" s="128"/>
       <c r="Q17" s="128"/>
       <c r="R17" s="128"/>
-      <c r="S17" s="384"/>
+      <c r="S17" s="318"/>
     </row>
     <row r="18" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B18" s="383"/>
+      <c r="B18" s="317"/>
       <c r="C18" s="127" t="s">
         <v>288</v>
       </c>
@@ -12036,10 +12033,10 @@
       <c r="P18" s="128"/>
       <c r="Q18" s="128"/>
       <c r="R18" s="128"/>
-      <c r="S18" s="384"/>
+      <c r="S18" s="318"/>
     </row>
     <row r="19" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B19" s="383"/>
+      <c r="B19" s="317"/>
       <c r="C19" s="127" t="s">
         <v>289</v>
       </c>
@@ -12058,10 +12055,10 @@
       <c r="P19" s="128"/>
       <c r="Q19" s="128"/>
       <c r="R19" s="128"/>
-      <c r="S19" s="384"/>
+      <c r="S19" s="318"/>
     </row>
     <row r="20" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B20" s="375"/>
+      <c r="B20" s="309"/>
       <c r="C20" s="123"/>
       <c r="D20" s="119"/>
       <c r="E20" s="119"/>
@@ -12078,10 +12075,10 @@
       <c r="P20" s="119"/>
       <c r="Q20" s="119"/>
       <c r="R20" s="119"/>
-      <c r="S20" s="376"/>
+      <c r="S20" s="310"/>
     </row>
     <row r="21" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B21" s="385" t="s">
+      <c r="B21" s="319" t="s">
         <v>612</v>
       </c>
       <c r="C21" s="126" t="s">
@@ -12102,10 +12099,10 @@
       <c r="P21" s="122"/>
       <c r="Q21" s="122"/>
       <c r="R21" s="122"/>
-      <c r="S21" s="382"/>
+      <c r="S21" s="316"/>
     </row>
     <row r="22" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B22" s="375"/>
+      <c r="B22" s="309"/>
       <c r="C22" s="123"/>
       <c r="D22" s="119"/>
       <c r="E22" s="119"/>
@@ -12122,10 +12119,10 @@
       <c r="P22" s="119"/>
       <c r="Q22" s="119"/>
       <c r="R22" s="119"/>
-      <c r="S22" s="376"/>
+      <c r="S22" s="310"/>
     </row>
     <row r="23" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B23" s="385" t="s">
+      <c r="B23" s="319" t="s">
         <v>613</v>
       </c>
       <c r="C23" s="126" t="s">
@@ -12146,10 +12143,10 @@
       <c r="P23" s="122"/>
       <c r="Q23" s="122"/>
       <c r="R23" s="122"/>
-      <c r="S23" s="382"/>
+      <c r="S23" s="316"/>
     </row>
     <row r="24" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B24" s="375"/>
+      <c r="B24" s="309"/>
       <c r="C24" s="123"/>
       <c r="D24" s="119"/>
       <c r="E24" s="119"/>
@@ -12166,10 +12163,10 @@
       <c r="P24" s="119"/>
       <c r="Q24" s="119"/>
       <c r="R24" s="119"/>
-      <c r="S24" s="376"/>
+      <c r="S24" s="310"/>
     </row>
     <row r="25" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B25" s="386" t="s">
+      <c r="B25" s="320" t="s">
         <v>614</v>
       </c>
       <c r="C25" s="124" t="s">
@@ -12190,10 +12187,10 @@
       <c r="P25" s="120"/>
       <c r="Q25" s="120"/>
       <c r="R25" s="120"/>
-      <c r="S25" s="378"/>
+      <c r="S25" s="312"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B26" s="379"/>
+      <c r="B26" s="313"/>
       <c r="C26" s="125" t="s">
         <v>608</v>
       </c>
@@ -12212,10 +12209,10 @@
       <c r="P26" s="121"/>
       <c r="Q26" s="121"/>
       <c r="R26" s="121"/>
-      <c r="S26" s="380"/>
+      <c r="S26" s="314"/>
     </row>
     <row r="27" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B27" s="375"/>
+      <c r="B27" s="309"/>
       <c r="C27" s="123"/>
       <c r="D27" s="119"/>
       <c r="E27" s="119"/>
@@ -12232,10 +12229,10 @@
       <c r="P27" s="119"/>
       <c r="Q27" s="119"/>
       <c r="R27" s="119"/>
-      <c r="S27" s="376"/>
+      <c r="S27" s="310"/>
     </row>
     <row r="28" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B28" s="385" t="s">
+      <c r="B28" s="319" t="s">
         <v>615</v>
       </c>
       <c r="C28" s="126" t="s">
@@ -12256,10 +12253,10 @@
       <c r="P28" s="122"/>
       <c r="Q28" s="122"/>
       <c r="R28" s="122"/>
-      <c r="S28" s="382"/>
+      <c r="S28" s="316"/>
     </row>
     <row r="29" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B29" s="375"/>
+      <c r="B29" s="309"/>
       <c r="C29" s="123"/>
       <c r="D29" s="119"/>
       <c r="E29" s="119"/>
@@ -12276,10 +12273,10 @@
       <c r="P29" s="119"/>
       <c r="Q29" s="119"/>
       <c r="R29" s="119"/>
-      <c r="S29" s="376"/>
+      <c r="S29" s="310"/>
     </row>
     <row r="30" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B30" s="383"/>
+      <c r="B30" s="317"/>
       <c r="C30" s="127" t="s">
         <v>200</v>
       </c>
@@ -12298,10 +12295,10 @@
       <c r="P30" s="128"/>
       <c r="Q30" s="128"/>
       <c r="R30" s="128"/>
-      <c r="S30" s="384"/>
+      <c r="S30" s="318"/>
     </row>
     <row r="31" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B31" s="383"/>
+      <c r="B31" s="317"/>
       <c r="C31" s="127" t="s">
         <v>201</v>
       </c>
@@ -12320,10 +12317,10 @@
       <c r="P31" s="128"/>
       <c r="Q31" s="128"/>
       <c r="R31" s="128"/>
-      <c r="S31" s="384"/>
+      <c r="S31" s="318"/>
     </row>
     <row r="32" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B32" s="383"/>
+      <c r="B32" s="317"/>
       <c r="C32" s="127" t="s">
         <v>202</v>
       </c>
@@ -12342,10 +12339,10 @@
       <c r="P32" s="128"/>
       <c r="Q32" s="128"/>
       <c r="R32" s="128"/>
-      <c r="S32" s="384"/>
+      <c r="S32" s="318"/>
     </row>
     <row r="33" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B33" s="383"/>
+      <c r="B33" s="317"/>
       <c r="C33" s="127" t="s">
         <v>203</v>
       </c>
@@ -12364,10 +12361,10 @@
       <c r="P33" s="128"/>
       <c r="Q33" s="128"/>
       <c r="R33" s="128"/>
-      <c r="S33" s="384"/>
+      <c r="S33" s="318"/>
     </row>
     <row r="34" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B34" s="375"/>
+      <c r="B34" s="309"/>
       <c r="C34" s="123"/>
       <c r="D34" s="119"/>
       <c r="E34" s="119"/>
@@ -12384,31 +12381,31 @@
       <c r="P34" s="119"/>
       <c r="Q34" s="119"/>
       <c r="R34" s="119"/>
-      <c r="S34" s="376"/>
+      <c r="S34" s="310"/>
     </row>
     <row r="35" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B35" s="387" t="s">
+      <c r="B35" s="321" t="s">
         <v>616</v>
       </c>
-      <c r="C35" s="388" t="s">
+      <c r="C35" s="322" t="s">
         <v>605</v>
       </c>
-      <c r="D35" s="389"/>
-      <c r="E35" s="389"/>
-      <c r="F35" s="389"/>
-      <c r="G35" s="389"/>
-      <c r="H35" s="389"/>
-      <c r="I35" s="389"/>
-      <c r="J35" s="389"/>
-      <c r="K35" s="389"/>
-      <c r="L35" s="389"/>
-      <c r="M35" s="389"/>
-      <c r="N35" s="389"/>
-      <c r="O35" s="389"/>
-      <c r="P35" s="389"/>
-      <c r="Q35" s="389"/>
-      <c r="R35" s="389"/>
-      <c r="S35" s="390"/>
+      <c r="D35" s="323"/>
+      <c r="E35" s="323"/>
+      <c r="F35" s="323"/>
+      <c r="G35" s="323"/>
+      <c r="H35" s="323"/>
+      <c r="I35" s="323"/>
+      <c r="J35" s="323"/>
+      <c r="K35" s="323"/>
+      <c r="L35" s="323"/>
+      <c r="M35" s="323"/>
+      <c r="N35" s="323"/>
+      <c r="O35" s="323"/>
+      <c r="P35" s="323"/>
+      <c r="Q35" s="323"/>
+      <c r="R35" s="323"/>
+      <c r="S35" s="324"/>
     </row>
     <row r="36" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="37" spans="2:19" ht="12.75" customHeight="1"/>
@@ -12507,16 +12504,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="15">
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="328" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="200"/>
+      <c r="D3" s="328"/>
     </row>
     <row r="4" spans="3:4" ht="15">
-      <c r="C4" s="200" t="s">
+      <c r="C4" s="328" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="200"/>
+      <c r="D4" s="328"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12870,30 +12867,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.95" customHeight="1">
-      <c r="B1" s="338" t="s">
+      <c r="B1" s="330" t="s">
         <v>631</v>
       </c>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="340"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="332"/>
     </row>
     <row r="2" spans="2:7" s="61" customFormat="1" ht="15.75">
-      <c r="B2" s="372" t="s">
+      <c r="B2" s="329" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="373" t="s">
+      <c r="C2" s="329"/>
+      <c r="D2" s="307" t="s">
         <v>371</v>
       </c>
-      <c r="E2" s="373" t="s">
+      <c r="E2" s="307" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="373" t="s">
+      <c r="F2" s="307" t="s">
         <v>373</v>
       </c>
-      <c r="G2" s="374" t="s">
+      <c r="G2" s="308" t="s">
         <v>374</v>
       </c>
     </row>
@@ -12914,16 +12911,16 @@
       <c r="C4" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="367" t="s">
+      <c r="D4" s="302" t="s">
         <v>377</v>
       </c>
-      <c r="E4" s="367" t="s">
+      <c r="E4" s="302" t="s">
         <v>378</v>
       </c>
-      <c r="F4" s="367" t="s">
+      <c r="F4" s="302" t="s">
         <v>378</v>
       </c>
-      <c r="G4" s="368" t="s">
+      <c r="G4" s="303" t="s">
         <v>403</v>
       </c>
     </row>
@@ -12934,26 +12931,26 @@
       <c r="C5" s="132" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
-      <c r="G5" s="370"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="305"/>
     </row>
     <row r="6" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B6" s="143"/>
       <c r="C6" s="169" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="371" t="s">
+      <c r="D6" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E6" s="371" t="s">
+      <c r="E6" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="371" t="s">
+      <c r="F6" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G6" s="368" t="s">
+      <c r="G6" s="303" t="s">
         <v>403</v>
       </c>
     </row>
@@ -12964,26 +12961,26 @@
       <c r="C7" s="132" t="s">
         <v>381</v>
       </c>
-      <c r="D7" s="369"/>
-      <c r="E7" s="369"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="370"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="305"/>
     </row>
     <row r="8" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B8" s="140"/>
       <c r="C8" s="169" t="s">
         <v>382</v>
       </c>
-      <c r="D8" s="371" t="s">
+      <c r="D8" s="306" t="s">
         <v>383</v>
       </c>
-      <c r="E8" s="371" t="s">
+      <c r="E8" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F8" s="371" t="s">
+      <c r="F8" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="368" t="s">
+      <c r="G8" s="303" t="s">
         <v>404</v>
       </c>
     </row>
@@ -12992,16 +12989,16 @@
       <c r="C9" s="169" t="s">
         <v>505</v>
       </c>
-      <c r="D9" s="371" t="s">
+      <c r="D9" s="306" t="s">
         <v>383</v>
       </c>
-      <c r="E9" s="371" t="s">
+      <c r="E9" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="371" t="s">
+      <c r="F9" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="G9" s="368" t="s">
+      <c r="G9" s="303" t="s">
         <v>404</v>
       </c>
     </row>
@@ -13010,16 +13007,16 @@
       <c r="C10" s="169" t="s">
         <v>438</v>
       </c>
-      <c r="D10" s="371" t="s">
+      <c r="D10" s="306" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="371" t="s">
+      <c r="E10" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F10" s="371" t="s">
+      <c r="F10" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="G10" s="368" t="s">
+      <c r="G10" s="303" t="s">
         <v>404</v>
       </c>
     </row>
@@ -13030,26 +13027,26 @@
       <c r="C11" s="132" t="s">
         <v>385</v>
       </c>
-      <c r="D11" s="369"/>
-      <c r="E11" s="369"/>
-      <c r="F11" s="369"/>
-      <c r="G11" s="370"/>
+      <c r="D11" s="304"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="304"/>
+      <c r="G11" s="305"/>
     </row>
     <row r="12" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B12" s="143"/>
       <c r="C12" s="169" t="s">
         <v>386</v>
       </c>
-      <c r="D12" s="371" t="s">
+      <c r="D12" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E12" s="371" t="s">
+      <c r="E12" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="F12" s="371" t="s">
+      <c r="F12" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G12" s="368" t="s">
+      <c r="G12" s="303" t="s">
         <v>403</v>
       </c>
     </row>
@@ -13060,26 +13057,26 @@
       <c r="C13" s="132" t="s">
         <v>387</v>
       </c>
-      <c r="D13" s="369"/>
-      <c r="E13" s="369"/>
-      <c r="F13" s="369"/>
-      <c r="G13" s="370"/>
+      <c r="D13" s="304"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="305"/>
     </row>
     <row r="14" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B14" s="148"/>
       <c r="C14" s="169" t="s">
         <v>388</v>
       </c>
-      <c r="D14" s="371" t="s">
+      <c r="D14" s="306" t="s">
         <v>383</v>
       </c>
-      <c r="E14" s="371" t="s">
+      <c r="E14" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="F14" s="371" t="s">
+      <c r="F14" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="G14" s="368" t="s">
+      <c r="G14" s="303" t="s">
         <v>402</v>
       </c>
     </row>
@@ -13088,16 +13085,16 @@
       <c r="C15" s="169" t="s">
         <v>502</v>
       </c>
-      <c r="D15" s="371" t="s">
+      <c r="D15" s="306" t="s">
         <v>383</v>
       </c>
-      <c r="E15" s="371" t="s">
+      <c r="E15" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F15" s="371" t="s">
+      <c r="F15" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="G15" s="368" t="s">
+      <c r="G15" s="303" t="s">
         <v>404</v>
       </c>
     </row>
@@ -13108,26 +13105,26 @@
       <c r="C16" s="132" t="s">
         <v>389</v>
       </c>
-      <c r="D16" s="369"/>
-      <c r="E16" s="369"/>
-      <c r="F16" s="369"/>
-      <c r="G16" s="370"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="305"/>
     </row>
     <row r="17" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B17" s="144"/>
       <c r="C17" s="169" t="s">
         <v>390</v>
       </c>
-      <c r="D17" s="371" t="s">
+      <c r="D17" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E17" s="371" t="s">
+      <c r="E17" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="F17" s="371" t="s">
+      <c r="F17" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G17" s="368" t="s">
+      <c r="G17" s="303" t="s">
         <v>403</v>
       </c>
     </row>
@@ -13136,16 +13133,16 @@
       <c r="C18" s="169" t="s">
         <v>499</v>
       </c>
-      <c r="D18" s="371" t="s">
+      <c r="D18" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E18" s="371" t="s">
+      <c r="E18" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F18" s="371" t="s">
+      <c r="F18" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G18" s="368" t="s">
+      <c r="G18" s="303" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13154,16 +13151,16 @@
       <c r="C19" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="D19" s="371" t="s">
+      <c r="D19" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E19" s="371" t="s">
+      <c r="E19" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F19" s="371" t="s">
+      <c r="F19" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G19" s="368" t="s">
+      <c r="G19" s="303" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13172,16 +13169,16 @@
       <c r="C20" s="169" t="s">
         <v>503</v>
       </c>
-      <c r="D20" s="371" t="s">
+      <c r="D20" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E20" s="371" t="s">
+      <c r="E20" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F20" s="371" t="s">
+      <c r="F20" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G20" s="368" t="s">
+      <c r="G20" s="303" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13190,16 +13187,16 @@
       <c r="C21" s="169" t="s">
         <v>504</v>
       </c>
-      <c r="D21" s="371" t="s">
+      <c r="D21" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E21" s="371" t="s">
+      <c r="E21" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F21" s="371" t="s">
+      <c r="F21" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G21" s="368" t="s">
+      <c r="G21" s="303" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13210,26 +13207,26 @@
       <c r="C22" s="132" t="s">
         <v>391</v>
       </c>
-      <c r="D22" s="369"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="369"/>
-      <c r="G22" s="370"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="305"/>
     </row>
     <row r="23" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B23" s="148"/>
       <c r="C23" s="169" t="s">
         <v>392</v>
       </c>
-      <c r="D23" s="371" t="s">
+      <c r="D23" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E23" s="371" t="s">
+      <c r="E23" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="F23" s="371" t="s">
+      <c r="F23" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="G23" s="368" t="s">
+      <c r="G23" s="303" t="s">
         <v>402</v>
       </c>
     </row>
@@ -13238,16 +13235,16 @@
       <c r="C24" s="169" t="s">
         <v>500</v>
       </c>
-      <c r="D24" s="371" t="s">
+      <c r="D24" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E24" s="371" t="s">
+      <c r="E24" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F24" s="371" t="s">
+      <c r="F24" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G24" s="368" t="s">
+      <c r="G24" s="303" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13258,26 +13255,26 @@
       <c r="C25" s="132" t="s">
         <v>393</v>
       </c>
-      <c r="D25" s="369"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="369"/>
-      <c r="G25" s="370"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="304"/>
+      <c r="F25" s="304"/>
+      <c r="G25" s="305"/>
     </row>
     <row r="26" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B26" s="143"/>
       <c r="C26" s="169" t="s">
         <v>394</v>
       </c>
-      <c r="D26" s="371" t="s">
+      <c r="D26" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E26" s="371" t="s">
+      <c r="E26" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="F26" s="371" t="s">
+      <c r="F26" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G26" s="368" t="s">
+      <c r="G26" s="303" t="s">
         <v>403</v>
       </c>
     </row>
@@ -13288,26 +13285,26 @@
       <c r="C27" s="132" t="s">
         <v>395</v>
       </c>
-      <c r="D27" s="369"/>
-      <c r="E27" s="369"/>
-      <c r="F27" s="369"/>
-      <c r="G27" s="370"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
+      <c r="F27" s="304"/>
+      <c r="G27" s="305"/>
     </row>
     <row r="28" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B28" s="146"/>
       <c r="C28" s="169" t="s">
         <v>396</v>
       </c>
-      <c r="D28" s="371" t="s">
+      <c r="D28" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E28" s="371" t="s">
+      <c r="E28" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F28" s="371" t="s">
+      <c r="F28" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G28" s="368" t="s">
+      <c r="G28" s="303" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13318,26 +13315,26 @@
       <c r="C29" s="132" t="s">
         <v>397</v>
       </c>
-      <c r="D29" s="369"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="369"/>
-      <c r="G29" s="370"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="304"/>
+      <c r="G29" s="305"/>
     </row>
     <row r="30" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B30" s="146"/>
       <c r="C30" s="169" t="s">
         <v>398</v>
       </c>
-      <c r="D30" s="371" t="s">
+      <c r="D30" s="306" t="s">
         <v>377</v>
       </c>
-      <c r="E30" s="371" t="s">
+      <c r="E30" s="306" t="s">
         <v>384</v>
       </c>
-      <c r="F30" s="371" t="s">
+      <c r="F30" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="G30" s="368" t="s">
+      <c r="G30" s="303" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13348,26 +13345,26 @@
       <c r="C31" s="132" t="s">
         <v>399</v>
       </c>
-      <c r="D31" s="369"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="369"/>
-      <c r="G31" s="370"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
+      <c r="F31" s="304"/>
+      <c r="G31" s="305"/>
     </row>
     <row r="32" spans="2:7" s="116" customFormat="1" ht="15.75">
       <c r="B32" s="147"/>
       <c r="C32" s="168" t="s">
         <v>400</v>
       </c>
-      <c r="D32" s="367" t="s">
+      <c r="D32" s="302" t="s">
         <v>377</v>
       </c>
-      <c r="E32" s="367" t="s">
+      <c r="E32" s="302" t="s">
         <v>384</v>
       </c>
-      <c r="F32" s="367" t="s">
+      <c r="F32" s="302" t="s">
         <v>378</v>
       </c>
-      <c r="G32" s="368" t="s">
+      <c r="G32" s="303" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13378,37 +13375,37 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"negativo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"positivo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"negativo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"baixo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"alto"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Manter Informado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Manter Monitorado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Manter Satisfeito"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Gerenciar Atentamente"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13961,252 +13958,252 @@
         <v>362</v>
       </c>
       <c r="C2" s="150"/>
-      <c r="D2" s="221" t="s">
+      <c r="D2" s="348" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="222"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="212" t="s">
+      <c r="E2" s="349"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="342" t="s">
         <v>403</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="214"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="344"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="351" t="s">
         <v>401</v>
       </c>
       <c r="C3" s="150"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="217"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="338"/>
       <c r="J3" s="162"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B4" s="201"/>
+      <c r="B4" s="351"/>
       <c r="C4" s="150"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="215" t="str">
+      <c r="D4" s="345"/>
+      <c r="E4" s="346"/>
+      <c r="F4" s="347"/>
+      <c r="G4" s="336" t="str">
         <f>'3 - Stakeholders List'!C26</f>
         <v>Ana Pereira</v>
       </c>
-      <c r="H4" s="216"/>
-      <c r="I4" s="217"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="338"/>
       <c r="J4" s="162"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B5" s="201"/>
+      <c r="B5" s="351"/>
       <c r="C5" s="150"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="215" t="str">
+      <c r="D5" s="345"/>
+      <c r="E5" s="346"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="336" t="str">
         <f>'3 - Stakeholders List'!C17</f>
         <v>Marcia Oliveira</v>
       </c>
-      <c r="H5" s="216"/>
-      <c r="I5" s="217"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="338"/>
       <c r="J5" s="162"/>
     </row>
     <row r="6" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B6" s="201"/>
+      <c r="B6" s="351"/>
       <c r="C6" s="150"/>
-      <c r="D6" s="218" t="str">
+      <c r="D6" s="345" t="str">
         <f>'3 - Stakeholders List'!C23</f>
         <v>Julia Almeida</v>
       </c>
-      <c r="E6" s="219"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="215" t="str">
+      <c r="E6" s="346"/>
+      <c r="F6" s="347"/>
+      <c r="G6" s="336" t="str">
         <f>'3 - Stakeholders List'!C12</f>
         <v>Cristina Medeiros</v>
       </c>
-      <c r="H6" s="216"/>
-      <c r="I6" s="217"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="338"/>
       <c r="J6" s="162"/>
     </row>
     <row r="7" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B7" s="201"/>
+      <c r="B7" s="351"/>
       <c r="C7" s="150"/>
-      <c r="D7" s="218" t="str">
+      <c r="D7" s="345" t="str">
         <f>'3 - Stakeholders List'!C14</f>
         <v>José Souza</v>
       </c>
-      <c r="E7" s="219"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="215" t="str">
+      <c r="E7" s="346"/>
+      <c r="F7" s="347"/>
+      <c r="G7" s="336" t="str">
         <f>'3 - Stakeholders List'!C6</f>
         <v>João Teixeira</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="217"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="338"/>
       <c r="J7" s="162"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B8" s="201"/>
+      <c r="B8" s="351"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="215" t="str">
+      <c r="D8" s="345"/>
+      <c r="E8" s="346"/>
+      <c r="F8" s="347"/>
+      <c r="G8" s="336" t="str">
         <f>'3 - Stakeholders List'!C4</f>
         <v>Mark Sullivan</v>
       </c>
-      <c r="H8" s="216"/>
-      <c r="I8" s="217"/>
+      <c r="H8" s="337"/>
+      <c r="I8" s="338"/>
       <c r="J8" s="162"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B9" s="201"/>
+      <c r="B9" s="351"/>
       <c r="C9" s="150"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="217"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="347"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="338"/>
       <c r="J9" s="162"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B10" s="201"/>
+      <c r="B10" s="351"/>
       <c r="C10" s="150"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="217"/>
+      <c r="D10" s="345"/>
+      <c r="E10" s="346"/>
+      <c r="F10" s="347"/>
+      <c r="G10" s="336"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="338"/>
       <c r="J10" s="162"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B11" s="201"/>
+      <c r="B11" s="351"/>
       <c r="C11" s="150"/>
-      <c r="D11" s="203" t="s">
+      <c r="D11" s="353" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="204"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="230" t="s">
+      <c r="E11" s="354"/>
+      <c r="F11" s="355"/>
+      <c r="G11" s="339" t="s">
         <v>405</v>
       </c>
-      <c r="H11" s="231"/>
-      <c r="I11" s="232"/>
+      <c r="H11" s="340"/>
+      <c r="I11" s="341"/>
       <c r="J11" s="162"/>
     </row>
     <row r="12" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B12" s="201"/>
+      <c r="B12" s="351"/>
       <c r="C12" s="150"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="224" t="str">
+      <c r="D12" s="356"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="358"/>
+      <c r="G12" s="333" t="str">
         <f>'3 - Stakeholders List'!C18</f>
         <v>Fábio Junqueira</v>
       </c>
-      <c r="H12" s="225"/>
-      <c r="I12" s="226"/>
+      <c r="H12" s="334"/>
+      <c r="I12" s="335"/>
       <c r="J12" s="162"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B13" s="201"/>
+      <c r="B13" s="351"/>
       <c r="C13" s="150"/>
-      <c r="D13" s="206" t="str">
+      <c r="D13" s="356" t="str">
         <f>'3 - Stakeholders List'!C8</f>
         <v>Paulo Silva</v>
       </c>
-      <c r="E13" s="207"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="224" t="str">
+      <c r="E13" s="357"/>
+      <c r="F13" s="358"/>
+      <c r="G13" s="333" t="str">
         <f>'3 - Stakeholders List'!C19</f>
         <v>Plínio Gonçalves</v>
       </c>
-      <c r="H13" s="225"/>
-      <c r="I13" s="226"/>
+      <c r="H13" s="334"/>
+      <c r="I13" s="335"/>
       <c r="J13" s="162"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B14" s="201"/>
+      <c r="B14" s="351"/>
       <c r="C14" s="150"/>
-      <c r="D14" s="206" t="str">
+      <c r="D14" s="356" t="str">
         <f>'3 - Stakeholders List'!C9</f>
         <v>Rogério Ferreira</v>
       </c>
-      <c r="E14" s="207"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="224" t="str">
+      <c r="E14" s="357"/>
+      <c r="F14" s="358"/>
+      <c r="G14" s="333" t="str">
         <f>'3 - Stakeholders List'!C20</f>
         <v>Rodrigo Santos</v>
       </c>
-      <c r="H14" s="225"/>
-      <c r="I14" s="226"/>
+      <c r="H14" s="334"/>
+      <c r="I14" s="335"/>
       <c r="J14" s="162"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B15" s="201"/>
+      <c r="B15" s="351"/>
       <c r="C15" s="150"/>
-      <c r="D15" s="206" t="str">
+      <c r="D15" s="356" t="str">
         <f>'3 - Stakeholders List'!C10</f>
         <v>Charles Eduardo</v>
       </c>
-      <c r="E15" s="207"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="224" t="str">
+      <c r="E15" s="357"/>
+      <c r="F15" s="358"/>
+      <c r="G15" s="333" t="str">
         <f>'3 - Stakeholders List'!C21</f>
         <v>Michele Souza</v>
       </c>
-      <c r="H15" s="225"/>
-      <c r="I15" s="226"/>
+      <c r="H15" s="334"/>
+      <c r="I15" s="335"/>
       <c r="J15" s="162"/>
     </row>
     <row r="16" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B16" s="201"/>
+      <c r="B16" s="351"/>
       <c r="C16" s="150"/>
-      <c r="D16" s="206" t="str">
+      <c r="D16" s="356" t="str">
         <f>'3 - Stakeholders List'!C15</f>
         <v>Ricardo Cabral</v>
       </c>
-      <c r="E16" s="207"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="224" t="str">
+      <c r="E16" s="357"/>
+      <c r="F16" s="358"/>
+      <c r="G16" s="333" t="str">
         <f>'3 - Stakeholders List'!C24</f>
         <v>Patrícia Ribeiro</v>
       </c>
-      <c r="H16" s="225"/>
-      <c r="I16" s="226"/>
+      <c r="H16" s="334"/>
+      <c r="I16" s="335"/>
       <c r="J16" s="162"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B17" s="201"/>
+      <c r="B17" s="351"/>
       <c r="C17" s="150"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="224" t="str">
+      <c r="D17" s="356"/>
+      <c r="E17" s="357"/>
+      <c r="F17" s="358"/>
+      <c r="G17" s="333" t="str">
         <f>'3 - Stakeholders List'!C28</f>
         <v>Júlio Batista</v>
       </c>
-      <c r="H17" s="225"/>
-      <c r="I17" s="226"/>
+      <c r="H17" s="334"/>
+      <c r="I17" s="335"/>
       <c r="J17" s="162"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="B18" s="201"/>
+      <c r="B18" s="351"/>
       <c r="C18" s="150"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="224" t="str">
+      <c r="D18" s="356"/>
+      <c r="E18" s="357"/>
+      <c r="F18" s="358"/>
+      <c r="G18" s="333" t="str">
         <f>'3 - Stakeholders List'!C30</f>
         <v>Carla Moreira</v>
       </c>
-      <c r="H18" s="225"/>
-      <c r="I18" s="226"/>
+      <c r="H18" s="334"/>
+      <c r="I18" s="335"/>
       <c r="J18" s="162"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
@@ -14214,15 +14211,15 @@
         <v>363</v>
       </c>
       <c r="C19" s="150"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="227" t="str">
+      <c r="D19" s="359"/>
+      <c r="E19" s="360"/>
+      <c r="F19" s="361"/>
+      <c r="G19" s="362" t="str">
         <f>'3 - Stakeholders List'!C32</f>
         <v>Marcelo Martins</v>
       </c>
-      <c r="H19" s="228"/>
-      <c r="I19" s="229"/>
+      <c r="H19" s="363"/>
+      <c r="I19" s="364"/>
       <c r="J19" s="162"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
@@ -14244,10 +14241,10 @@
         <v>363</v>
       </c>
       <c r="E21" s="166"/>
-      <c r="F21" s="202" t="s">
+      <c r="F21" s="352" t="s">
         <v>406</v>
       </c>
-      <c r="G21" s="202"/>
+      <c r="G21" s="352"/>
       <c r="H21" s="166"/>
       <c r="I21" s="167" t="s">
         <v>362</v>
@@ -14257,28 +14254,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:B18"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="D11:F11"/>
@@ -14295,6 +14270,28 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14351,534 +14348,534 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B1" s="338" t="s">
+      <c r="B1" s="330" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="340"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="332"/>
     </row>
     <row r="2" spans="2:7" ht="30">
-      <c r="B2" s="341" t="s">
+      <c r="B2" s="276" t="s">
         <v>640</v>
       </c>
-      <c r="C2" s="336" t="s">
+      <c r="C2" s="274" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="336" t="s">
+      <c r="D2" s="274" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="336" t="s">
+      <c r="E2" s="274" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="342" t="s">
+      <c r="F2" s="277" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="337" t="s">
+      <c r="G2" s="275" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="72">
-      <c r="B3" s="353" t="s">
+      <c r="B3" s="288" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="343" t="s">
+      <c r="C3" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="344" t="s">
+      <c r="D3" s="279" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="343" t="s">
+      <c r="E3" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="343" t="s">
+      <c r="F3" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="354"/>
+      <c r="G3" s="289"/>
     </row>
     <row r="4" spans="2:7" ht="37.5" customHeight="1">
-      <c r="B4" s="355" t="s">
+      <c r="B4" s="290" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="345" t="s">
+      <c r="C4" s="280" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="346" t="s">
+      <c r="D4" s="281" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="345" t="s">
+      <c r="E4" s="280" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="345" t="s">
+      <c r="F4" s="280" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="356" t="s">
+      <c r="G4" s="291" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="36">
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="292" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="347" t="s">
+      <c r="C5" s="282" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="348" t="s">
+      <c r="D5" s="283" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="347" t="s">
+      <c r="E5" s="282" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="347" t="s">
+      <c r="F5" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="358" t="s">
+      <c r="G5" s="293" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="84">
-      <c r="B6" s="355" t="s">
+      <c r="B6" s="290" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="345" t="s">
+      <c r="C6" s="280" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="346" t="s">
+      <c r="D6" s="281" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="345" t="s">
+      <c r="E6" s="280" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="345" t="s">
+      <c r="F6" s="280" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="356" t="s">
+      <c r="G6" s="291" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="72">
-      <c r="B7" s="357" t="s">
+      <c r="B7" s="292" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="347" t="s">
+      <c r="C7" s="282" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="348" t="s">
+      <c r="D7" s="283" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="347" t="s">
+      <c r="E7" s="282" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="347" t="s">
+      <c r="F7" s="282" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="358" t="s">
+      <c r="G7" s="293" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="37.5" customHeight="1">
-      <c r="B8" s="355" t="s">
+      <c r="B8" s="290" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="345" t="s">
+      <c r="C8" s="280" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="349" t="s">
+      <c r="D8" s="284" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="345" t="s">
+      <c r="E8" s="280" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="345" t="s">
+      <c r="F8" s="280" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="359"/>
+      <c r="G8" s="294"/>
     </row>
     <row r="9" spans="2:7" ht="109.5" customHeight="1">
-      <c r="B9" s="357" t="s">
+      <c r="B9" s="292" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="347" t="s">
+      <c r="C9" s="282" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="350" t="s">
+      <c r="D9" s="285" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="347" t="s">
+      <c r="E9" s="282" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="347" t="s">
+      <c r="F9" s="282" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="360"/>
+      <c r="G9" s="295"/>
     </row>
     <row r="10" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B10" s="355" t="s">
+      <c r="B10" s="290" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="345" t="s">
+      <c r="C10" s="280" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="349" t="s">
+      <c r="D10" s="284" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="345" t="s">
+      <c r="E10" s="280" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="345" t="s">
+      <c r="F10" s="280" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="359" t="s">
+      <c r="G10" s="294" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="48" customHeight="1">
-      <c r="B11" s="357" t="s">
+      <c r="B11" s="292" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="347" t="s">
+      <c r="C11" s="282" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="350" t="s">
+      <c r="D11" s="285" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="347" t="s">
+      <c r="E11" s="282" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="347" t="s">
+      <c r="F11" s="282" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="360" t="s">
+      <c r="G11" s="295" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="96">
-      <c r="B12" s="355" t="s">
+      <c r="B12" s="290" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="345" t="s">
+      <c r="C12" s="280" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="349" t="s">
+      <c r="D12" s="284" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="345" t="s">
+      <c r="E12" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="345" t="s">
+      <c r="F12" s="280" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="359" t="s">
+      <c r="G12" s="294" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="24">
-      <c r="B13" s="357" t="s">
+      <c r="B13" s="292" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="351" t="s">
+      <c r="C13" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="348" t="s">
+      <c r="D13" s="283" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="351"/>
-      <c r="F13" s="347" t="s">
+      <c r="E13" s="286"/>
+      <c r="F13" s="282" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="361"/>
+      <c r="G13" s="296"/>
     </row>
     <row r="14" spans="2:7" ht="24">
-      <c r="B14" s="355" t="s">
+      <c r="B14" s="290" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="345" t="s">
+      <c r="C14" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="346" t="s">
+      <c r="D14" s="281" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="345" t="s">
+      <c r="E14" s="280" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="345" t="s">
+      <c r="F14" s="280" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="356" t="s">
+      <c r="G14" s="291" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="48">
-      <c r="B15" s="357" t="s">
+      <c r="B15" s="292" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="347" t="s">
+      <c r="C15" s="282" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="348" t="s">
+      <c r="D15" s="283" t="s">
         <v>242</v>
       </c>
-      <c r="E15" s="347" t="s">
+      <c r="E15" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="347" t="s">
+      <c r="F15" s="282" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="358" t="s">
+      <c r="G15" s="293" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="36">
-      <c r="B16" s="355" t="s">
+      <c r="B16" s="290" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="345" t="s">
+      <c r="C16" s="280" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="346" t="s">
+      <c r="D16" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="E16" s="345" t="s">
+      <c r="E16" s="280" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="345" t="s">
+      <c r="F16" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="359" t="s">
+      <c r="G16" s="294" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="48">
-      <c r="B17" s="357" t="s">
+      <c r="B17" s="292" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="351" t="s">
+      <c r="C17" s="286" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="348" t="s">
+      <c r="D17" s="283" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="347" t="s">
+      <c r="E17" s="282" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="347" t="s">
+      <c r="F17" s="282" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="361"/>
+      <c r="G17" s="296"/>
     </row>
     <row r="18" spans="2:7" ht="36">
-      <c r="B18" s="355" t="s">
+      <c r="B18" s="290" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="345" t="s">
+      <c r="C18" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="346" t="s">
+      <c r="D18" s="281" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="345" t="s">
+      <c r="E18" s="280" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="345" t="s">
+      <c r="F18" s="280" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="359" t="s">
+      <c r="G18" s="294" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="24">
-      <c r="B19" s="357" t="s">
+      <c r="B19" s="292" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="347" t="s">
+      <c r="C19" s="282" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="348" t="s">
+      <c r="D19" s="283" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="347" t="s">
+      <c r="E19" s="282" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="347" t="s">
+      <c r="F19" s="282" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="360" t="s">
+      <c r="G19" s="295" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="48" customHeight="1">
-      <c r="B20" s="355" t="s">
+      <c r="B20" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="345" t="s">
+      <c r="C20" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="349" t="s">
+      <c r="D20" s="284" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="352"/>
-      <c r="F20" s="345" t="s">
+      <c r="E20" s="287"/>
+      <c r="F20" s="280" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="362"/>
+      <c r="G20" s="297"/>
     </row>
     <row r="21" spans="2:7" ht="24">
-      <c r="B21" s="357" t="s">
+      <c r="B21" s="292" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="347" t="s">
+      <c r="C21" s="282" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="348" t="s">
+      <c r="D21" s="283" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="347" t="s">
+      <c r="E21" s="282" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="347" t="s">
+      <c r="F21" s="282" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="358" t="s">
+      <c r="G21" s="293" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="36">
-      <c r="B22" s="355" t="s">
+      <c r="B22" s="290" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="345" t="s">
+      <c r="C22" s="280" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="346" t="s">
+      <c r="D22" s="281" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="345" t="s">
+      <c r="E22" s="280" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="345" t="s">
+      <c r="F22" s="280" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="359" t="s">
+      <c r="G22" s="294" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="24.75" customHeight="1">
-      <c r="B23" s="357" t="s">
+      <c r="B23" s="292" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="351" t="s">
+      <c r="C23" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="348" t="s">
+      <c r="D23" s="283" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="347" t="s">
+      <c r="E23" s="282" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="347" t="s">
+      <c r="F23" s="282" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="361"/>
+      <c r="G23" s="296"/>
     </row>
     <row r="24" spans="2:7" ht="48">
-      <c r="B24" s="355" t="s">
+      <c r="B24" s="290" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="345" t="s">
+      <c r="C24" s="280" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="346" t="s">
+      <c r="D24" s="281" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="345" t="s">
+      <c r="E24" s="280" t="s">
         <v>263</v>
       </c>
-      <c r="F24" s="345" t="s">
+      <c r="F24" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="359" t="s">
+      <c r="G24" s="294" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="36">
-      <c r="B25" s="357" t="s">
+      <c r="B25" s="292" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="347" t="s">
+      <c r="C25" s="282" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="348" t="s">
+      <c r="D25" s="283" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="347" t="s">
+      <c r="E25" s="282" t="s">
         <v>263</v>
       </c>
-      <c r="F25" s="347" t="s">
+      <c r="F25" s="282" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="360" t="s">
+      <c r="G25" s="295" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="48">
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="290" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="345" t="s">
+      <c r="C26" s="280" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="346" t="s">
+      <c r="D26" s="281" t="s">
         <v>272</v>
       </c>
-      <c r="E26" s="345" t="s">
+      <c r="E26" s="280" t="s">
         <v>263</v>
       </c>
-      <c r="F26" s="345" t="s">
+      <c r="F26" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="359" t="s">
+      <c r="G26" s="294" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="36">
-      <c r="B27" s="357" t="s">
+      <c r="B27" s="292" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="347" t="s">
+      <c r="C27" s="282" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="348" t="s">
+      <c r="D27" s="283" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="347" t="s">
+      <c r="E27" s="282" t="s">
         <v>263</v>
       </c>
-      <c r="F27" s="347" t="s">
+      <c r="F27" s="282" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="360" t="s">
+      <c r="G27" s="295" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="36">
-      <c r="B28" s="363" t="s">
+      <c r="B28" s="298" t="s">
         <v>275</v>
       </c>
-      <c r="C28" s="364" t="s">
+      <c r="C28" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="365" t="s">
+      <c r="D28" s="300" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="364" t="s">
+      <c r="E28" s="299" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="364" t="s">
+      <c r="F28" s="299" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="366" t="s">
+      <c r="G28" s="301" t="s">
         <v>277</v>
       </c>
     </row>
@@ -15385,7 +15382,7 @@
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="15">
-      <c r="B22" s="325" t="s">
+      <c r="B22" s="263" t="s">
         <v>634</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -15408,7 +15405,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" s="5" customFormat="1" ht="15">
-      <c r="B23" s="325" t="s">
+      <c r="B23" s="263" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -15808,25 +15805,25 @@
       </c>
     </row>
     <row r="41" spans="2:8" s="5" customFormat="1" ht="25.5">
-      <c r="B41" s="334" t="s">
+      <c r="B41" s="272" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="327" t="s">
+      <c r="C41" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="328">
+      <c r="D41" s="266">
         <v>40722.375</v>
       </c>
-      <c r="E41" s="328">
+      <c r="E41" s="266">
         <v>40725.75</v>
       </c>
-      <c r="F41" s="327" t="s">
+      <c r="F41" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="329">
+      <c r="G41" s="267">
         <v>105540</v>
       </c>
-      <c r="H41" s="326" t="s">
+      <c r="H41" s="264" t="s">
         <v>638</v>
       </c>
     </row>
@@ -16447,25 +16444,25 @@
       <c r="H69" s="41"/>
     </row>
     <row r="70" spans="2:8" s="5" customFormat="1" ht="25.5">
-      <c r="B70" s="335" t="s">
+      <c r="B70" s="273" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="327" t="s">
+      <c r="C70" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="328">
+      <c r="D70" s="266">
         <v>40882.375</v>
       </c>
-      <c r="E70" s="328">
+      <c r="E70" s="266">
         <v>40882.75</v>
       </c>
-      <c r="F70" s="327" t="s">
+      <c r="F70" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="329">
+      <c r="G70" s="267">
         <v>920</v>
       </c>
-      <c r="H70" s="326" t="s">
+      <c r="H70" s="264" t="s">
         <v>635</v>
       </c>
     </row>
@@ -16493,46 +16490,46 @@
       </c>
     </row>
     <row r="72" spans="2:8" s="4" customFormat="1" ht="15">
-      <c r="B72" s="330" t="s">
+      <c r="B72" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="331" t="s">
+      <c r="C72" s="269" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="332">
+      <c r="D72" s="270">
         <v>40889.375</v>
       </c>
-      <c r="E72" s="332">
+      <c r="E72" s="270">
         <v>40890.75</v>
       </c>
-      <c r="F72" s="331" t="s">
+      <c r="F72" s="269" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="333">
+      <c r="G72" s="271">
         <v>1844</v>
       </c>
       <c r="H72" s="41"/>
     </row>
     <row r="73" spans="2:8" s="5" customFormat="1" ht="25.5">
-      <c r="B73" s="335" t="s">
+      <c r="B73" s="273" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="327" t="s">
+      <c r="C73" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="328">
+      <c r="D73" s="266">
         <v>40889.375</v>
       </c>
-      <c r="E73" s="328">
+      <c r="E73" s="266">
         <v>40889.75</v>
       </c>
-      <c r="F73" s="327" t="s">
+      <c r="F73" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="329">
+      <c r="G73" s="267">
         <v>964</v>
       </c>
-      <c r="H73" s="326" t="s">
+      <c r="H73" s="264" t="s">
         <v>636</v>
       </c>
     </row>
@@ -16599,7 +16596,7 @@
       <c r="G76" s="46">
         <v>2020</v>
       </c>
-      <c r="H76" s="326" t="s">
+      <c r="H76" s="264" t="s">
         <v>637</v>
       </c>
     </row>

--- a/Salesforce/Salesforce.xlsx
+++ b/Salesforce/Salesforce.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1" userName="SONY" reservationPassword="CA71"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="15315" windowHeight="8085" tabRatio="0"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="15315" windowHeight="8085" tabRatio="0" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="10" r:id="rId1"/>
@@ -3605,7 +3605,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4400,9 +4400,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4437,6 +4434,9 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4461,6 +4461,39 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4470,6 +4503,24 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4479,6 +4530,24 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4488,75 +4557,6 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4634,6 +4634,9 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7490,7 +7493,7 @@
   </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
@@ -11666,7 +11669,7 @@
       <c r="S1" s="327"/>
     </row>
     <row r="2" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B2" s="309"/>
+      <c r="B2" s="308"/>
       <c r="C2" s="123"/>
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
@@ -11683,10 +11686,10 @@
       <c r="P2" s="119"/>
       <c r="Q2" s="119"/>
       <c r="R2" s="119"/>
-      <c r="S2" s="310"/>
+      <c r="S2" s="309"/>
     </row>
     <row r="3" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B3" s="311" t="s">
+      <c r="B3" s="310" t="s">
         <v>609</v>
       </c>
       <c r="C3" s="124" t="s">
@@ -11707,10 +11710,10 @@
       <c r="P3" s="120"/>
       <c r="Q3" s="120"/>
       <c r="R3" s="120"/>
-      <c r="S3" s="312"/>
+      <c r="S3" s="311"/>
     </row>
     <row r="4" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B4" s="313"/>
+      <c r="B4" s="312"/>
       <c r="C4" s="125" t="s">
         <v>607</v>
       </c>
@@ -11729,10 +11732,10 @@
       <c r="P4" s="121"/>
       <c r="Q4" s="121"/>
       <c r="R4" s="121"/>
-      <c r="S4" s="314"/>
+      <c r="S4" s="313"/>
     </row>
     <row r="5" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B5" s="309"/>
+      <c r="B5" s="308"/>
       <c r="C5" s="123"/>
       <c r="D5" s="119"/>
       <c r="E5" s="119"/>
@@ -11749,10 +11752,10 @@
       <c r="P5" s="119"/>
       <c r="Q5" s="119"/>
       <c r="R5" s="119"/>
-      <c r="S5" s="310"/>
+      <c r="S5" s="309"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B6" s="315" t="s">
+      <c r="B6" s="314" t="s">
         <v>610</v>
       </c>
       <c r="C6" s="126" t="s">
@@ -11773,10 +11776,10 @@
       <c r="P6" s="122"/>
       <c r="Q6" s="122"/>
       <c r="R6" s="122"/>
-      <c r="S6" s="316"/>
+      <c r="S6" s="315"/>
     </row>
     <row r="7" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B7" s="309"/>
+      <c r="B7" s="308"/>
       <c r="C7" s="123"/>
       <c r="D7" s="119"/>
       <c r="E7" s="119"/>
@@ -11793,10 +11796,10 @@
       <c r="P7" s="119"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="119"/>
-      <c r="S7" s="310"/>
+      <c r="S7" s="309"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B8" s="309"/>
+      <c r="B8" s="308"/>
       <c r="C8" s="127" t="s">
         <v>281</v>
       </c>
@@ -11815,10 +11818,10 @@
       <c r="P8" s="119"/>
       <c r="Q8" s="119"/>
       <c r="R8" s="119"/>
-      <c r="S8" s="310"/>
+      <c r="S8" s="309"/>
     </row>
     <row r="9" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B9" s="309"/>
+      <c r="B9" s="308"/>
       <c r="C9" s="127" t="s">
         <v>282</v>
       </c>
@@ -11837,10 +11840,10 @@
       <c r="P9" s="119"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="119"/>
-      <c r="S9" s="310"/>
+      <c r="S9" s="309"/>
     </row>
     <row r="10" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B10" s="309"/>
+      <c r="B10" s="308"/>
       <c r="C10" s="127" t="s">
         <v>283</v>
       </c>
@@ -11859,10 +11862,10 @@
       <c r="P10" s="119"/>
       <c r="Q10" s="119"/>
       <c r="R10" s="119"/>
-      <c r="S10" s="310"/>
+      <c r="S10" s="309"/>
     </row>
     <row r="11" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B11" s="309"/>
+      <c r="B11" s="308"/>
       <c r="C11" s="127" t="s">
         <v>284</v>
       </c>
@@ -11881,10 +11884,10 @@
       <c r="P11" s="119"/>
       <c r="Q11" s="119"/>
       <c r="R11" s="119"/>
-      <c r="S11" s="310"/>
+      <c r="S11" s="309"/>
     </row>
     <row r="12" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B12" s="309"/>
+      <c r="B12" s="308"/>
       <c r="C12" s="127" t="s">
         <v>285</v>
       </c>
@@ -11903,10 +11906,10 @@
       <c r="P12" s="119"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
-      <c r="S12" s="310"/>
+      <c r="S12" s="309"/>
     </row>
     <row r="13" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B13" s="309"/>
+      <c r="B13" s="308"/>
       <c r="C13" s="123"/>
       <c r="D13" s="119"/>
       <c r="E13" s="119"/>
@@ -11923,10 +11926,10 @@
       <c r="P13" s="119"/>
       <c r="Q13" s="119"/>
       <c r="R13" s="119"/>
-      <c r="S13" s="310"/>
+      <c r="S13" s="309"/>
     </row>
     <row r="14" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B14" s="315" t="s">
+      <c r="B14" s="314" t="s">
         <v>611</v>
       </c>
       <c r="C14" s="126" t="s">
@@ -11947,10 +11950,10 @@
       <c r="P14" s="122"/>
       <c r="Q14" s="122"/>
       <c r="R14" s="122"/>
-      <c r="S14" s="316"/>
+      <c r="S14" s="315"/>
     </row>
     <row r="15" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B15" s="309"/>
+      <c r="B15" s="308"/>
       <c r="C15" s="123"/>
       <c r="D15" s="119"/>
       <c r="E15" s="119"/>
@@ -11967,10 +11970,10 @@
       <c r="P15" s="119"/>
       <c r="Q15" s="119"/>
       <c r="R15" s="119"/>
-      <c r="S15" s="310"/>
+      <c r="S15" s="309"/>
     </row>
     <row r="16" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B16" s="317"/>
+      <c r="B16" s="316"/>
       <c r="C16" s="127" t="s">
         <v>286</v>
       </c>
@@ -11989,10 +11992,10 @@
       <c r="P16" s="128"/>
       <c r="Q16" s="128"/>
       <c r="R16" s="128"/>
-      <c r="S16" s="318"/>
+      <c r="S16" s="317"/>
     </row>
     <row r="17" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B17" s="317"/>
+      <c r="B17" s="316"/>
       <c r="C17" s="127" t="s">
         <v>287</v>
       </c>
@@ -12011,10 +12014,10 @@
       <c r="P17" s="128"/>
       <c r="Q17" s="128"/>
       <c r="R17" s="128"/>
-      <c r="S17" s="318"/>
+      <c r="S17" s="317"/>
     </row>
     <row r="18" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B18" s="317"/>
+      <c r="B18" s="316"/>
       <c r="C18" s="127" t="s">
         <v>288</v>
       </c>
@@ -12033,10 +12036,10 @@
       <c r="P18" s="128"/>
       <c r="Q18" s="128"/>
       <c r="R18" s="128"/>
-      <c r="S18" s="318"/>
+      <c r="S18" s="317"/>
     </row>
     <row r="19" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B19" s="317"/>
+      <c r="B19" s="316"/>
       <c r="C19" s="127" t="s">
         <v>289</v>
       </c>
@@ -12055,10 +12058,10 @@
       <c r="P19" s="128"/>
       <c r="Q19" s="128"/>
       <c r="R19" s="128"/>
-      <c r="S19" s="318"/>
+      <c r="S19" s="317"/>
     </row>
     <row r="20" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B20" s="309"/>
+      <c r="B20" s="308"/>
       <c r="C20" s="123"/>
       <c r="D20" s="119"/>
       <c r="E20" s="119"/>
@@ -12075,10 +12078,10 @@
       <c r="P20" s="119"/>
       <c r="Q20" s="119"/>
       <c r="R20" s="119"/>
-      <c r="S20" s="310"/>
+      <c r="S20" s="309"/>
     </row>
     <row r="21" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="318" t="s">
         <v>612</v>
       </c>
       <c r="C21" s="126" t="s">
@@ -12099,10 +12102,10 @@
       <c r="P21" s="122"/>
       <c r="Q21" s="122"/>
       <c r="R21" s="122"/>
-      <c r="S21" s="316"/>
+      <c r="S21" s="315"/>
     </row>
     <row r="22" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B22" s="309"/>
+      <c r="B22" s="308"/>
       <c r="C22" s="123"/>
       <c r="D22" s="119"/>
       <c r="E22" s="119"/>
@@ -12119,10 +12122,10 @@
       <c r="P22" s="119"/>
       <c r="Q22" s="119"/>
       <c r="R22" s="119"/>
-      <c r="S22" s="310"/>
+      <c r="S22" s="309"/>
     </row>
     <row r="23" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B23" s="319" t="s">
+      <c r="B23" s="318" t="s">
         <v>613</v>
       </c>
       <c r="C23" s="126" t="s">
@@ -12143,10 +12146,10 @@
       <c r="P23" s="122"/>
       <c r="Q23" s="122"/>
       <c r="R23" s="122"/>
-      <c r="S23" s="316"/>
+      <c r="S23" s="315"/>
     </row>
     <row r="24" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B24" s="309"/>
+      <c r="B24" s="308"/>
       <c r="C24" s="123"/>
       <c r="D24" s="119"/>
       <c r="E24" s="119"/>
@@ -12163,10 +12166,10 @@
       <c r="P24" s="119"/>
       <c r="Q24" s="119"/>
       <c r="R24" s="119"/>
-      <c r="S24" s="310"/>
+      <c r="S24" s="309"/>
     </row>
     <row r="25" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B25" s="320" t="s">
+      <c r="B25" s="319" t="s">
         <v>614</v>
       </c>
       <c r="C25" s="124" t="s">
@@ -12187,10 +12190,10 @@
       <c r="P25" s="120"/>
       <c r="Q25" s="120"/>
       <c r="R25" s="120"/>
-      <c r="S25" s="312"/>
+      <c r="S25" s="311"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B26" s="313"/>
+      <c r="B26" s="312"/>
       <c r="C26" s="125" t="s">
         <v>608</v>
       </c>
@@ -12209,10 +12212,10 @@
       <c r="P26" s="121"/>
       <c r="Q26" s="121"/>
       <c r="R26" s="121"/>
-      <c r="S26" s="314"/>
+      <c r="S26" s="313"/>
     </row>
     <row r="27" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B27" s="309"/>
+      <c r="B27" s="308"/>
       <c r="C27" s="123"/>
       <c r="D27" s="119"/>
       <c r="E27" s="119"/>
@@ -12229,10 +12232,10 @@
       <c r="P27" s="119"/>
       <c r="Q27" s="119"/>
       <c r="R27" s="119"/>
-      <c r="S27" s="310"/>
+      <c r="S27" s="309"/>
     </row>
     <row r="28" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="318" t="s">
         <v>615</v>
       </c>
       <c r="C28" s="126" t="s">
@@ -12253,10 +12256,10 @@
       <c r="P28" s="122"/>
       <c r="Q28" s="122"/>
       <c r="R28" s="122"/>
-      <c r="S28" s="316"/>
+      <c r="S28" s="315"/>
     </row>
     <row r="29" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B29" s="309"/>
+      <c r="B29" s="308"/>
       <c r="C29" s="123"/>
       <c r="D29" s="119"/>
       <c r="E29" s="119"/>
@@ -12273,10 +12276,10 @@
       <c r="P29" s="119"/>
       <c r="Q29" s="119"/>
       <c r="R29" s="119"/>
-      <c r="S29" s="310"/>
+      <c r="S29" s="309"/>
     </row>
     <row r="30" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B30" s="317"/>
+      <c r="B30" s="316"/>
       <c r="C30" s="127" t="s">
         <v>200</v>
       </c>
@@ -12295,10 +12298,10 @@
       <c r="P30" s="128"/>
       <c r="Q30" s="128"/>
       <c r="R30" s="128"/>
-      <c r="S30" s="318"/>
+      <c r="S30" s="317"/>
     </row>
     <row r="31" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B31" s="317"/>
+      <c r="B31" s="316"/>
       <c r="C31" s="127" t="s">
         <v>201</v>
       </c>
@@ -12317,10 +12320,10 @@
       <c r="P31" s="128"/>
       <c r="Q31" s="128"/>
       <c r="R31" s="128"/>
-      <c r="S31" s="318"/>
+      <c r="S31" s="317"/>
     </row>
     <row r="32" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B32" s="317"/>
+      <c r="B32" s="316"/>
       <c r="C32" s="127" t="s">
         <v>202</v>
       </c>
@@ -12339,10 +12342,10 @@
       <c r="P32" s="128"/>
       <c r="Q32" s="128"/>
       <c r="R32" s="128"/>
-      <c r="S32" s="318"/>
+      <c r="S32" s="317"/>
     </row>
     <row r="33" spans="2:19" s="129" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B33" s="317"/>
+      <c r="B33" s="316"/>
       <c r="C33" s="127" t="s">
         <v>203</v>
       </c>
@@ -12361,10 +12364,10 @@
       <c r="P33" s="128"/>
       <c r="Q33" s="128"/>
       <c r="R33" s="128"/>
-      <c r="S33" s="318"/>
+      <c r="S33" s="317"/>
     </row>
     <row r="34" spans="2:19" ht="5.0999999999999996" customHeight="1">
-      <c r="B34" s="309"/>
+      <c r="B34" s="308"/>
       <c r="C34" s="123"/>
       <c r="D34" s="119"/>
       <c r="E34" s="119"/>
@@ -12381,31 +12384,31 @@
       <c r="P34" s="119"/>
       <c r="Q34" s="119"/>
       <c r="R34" s="119"/>
-      <c r="S34" s="310"/>
+      <c r="S34" s="309"/>
     </row>
     <row r="35" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B35" s="321" t="s">
+      <c r="B35" s="320" t="s">
         <v>616</v>
       </c>
-      <c r="C35" s="322" t="s">
+      <c r="C35" s="321" t="s">
         <v>605</v>
       </c>
-      <c r="D35" s="323"/>
-      <c r="E35" s="323"/>
-      <c r="F35" s="323"/>
-      <c r="G35" s="323"/>
-      <c r="H35" s="323"/>
-      <c r="I35" s="323"/>
-      <c r="J35" s="323"/>
-      <c r="K35" s="323"/>
-      <c r="L35" s="323"/>
-      <c r="M35" s="323"/>
-      <c r="N35" s="323"/>
-      <c r="O35" s="323"/>
-      <c r="P35" s="323"/>
-      <c r="Q35" s="323"/>
-      <c r="R35" s="323"/>
-      <c r="S35" s="324"/>
+      <c r="D35" s="322"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="322"/>
+      <c r="G35" s="322"/>
+      <c r="H35" s="322"/>
+      <c r="I35" s="322"/>
+      <c r="J35" s="322"/>
+      <c r="K35" s="322"/>
+      <c r="L35" s="322"/>
+      <c r="M35" s="322"/>
+      <c r="N35" s="322"/>
+      <c r="O35" s="322"/>
+      <c r="P35" s="322"/>
+      <c r="Q35" s="322"/>
+      <c r="R35" s="322"/>
+      <c r="S35" s="323"/>
     </row>
     <row r="36" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="37" spans="2:19" ht="12.75" customHeight="1"/>
@@ -12534,12 +12537,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Plan4"/>
+  <sheetPr codeName="Plan4">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12890,7 +12895,7 @@
       <c r="F2" s="307" t="s">
         <v>373</v>
       </c>
-      <c r="G2" s="308" t="s">
+      <c r="G2" s="324" t="s">
         <v>374</v>
       </c>
     </row>
@@ -13364,7 +13369,7 @@
       <c r="F32" s="302" t="s">
         <v>378</v>
       </c>
-      <c r="G32" s="303" t="s">
+      <c r="G32" s="391" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13411,7 +13416,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="96" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -13958,252 +13963,252 @@
         <v>362</v>
       </c>
       <c r="C2" s="150"/>
-      <c r="D2" s="348" t="s">
+      <c r="D2" s="359" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="349"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="342" t="s">
+      <c r="E2" s="360"/>
+      <c r="F2" s="361"/>
+      <c r="G2" s="350" t="s">
         <v>403</v>
       </c>
-      <c r="H2" s="343"/>
-      <c r="I2" s="344"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="352"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B3" s="351" t="s">
+      <c r="B3" s="333" t="s">
         <v>401</v>
       </c>
       <c r="C3" s="150"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="338"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="355"/>
       <c r="J3" s="162"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B4" s="351"/>
+      <c r="B4" s="333"/>
       <c r="C4" s="150"/>
-      <c r="D4" s="345"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="347"/>
-      <c r="G4" s="336" t="str">
+      <c r="D4" s="356"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="358"/>
+      <c r="G4" s="353" t="str">
         <f>'3 - Stakeholders List'!C26</f>
         <v>Ana Pereira</v>
       </c>
-      <c r="H4" s="337"/>
-      <c r="I4" s="338"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="355"/>
       <c r="J4" s="162"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B5" s="351"/>
+      <c r="B5" s="333"/>
       <c r="C5" s="150"/>
-      <c r="D5" s="345"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="336" t="str">
+      <c r="D5" s="356"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="353" t="str">
         <f>'3 - Stakeholders List'!C17</f>
         <v>Marcia Oliveira</v>
       </c>
-      <c r="H5" s="337"/>
-      <c r="I5" s="338"/>
+      <c r="H5" s="354"/>
+      <c r="I5" s="355"/>
       <c r="J5" s="162"/>
     </row>
     <row r="6" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B6" s="351"/>
+      <c r="B6" s="333"/>
       <c r="C6" s="150"/>
-      <c r="D6" s="345" t="str">
+      <c r="D6" s="356" t="str">
         <f>'3 - Stakeholders List'!C23</f>
         <v>Julia Almeida</v>
       </c>
-      <c r="E6" s="346"/>
-      <c r="F6" s="347"/>
-      <c r="G6" s="336" t="str">
+      <c r="E6" s="357"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="353" t="str">
         <f>'3 - Stakeholders List'!C12</f>
         <v>Cristina Medeiros</v>
       </c>
-      <c r="H6" s="337"/>
-      <c r="I6" s="338"/>
+      <c r="H6" s="354"/>
+      <c r="I6" s="355"/>
       <c r="J6" s="162"/>
     </row>
     <row r="7" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B7" s="351"/>
+      <c r="B7" s="333"/>
       <c r="C7" s="150"/>
-      <c r="D7" s="345" t="str">
+      <c r="D7" s="356" t="str">
         <f>'3 - Stakeholders List'!C14</f>
         <v>José Souza</v>
       </c>
-      <c r="E7" s="346"/>
-      <c r="F7" s="347"/>
-      <c r="G7" s="336" t="str">
+      <c r="E7" s="357"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="353" t="str">
         <f>'3 - Stakeholders List'!C6</f>
         <v>João Teixeira</v>
       </c>
-      <c r="H7" s="337"/>
-      <c r="I7" s="338"/>
+      <c r="H7" s="354"/>
+      <c r="I7" s="355"/>
       <c r="J7" s="162"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B8" s="351"/>
+      <c r="B8" s="333"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="345"/>
-      <c r="E8" s="346"/>
-      <c r="F8" s="347"/>
-      <c r="G8" s="336" t="str">
+      <c r="D8" s="356"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="358"/>
+      <c r="G8" s="353" t="str">
         <f>'3 - Stakeholders List'!C4</f>
         <v>Mark Sullivan</v>
       </c>
-      <c r="H8" s="337"/>
-      <c r="I8" s="338"/>
+      <c r="H8" s="354"/>
+      <c r="I8" s="355"/>
       <c r="J8" s="162"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B9" s="351"/>
+      <c r="B9" s="333"/>
       <c r="C9" s="150"/>
-      <c r="D9" s="345"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="347"/>
-      <c r="G9" s="336"/>
-      <c r="H9" s="337"/>
-      <c r="I9" s="338"/>
+      <c r="D9" s="356"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="358"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="354"/>
+      <c r="I9" s="355"/>
       <c r="J9" s="162"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B10" s="351"/>
+      <c r="B10" s="333"/>
       <c r="C10" s="150"/>
-      <c r="D10" s="345"/>
-      <c r="E10" s="346"/>
-      <c r="F10" s="347"/>
-      <c r="G10" s="336"/>
-      <c r="H10" s="337"/>
-      <c r="I10" s="338"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="358"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="354"/>
+      <c r="I10" s="355"/>
       <c r="J10" s="162"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B11" s="351"/>
+      <c r="B11" s="333"/>
       <c r="C11" s="150"/>
-      <c r="D11" s="353" t="s">
+      <c r="D11" s="335" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="354"/>
-      <c r="F11" s="355"/>
-      <c r="G11" s="339" t="s">
+      <c r="E11" s="336"/>
+      <c r="F11" s="337"/>
+      <c r="G11" s="362" t="s">
         <v>405</v>
       </c>
-      <c r="H11" s="340"/>
-      <c r="I11" s="341"/>
+      <c r="H11" s="363"/>
+      <c r="I11" s="364"/>
       <c r="J11" s="162"/>
     </row>
     <row r="12" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B12" s="351"/>
+      <c r="B12" s="333"/>
       <c r="C12" s="150"/>
-      <c r="D12" s="356"/>
-      <c r="E12" s="357"/>
-      <c r="F12" s="358"/>
-      <c r="G12" s="333" t="str">
+      <c r="D12" s="338"/>
+      <c r="E12" s="339"/>
+      <c r="F12" s="340"/>
+      <c r="G12" s="344" t="str">
         <f>'3 - Stakeholders List'!C18</f>
         <v>Fábio Junqueira</v>
       </c>
-      <c r="H12" s="334"/>
-      <c r="I12" s="335"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="346"/>
       <c r="J12" s="162"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B13" s="351"/>
+      <c r="B13" s="333"/>
       <c r="C13" s="150"/>
-      <c r="D13" s="356" t="str">
+      <c r="D13" s="338" t="str">
         <f>'3 - Stakeholders List'!C8</f>
         <v>Paulo Silva</v>
       </c>
-      <c r="E13" s="357"/>
-      <c r="F13" s="358"/>
-      <c r="G13" s="333" t="str">
+      <c r="E13" s="339"/>
+      <c r="F13" s="340"/>
+      <c r="G13" s="344" t="str">
         <f>'3 - Stakeholders List'!C19</f>
         <v>Plínio Gonçalves</v>
       </c>
-      <c r="H13" s="334"/>
-      <c r="I13" s="335"/>
+      <c r="H13" s="345"/>
+      <c r="I13" s="346"/>
       <c r="J13" s="162"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B14" s="351"/>
+      <c r="B14" s="333"/>
       <c r="C14" s="150"/>
-      <c r="D14" s="356" t="str">
+      <c r="D14" s="338" t="str">
         <f>'3 - Stakeholders List'!C9</f>
         <v>Rogério Ferreira</v>
       </c>
-      <c r="E14" s="357"/>
-      <c r="F14" s="358"/>
-      <c r="G14" s="333" t="str">
+      <c r="E14" s="339"/>
+      <c r="F14" s="340"/>
+      <c r="G14" s="344" t="str">
         <f>'3 - Stakeholders List'!C20</f>
         <v>Rodrigo Santos</v>
       </c>
-      <c r="H14" s="334"/>
-      <c r="I14" s="335"/>
+      <c r="H14" s="345"/>
+      <c r="I14" s="346"/>
       <c r="J14" s="162"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B15" s="351"/>
+      <c r="B15" s="333"/>
       <c r="C15" s="150"/>
-      <c r="D15" s="356" t="str">
+      <c r="D15" s="338" t="str">
         <f>'3 - Stakeholders List'!C10</f>
         <v>Charles Eduardo</v>
       </c>
-      <c r="E15" s="357"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="333" t="str">
+      <c r="E15" s="339"/>
+      <c r="F15" s="340"/>
+      <c r="G15" s="344" t="str">
         <f>'3 - Stakeholders List'!C21</f>
         <v>Michele Souza</v>
       </c>
-      <c r="H15" s="334"/>
-      <c r="I15" s="335"/>
+      <c r="H15" s="345"/>
+      <c r="I15" s="346"/>
       <c r="J15" s="162"/>
     </row>
     <row r="16" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B16" s="351"/>
+      <c r="B16" s="333"/>
       <c r="C16" s="150"/>
-      <c r="D16" s="356" t="str">
+      <c r="D16" s="338" t="str">
         <f>'3 - Stakeholders List'!C15</f>
         <v>Ricardo Cabral</v>
       </c>
-      <c r="E16" s="357"/>
-      <c r="F16" s="358"/>
-      <c r="G16" s="333" t="str">
+      <c r="E16" s="339"/>
+      <c r="F16" s="340"/>
+      <c r="G16" s="344" t="str">
         <f>'3 - Stakeholders List'!C24</f>
         <v>Patrícia Ribeiro</v>
       </c>
-      <c r="H16" s="334"/>
-      <c r="I16" s="335"/>
+      <c r="H16" s="345"/>
+      <c r="I16" s="346"/>
       <c r="J16" s="162"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B17" s="351"/>
+      <c r="B17" s="333"/>
       <c r="C17" s="150"/>
-      <c r="D17" s="356"/>
-      <c r="E17" s="357"/>
-      <c r="F17" s="358"/>
-      <c r="G17" s="333" t="str">
+      <c r="D17" s="338"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="340"/>
+      <c r="G17" s="344" t="str">
         <f>'3 - Stakeholders List'!C28</f>
         <v>Júlio Batista</v>
       </c>
-      <c r="H17" s="334"/>
-      <c r="I17" s="335"/>
+      <c r="H17" s="345"/>
+      <c r="I17" s="346"/>
       <c r="J17" s="162"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="B18" s="351"/>
+      <c r="B18" s="333"/>
       <c r="C18" s="150"/>
-      <c r="D18" s="356"/>
-      <c r="E18" s="357"/>
-      <c r="F18" s="358"/>
-      <c r="G18" s="333" t="str">
+      <c r="D18" s="338"/>
+      <c r="E18" s="339"/>
+      <c r="F18" s="340"/>
+      <c r="G18" s="344" t="str">
         <f>'3 - Stakeholders List'!C30</f>
         <v>Carla Moreira</v>
       </c>
-      <c r="H18" s="334"/>
-      <c r="I18" s="335"/>
+      <c r="H18" s="345"/>
+      <c r="I18" s="346"/>
       <c r="J18" s="162"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
@@ -14211,15 +14216,15 @@
         <v>363</v>
       </c>
       <c r="C19" s="150"/>
-      <c r="D19" s="359"/>
-      <c r="E19" s="360"/>
-      <c r="F19" s="361"/>
-      <c r="G19" s="362" t="str">
+      <c r="D19" s="341"/>
+      <c r="E19" s="342"/>
+      <c r="F19" s="343"/>
+      <c r="G19" s="347" t="str">
         <f>'3 - Stakeholders List'!C32</f>
         <v>Marcelo Martins</v>
       </c>
-      <c r="H19" s="363"/>
-      <c r="I19" s="364"/>
+      <c r="H19" s="348"/>
+      <c r="I19" s="349"/>
       <c r="J19" s="162"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
@@ -14241,10 +14246,10 @@
         <v>363</v>
       </c>
       <c r="E21" s="166"/>
-      <c r="F21" s="352" t="s">
+      <c r="F21" s="334" t="s">
         <v>406</v>
       </c>
-      <c r="G21" s="352"/>
+      <c r="G21" s="334"/>
       <c r="H21" s="166"/>
       <c r="I21" s="167" t="s">
         <v>362</v>
@@ -14254,6 +14259,28 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="38">
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:B18"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="D11:F11"/>
@@ -14270,28 +14297,6 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Salesforce/Salesforce.xlsx
+++ b/Salesforce/Salesforce.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1" userName="SONY" reservationPassword="CA71"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="15315" windowHeight="8085" tabRatio="0" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="15315" windowHeight="8085" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="10" r:id="rId1"/>
@@ -4437,6 +4437,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4461,6 +4464,60 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
@@ -4494,15 +4551,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4512,51 +4560,6 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4634,9 +4637,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7493,7 +7493,7 @@
   </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
@@ -7927,15 +7927,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18" customHeight="1">
-      <c r="B1" s="365" t="s">
+      <c r="B1" s="366" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="366"/>
-      <c r="D1" s="366"/>
-      <c r="E1" s="366"/>
-      <c r="F1" s="366"/>
-      <c r="G1" s="366"/>
-      <c r="H1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="368"/>
     </row>
     <row r="2" spans="2:9" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B2" s="252" t="s">
@@ -8295,13 +8295,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="369" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="370"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="371"/>
     </row>
     <row r="2" spans="2:6" ht="15">
       <c r="B2" s="228" t="s">
@@ -8491,12 +8491,12 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="15">
-      <c r="B13" s="371" t="s">
+      <c r="B13" s="372" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="372"/>
-      <c r="D13" s="372"/>
-      <c r="E13" s="373"/>
+      <c r="C13" s="373"/>
+      <c r="D13" s="373"/>
+      <c r="E13" s="374"/>
       <c r="F13" s="241">
         <f>SUM(F3:F12)</f>
         <v>39770</v>
@@ -8537,16 +8537,16 @@
   <sheetData>
     <row r="1" spans="3:4" ht="24.95" customHeight="1"/>
     <row r="2" spans="3:4" ht="15">
-      <c r="C2" s="328" t="s">
+      <c r="C2" s="329" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="328"/>
+      <c r="D2" s="329"/>
     </row>
     <row r="3" spans="3:4" ht="15">
-      <c r="C3" s="328" t="s">
+      <c r="C3" s="329" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="328"/>
+      <c r="D3" s="329"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8592,14 +8592,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18" customHeight="1">
-      <c r="B1" s="374" t="s">
+      <c r="B1" s="375" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="375"/>
-      <c r="G1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="377"/>
     </row>
     <row r="2" spans="2:7" s="7" customFormat="1" ht="15">
       <c r="B2" s="184" t="s">
@@ -9337,12 +9337,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1">
-      <c r="B1" s="377" t="s">
+      <c r="B1" s="378" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="377"/>
-      <c r="D1" s="377"/>
-      <c r="E1" s="377"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
     </row>
     <row r="2" spans="2:5" ht="3" customHeight="1">
       <c r="B2" s="222"/>
@@ -9546,14 +9546,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75">
-      <c r="B1" s="377" t="s">
+      <c r="B1" s="378" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="377"/>
-      <c r="D1" s="377"/>
-      <c r="E1" s="377"/>
-      <c r="F1" s="377"/>
-      <c r="G1" s="377"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
     </row>
     <row r="2" spans="2:7" ht="15">
       <c r="B2" s="68" t="s">
@@ -10022,14 +10022,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75">
-      <c r="B1" s="377" t="s">
+      <c r="B1" s="378" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="377"/>
-      <c r="D1" s="377"/>
-      <c r="E1" s="377"/>
-      <c r="F1" s="377"/>
-      <c r="G1" s="377"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
     </row>
     <row r="2" spans="2:9" ht="15">
       <c r="B2" s="184" t="s">
@@ -10378,21 +10378,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B1" s="389" t="s">
+      <c r="B1" s="390" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="389"/>
-      <c r="H1" s="389"/>
-      <c r="I1" s="389"/>
-      <c r="J1" s="389"/>
-      <c r="K1" s="389"/>
-      <c r="L1" s="389"/>
-      <c r="M1" s="389"/>
-      <c r="N1" s="389"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="390"/>
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
+      <c r="M1" s="390"/>
+      <c r="N1" s="390"/>
     </row>
     <row r="2" spans="2:15" ht="25.5" customHeight="1">
       <c r="B2" s="112"/>
@@ -10423,10 +10423,10 @@
       <c r="J3" s="111"/>
       <c r="K3" s="111"/>
       <c r="L3" s="178"/>
-      <c r="M3" s="378" t="s">
+      <c r="M3" s="379" t="s">
         <v>633</v>
       </c>
-      <c r="N3" s="384"/>
+      <c r="N3" s="385"/>
     </row>
     <row r="4" spans="2:15" ht="25.5" customHeight="1">
       <c r="B4" s="114"/>
@@ -10440,8 +10440,8 @@
       <c r="J4" s="111"/>
       <c r="K4" s="111"/>
       <c r="L4" s="179"/>
-      <c r="M4" s="385"/>
-      <c r="N4" s="386"/>
+      <c r="M4" s="386"/>
+      <c r="N4" s="387"/>
     </row>
     <row r="5" spans="2:15" ht="25.5" customHeight="1">
       <c r="B5" s="114"/>
@@ -10455,8 +10455,8 @@
       <c r="J5" s="111"/>
       <c r="K5" s="111"/>
       <c r="L5" s="180"/>
-      <c r="M5" s="387"/>
-      <c r="N5" s="388"/>
+      <c r="M5" s="388"/>
+      <c r="N5" s="389"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" customHeight="1">
       <c r="B6" s="114"/>
@@ -10487,10 +10487,10 @@
       <c r="J7" s="111"/>
       <c r="K7" s="114"/>
       <c r="L7" s="174"/>
-      <c r="M7" s="378" t="s">
+      <c r="M7" s="379" t="s">
         <v>632</v>
       </c>
-      <c r="N7" s="379"/>
+      <c r="N7" s="380"/>
     </row>
     <row r="8" spans="2:15" ht="25.5" customHeight="1">
       <c r="B8" s="114"/>
@@ -10504,8 +10504,8 @@
       <c r="J8" s="111"/>
       <c r="K8" s="114"/>
       <c r="L8" s="175"/>
-      <c r="M8" s="380"/>
-      <c r="N8" s="381"/>
+      <c r="M8" s="381"/>
+      <c r="N8" s="382"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1">
       <c r="B9" s="114"/>
@@ -10519,8 +10519,8 @@
       <c r="J9" s="111"/>
       <c r="K9" s="115"/>
       <c r="L9" s="176"/>
-      <c r="M9" s="382"/>
-      <c r="N9" s="383"/>
+      <c r="M9" s="383"/>
+      <c r="N9" s="384"/>
     </row>
     <row r="10" spans="2:15" s="60" customFormat="1">
       <c r="B10" s="138" t="s">
@@ -11391,17 +11391,17 @@
       <c r="J1" s="117"/>
     </row>
     <row r="2" spans="2:10" ht="17.25">
-      <c r="B2" s="390" t="s">
+      <c r="B2" s="391" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
-      <c r="J2" s="390"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="391"/>
+      <c r="H2" s="391"/>
+      <c r="I2" s="391"/>
+      <c r="J2" s="391"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="117"/>
@@ -11647,26 +11647,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="24.95" customHeight="1">
-      <c r="B1" s="325" t="s">
+      <c r="B1" s="326" t="s">
         <v>641</v>
       </c>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
+      <c r="R1" s="327"/>
+      <c r="S1" s="328"/>
     </row>
     <row r="2" spans="2:19" ht="5.0999999999999996" customHeight="1">
       <c r="B2" s="308"/>
@@ -12507,16 +12507,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="15">
-      <c r="C3" s="328" t="s">
+      <c r="C3" s="329" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="328"/>
+      <c r="D3" s="329"/>
     </row>
     <row r="4" spans="3:4" ht="15">
-      <c r="C4" s="328" t="s">
+      <c r="C4" s="329" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="328"/>
+      <c r="D4" s="329"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12542,7 +12542,7 @@
   </sheetPr>
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
@@ -12872,20 +12872,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.95" customHeight="1">
-      <c r="B1" s="330" t="s">
+      <c r="B1" s="331" t="s">
         <v>631</v>
       </c>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="333"/>
     </row>
     <row r="2" spans="2:7" s="61" customFormat="1" ht="15.75">
-      <c r="B2" s="329" t="s">
+      <c r="B2" s="330" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="329"/>
+      <c r="C2" s="330"/>
       <c r="D2" s="307" t="s">
         <v>371</v>
       </c>
@@ -13369,7 +13369,7 @@
       <c r="F32" s="302" t="s">
         <v>378</v>
       </c>
-      <c r="G32" s="391" t="s">
+      <c r="G32" s="325" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13963,252 +13963,252 @@
         <v>362</v>
       </c>
       <c r="C2" s="150"/>
-      <c r="D2" s="359" t="s">
+      <c r="D2" s="349" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="360"/>
-      <c r="F2" s="361"/>
-      <c r="G2" s="350" t="s">
+      <c r="E2" s="350"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="343" t="s">
         <v>403</v>
       </c>
-      <c r="H2" s="351"/>
-      <c r="I2" s="352"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="345"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B3" s="333" t="s">
+      <c r="B3" s="352" t="s">
         <v>401</v>
       </c>
       <c r="C3" s="150"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="353"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="355"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="348"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="339"/>
       <c r="J3" s="162"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B4" s="333"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="150"/>
-      <c r="D4" s="356"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="358"/>
-      <c r="G4" s="353" t="str">
+      <c r="D4" s="346"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="348"/>
+      <c r="G4" s="337" t="str">
         <f>'3 - Stakeholders List'!C26</f>
         <v>Ana Pereira</v>
       </c>
-      <c r="H4" s="354"/>
-      <c r="I4" s="355"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="339"/>
       <c r="J4" s="162"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B5" s="333"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="150"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="353" t="str">
+      <c r="D5" s="346"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="348"/>
+      <c r="G5" s="337" t="str">
         <f>'3 - Stakeholders List'!C17</f>
         <v>Marcia Oliveira</v>
       </c>
-      <c r="H5" s="354"/>
-      <c r="I5" s="355"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="339"/>
       <c r="J5" s="162"/>
     </row>
     <row r="6" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B6" s="333"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="150"/>
-      <c r="D6" s="356" t="str">
+      <c r="D6" s="346" t="str">
         <f>'3 - Stakeholders List'!C23</f>
         <v>Julia Almeida</v>
       </c>
-      <c r="E6" s="357"/>
-      <c r="F6" s="358"/>
-      <c r="G6" s="353" t="str">
+      <c r="E6" s="347"/>
+      <c r="F6" s="348"/>
+      <c r="G6" s="337" t="str">
         <f>'3 - Stakeholders List'!C12</f>
         <v>Cristina Medeiros</v>
       </c>
-      <c r="H6" s="354"/>
-      <c r="I6" s="355"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="339"/>
       <c r="J6" s="162"/>
     </row>
     <row r="7" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B7" s="333"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="150"/>
-      <c r="D7" s="356" t="str">
+      <c r="D7" s="346" t="str">
         <f>'3 - Stakeholders List'!C14</f>
         <v>José Souza</v>
       </c>
-      <c r="E7" s="357"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="353" t="str">
+      <c r="E7" s="347"/>
+      <c r="F7" s="348"/>
+      <c r="G7" s="337" t="str">
         <f>'3 - Stakeholders List'!C6</f>
         <v>João Teixeira</v>
       </c>
-      <c r="H7" s="354"/>
-      <c r="I7" s="355"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="339"/>
       <c r="J7" s="162"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B8" s="333"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="357"/>
-      <c r="F8" s="358"/>
-      <c r="G8" s="353" t="str">
+      <c r="D8" s="346"/>
+      <c r="E8" s="347"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="337" t="str">
         <f>'3 - Stakeholders List'!C4</f>
         <v>Mark Sullivan</v>
       </c>
-      <c r="H8" s="354"/>
-      <c r="I8" s="355"/>
+      <c r="H8" s="338"/>
+      <c r="I8" s="339"/>
       <c r="J8" s="162"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B9" s="333"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="150"/>
-      <c r="D9" s="356"/>
-      <c r="E9" s="357"/>
-      <c r="F9" s="358"/>
-      <c r="G9" s="353"/>
-      <c r="H9" s="354"/>
-      <c r="I9" s="355"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="347"/>
+      <c r="F9" s="348"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="338"/>
+      <c r="I9" s="339"/>
       <c r="J9" s="162"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B10" s="333"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="150"/>
-      <c r="D10" s="356"/>
-      <c r="E10" s="357"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="353"/>
-      <c r="H10" s="354"/>
-      <c r="I10" s="355"/>
+      <c r="D10" s="346"/>
+      <c r="E10" s="347"/>
+      <c r="F10" s="348"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="338"/>
+      <c r="I10" s="339"/>
       <c r="J10" s="162"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B11" s="333"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="150"/>
-      <c r="D11" s="335" t="s">
+      <c r="D11" s="354" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="336"/>
-      <c r="F11" s="337"/>
-      <c r="G11" s="362" t="s">
+      <c r="E11" s="355"/>
+      <c r="F11" s="356"/>
+      <c r="G11" s="340" t="s">
         <v>405</v>
       </c>
-      <c r="H11" s="363"/>
-      <c r="I11" s="364"/>
+      <c r="H11" s="341"/>
+      <c r="I11" s="342"/>
       <c r="J11" s="162"/>
     </row>
     <row r="12" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B12" s="333"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="150"/>
-      <c r="D12" s="338"/>
-      <c r="E12" s="339"/>
-      <c r="F12" s="340"/>
-      <c r="G12" s="344" t="str">
+      <c r="D12" s="357"/>
+      <c r="E12" s="358"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="334" t="str">
         <f>'3 - Stakeholders List'!C18</f>
         <v>Fábio Junqueira</v>
       </c>
-      <c r="H12" s="345"/>
-      <c r="I12" s="346"/>
+      <c r="H12" s="335"/>
+      <c r="I12" s="336"/>
       <c r="J12" s="162"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B13" s="333"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="150"/>
-      <c r="D13" s="338" t="str">
+      <c r="D13" s="357" t="str">
         <f>'3 - Stakeholders List'!C8</f>
         <v>Paulo Silva</v>
       </c>
-      <c r="E13" s="339"/>
-      <c r="F13" s="340"/>
-      <c r="G13" s="344" t="str">
+      <c r="E13" s="358"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="334" t="str">
         <f>'3 - Stakeholders List'!C19</f>
         <v>Plínio Gonçalves</v>
       </c>
-      <c r="H13" s="345"/>
-      <c r="I13" s="346"/>
+      <c r="H13" s="335"/>
+      <c r="I13" s="336"/>
       <c r="J13" s="162"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B14" s="333"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="150"/>
-      <c r="D14" s="338" t="str">
+      <c r="D14" s="357" t="str">
         <f>'3 - Stakeholders List'!C9</f>
         <v>Rogério Ferreira</v>
       </c>
-      <c r="E14" s="339"/>
-      <c r="F14" s="340"/>
-      <c r="G14" s="344" t="str">
+      <c r="E14" s="358"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="334" t="str">
         <f>'3 - Stakeholders List'!C20</f>
         <v>Rodrigo Santos</v>
       </c>
-      <c r="H14" s="345"/>
-      <c r="I14" s="346"/>
+      <c r="H14" s="335"/>
+      <c r="I14" s="336"/>
       <c r="J14" s="162"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B15" s="333"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="150"/>
-      <c r="D15" s="338" t="str">
+      <c r="D15" s="357" t="str">
         <f>'3 - Stakeholders List'!C10</f>
         <v>Charles Eduardo</v>
       </c>
-      <c r="E15" s="339"/>
-      <c r="F15" s="340"/>
-      <c r="G15" s="344" t="str">
+      <c r="E15" s="358"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="334" t="str">
         <f>'3 - Stakeholders List'!C21</f>
         <v>Michele Souza</v>
       </c>
-      <c r="H15" s="345"/>
-      <c r="I15" s="346"/>
+      <c r="H15" s="335"/>
+      <c r="I15" s="336"/>
       <c r="J15" s="162"/>
     </row>
     <row r="16" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B16" s="333"/>
+      <c r="B16" s="352"/>
       <c r="C16" s="150"/>
-      <c r="D16" s="338" t="str">
+      <c r="D16" s="357" t="str">
         <f>'3 - Stakeholders List'!C15</f>
         <v>Ricardo Cabral</v>
       </c>
-      <c r="E16" s="339"/>
-      <c r="F16" s="340"/>
-      <c r="G16" s="344" t="str">
+      <c r="E16" s="358"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="334" t="str">
         <f>'3 - Stakeholders List'!C24</f>
         <v>Patrícia Ribeiro</v>
       </c>
-      <c r="H16" s="345"/>
-      <c r="I16" s="346"/>
+      <c r="H16" s="335"/>
+      <c r="I16" s="336"/>
       <c r="J16" s="162"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B17" s="333"/>
+      <c r="B17" s="352"/>
       <c r="C17" s="150"/>
-      <c r="D17" s="338"/>
-      <c r="E17" s="339"/>
-      <c r="F17" s="340"/>
-      <c r="G17" s="344" t="str">
+      <c r="D17" s="357"/>
+      <c r="E17" s="358"/>
+      <c r="F17" s="359"/>
+      <c r="G17" s="334" t="str">
         <f>'3 - Stakeholders List'!C28</f>
         <v>Júlio Batista</v>
       </c>
-      <c r="H17" s="345"/>
-      <c r="I17" s="346"/>
+      <c r="H17" s="335"/>
+      <c r="I17" s="336"/>
       <c r="J17" s="162"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="B18" s="333"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="150"/>
-      <c r="D18" s="338"/>
-      <c r="E18" s="339"/>
-      <c r="F18" s="340"/>
-      <c r="G18" s="344" t="str">
+      <c r="D18" s="357"/>
+      <c r="E18" s="358"/>
+      <c r="F18" s="359"/>
+      <c r="G18" s="334" t="str">
         <f>'3 - Stakeholders List'!C30</f>
         <v>Carla Moreira</v>
       </c>
-      <c r="H18" s="345"/>
-      <c r="I18" s="346"/>
+      <c r="H18" s="335"/>
+      <c r="I18" s="336"/>
       <c r="J18" s="162"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
@@ -14216,15 +14216,15 @@
         <v>363</v>
       </c>
       <c r="C19" s="150"/>
-      <c r="D19" s="341"/>
-      <c r="E19" s="342"/>
-      <c r="F19" s="343"/>
-      <c r="G19" s="347" t="str">
+      <c r="D19" s="360"/>
+      <c r="E19" s="361"/>
+      <c r="F19" s="362"/>
+      <c r="G19" s="363" t="str">
         <f>'3 - Stakeholders List'!C32</f>
         <v>Marcelo Martins</v>
       </c>
-      <c r="H19" s="348"/>
-      <c r="I19" s="349"/>
+      <c r="H19" s="364"/>
+      <c r="I19" s="365"/>
       <c r="J19" s="162"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
@@ -14246,10 +14246,10 @@
         <v>363</v>
       </c>
       <c r="E21" s="166"/>
-      <c r="F21" s="334" t="s">
+      <c r="F21" s="353" t="s">
         <v>406</v>
       </c>
-      <c r="G21" s="334"/>
+      <c r="G21" s="353"/>
       <c r="H21" s="166"/>
       <c r="I21" s="167" t="s">
         <v>362</v>
@@ -14259,28 +14259,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:B18"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="D11:F11"/>
@@ -14297,6 +14275,28 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14353,14 +14353,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B1" s="330" t="s">
+      <c r="B1" s="331" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="333"/>
     </row>
     <row r="2" spans="2:7" ht="30">
       <c r="B2" s="276" t="s">
